--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA43E3-BA0F-4F99-9461-577D5970C3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62425C74-5AB9-4506-B1B8-7838CA99FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1380" windowWidth="16620" windowHeight="14355" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
+    <workbookView xWindow="1560" yWindow="1155" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,11 +936,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="8">
-        <v>645</v>
+        <v>710</v>
       </c>
       <c r="E2" s="8">
         <f>D2/1.13</f>
-        <v>570.79646017699122</v>
+        <v>628.31858407079653</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,11 +966,11 @@
       </c>
       <c r="D4" s="2">
         <f>D3*D2</f>
-        <v>253162.5</v>
+        <v>278675</v>
       </c>
       <c r="E4">
         <f>D4/1.13</f>
-        <v>224037.61061946905</v>
+        <v>246615.04424778762</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,11 +1002,11 @@
       </c>
       <c r="D7" s="2">
         <f>E4+D6-D5</f>
-        <v>224788.41061946904</v>
+        <v>247365.84424778761</v>
       </c>
       <c r="E7" s="2">
         <f>D7/D3</f>
-        <v>572.70932641902937</v>
+        <v>630.23145031283468</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D8" s="5">
         <f>E7/(Sheet2!J23*4*1.11)</f>
-        <v>21.334219757589967</v>
+        <v>23.476998957200681</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1029,10 @@
   <dimension ref="A1:DT84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,7 +3086,7 @@
         <v>43</v>
       </c>
       <c r="AB27" s="4">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AC27" s="5">
         <v>1.1399999999999999</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="AB28" s="2">
         <f>NPV(AB27,T33:XFD33)+Sheet1!D5-Sheet1!D6</f>
-        <v>314256.99970866478</v>
+        <v>291214.56132087915</v>
       </c>
     </row>
     <row r="29" spans="1:115" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="AB29" s="9">
         <f>AB28/Sheet1!D3</f>
-        <v>800.65477632780835</v>
+        <v>741.94792693217619</v>
       </c>
     </row>
     <row r="30" spans="1:115" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="AB30" s="2">
         <f>AB29*AC27</f>
-        <v>912.74644501370142</v>
+        <v>845.82063670268076</v>
       </c>
     </row>
     <row r="31" spans="1:115" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="AB31" s="4">
         <f>AB30/Sheet1!D2-1</f>
-        <v>0.41511076746310294</v>
+        <v>0.19129667141222639</v>
       </c>
     </row>
     <row r="32" spans="1:115" x14ac:dyDescent="0.25">

--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62425C74-5AB9-4506-B1B8-7838CA99FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2048067-87C0-4B46-926B-D401B59E52A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1155" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
+    <workbookView xWindow="2655" yWindow="1635" windowWidth="19695" windowHeight="13635" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,12 +407,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -435,18 +440,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,100 +926,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3A3A0E-0235-4592-8342-EC1B6F585EA4}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
         <v>710</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="11">
         <f>D2/1.13</f>
         <v>628.31858407079653</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>392.5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>D3*D2</f>
         <v>278675</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <f>D4/1.13</f>
         <v>246615.04424778762</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>9098+5.2</f>
         <v>9103.2000000000007</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>9854</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>E4+D6-D5</f>
         <v>247365.84424778761</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>D7/D3</f>
         <v>630.23145031283468</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f>E7/(Sheet2!J23*4*1.11)</f>
         <v>23.476998957200681</v>
       </c>
@@ -1028,270 +1037,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC9EA94-660F-4C9C-B2FF-A5D3568DEBBC}">
   <dimension ref="A1:DT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z27" sqref="Z27"/>
+      <selection pane="bottomRight" activeCell="Z27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1"/>
-    <col min="2" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="2">
         <v>2018</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="2">
         <f>M1+1</f>
         <v>2019</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="2">
         <f t="shared" ref="O1:P1" si="0">N1+1</f>
         <v>2020</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="2">
         <v>2022</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="2">
         <f>Q1+1</f>
         <v>2023</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="2">
         <f t="shared" ref="S1:X1" si="1">R1+1</f>
         <v>2024</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="2">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="2">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="2">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="2">
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>124</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>70</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>116</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>132</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <f>73+4</f>
         <v>77</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <f>K6/K4</f>
         <v>74.666666666666671</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>229</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>258</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>300</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="2">
         <v>350</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="2">
         <v>380</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="2">
         <v>449</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="2">
         <f>T8/T4</f>
         <v>420</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>9186</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3611</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>5567</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>2633</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>7088</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>3900</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>11292</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>26240</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>30674</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>20040</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>18899</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>E6/E2</f>
         <v>45.83064516129032</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" ref="F4:J4" si="2">F6/F2</f>
         <v>56.657142857142858</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f t="shared" si="2"/>
         <v>47.61</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="2"/>
         <v>51.086206896551722</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f t="shared" si="2"/>
         <v>53.909090909090907</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <f t="shared" si="2"/>
         <v>74.558441558441558</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>75</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f t="shared" ref="N4:S4" si="3">N6/N2</f>
         <v>0</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <f t="shared" si="3"/>
         <v>44.085714285714289</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <f t="shared" si="3"/>
         <v>57.734210526315792</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <f t="shared" si="3"/>
         <v>48.483296213808465</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="2">
         <v>75</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="O5" s="4">
         <f t="shared" ref="O5:T5" si="4">O2/N2-1</f>
         <v>0.1266375545851528</v>
@@ -1316,171 +1325,171 @@
         <f t="shared" si="4"/>
         <v>-6.4587973273942056E-2</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5683</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>3966</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>4761</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>5926</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>7116</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f>J8-J7</f>
         <v>5741</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>K8-K7</f>
         <v>5600</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>15430</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>21939</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>21769</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1554</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1324</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1482</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1541</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>2147</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>2001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>1800</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="Q7" s="2">
+      <c r="O7" s="5"/>
+      <c r="Q7" s="1">
         <v>5743</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>5620</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>6494</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <f>SUM(B6:B7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <f t="shared" ref="C8:E8" si="5">SUM(C6:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <f t="shared" si="5"/>
         <v>7237</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <f>SUM(F6:F7)</f>
         <v>5290</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <f t="shared" ref="G8:H8" si="6">SUM(G6:G7)</f>
         <v>6243</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <f t="shared" si="6"/>
         <v>7467</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <f>SUM(I6:I7)</f>
         <v>9263</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <v>7742</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="5">
         <v>13979</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="5">
         <v>18611</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="5">
         <f>SUM(Q6:Q7)</f>
         <v>21173</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="5">
         <f t="shared" ref="R8:S8" si="7">SUM(R6:R7)</f>
         <v>27559</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="5">
         <f t="shared" si="7"/>
         <v>28263</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="5">
         <v>31500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="5">
         <f>T8*1.11</f>
         <v>34965</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="5">
         <f t="shared" ref="V8:Y8" si="8">U8*1.11</f>
         <v>38811.15</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="5">
         <f t="shared" si="8"/>
         <v>43080.376500000006</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="5">
         <f t="shared" si="8"/>
         <v>47819.217915000008</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="5">
         <f t="shared" si="8"/>
         <v>53079.331885650012</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4"/>
@@ -1490,1367 +1499,1367 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="O9" s="3"/>
-      <c r="Q9" s="2">
+      <c r="O9" s="5"/>
+      <c r="Q9" s="1">
         <v>7582</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>10151</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>10407</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="Q10" s="2">
+      <c r="O10" s="5"/>
+      <c r="Q10" s="1">
         <v>2891</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>3271</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>3364</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f t="shared" ref="B11" si="9">SUM(B9:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" ref="C11" si="10">SUM(C9:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" ref="D11" si="11">SUM(D9:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>3520</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2593</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>3031</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>3674</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>4463</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f t="shared" ref="J11" si="12">J8*(1-J29)</f>
         <v>3561.3199999999997</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f>K8*(1-K29)</f>
         <v>3589</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="Q11" s="2">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="1">
         <f>SUM(Q9:Q10)</f>
         <v>10473</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <f t="shared" ref="R11:S11" si="13">SUM(R9:R10)</f>
         <v>13422</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <f t="shared" si="13"/>
         <v>13771</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <f t="shared" ref="T11:Y11" si="14">T8*(1-T29)</f>
         <v>14962.5</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <f t="shared" si="14"/>
         <v>16333.025625</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <f t="shared" si="14"/>
         <v>17819.436070406253</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="1">
         <f t="shared" si="14"/>
         <v>19430.06200122321</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="1">
         <f t="shared" si="14"/>
         <v>21173.591084953132</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="1">
         <f t="shared" si="14"/>
         <v>23059.036417577696</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f>B8-B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" ref="C12:E12" si="15">C8-C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="15"/>
         <v>3717</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f>F8-F11</f>
         <v>2697</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" ref="G12:K12" si="16">G8-G11</f>
         <v>3212</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f t="shared" si="16"/>
         <v>3793</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f>I8-I11</f>
         <v>4800</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <f t="shared" si="16"/>
         <v>4180.68</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f t="shared" si="16"/>
         <v>3811</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>6978</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>9809</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <f>Q8-Q11</f>
         <v>10700</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <f t="shared" ref="R12:S12" si="17">R8-R11</f>
         <v>14137</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <f t="shared" si="17"/>
         <v>14492</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <f t="shared" ref="T12" si="18">T8-T11</f>
         <v>16537.5</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <f t="shared" ref="U12" si="19">U8-U11</f>
         <v>18631.974374999998</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="1">
         <f t="shared" ref="V12" si="20">V8-V11</f>
         <v>20991.713929593749</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <f t="shared" ref="W12" si="21">W8-W11</f>
         <v>23650.314498776796</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="1">
         <f t="shared" ref="X12:Y12" si="22">X8-X11</f>
         <v>26645.626830046876</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="1">
         <f t="shared" si="22"/>
         <v>30020.295468072316</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1041</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>1032</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>1100</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>1055</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>1116</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1161</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>1200</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>2201</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>2547</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>3253</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>3980</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>4303</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <f>S13*(1+T25)</f>
         <v>4795.8284683154652</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <f t="shared" ref="U13:X13" si="23">T13*(1+U25)</f>
         <v>5323.3695998301664</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="1">
         <f t="shared" si="23"/>
         <v>5908.9402558114853</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <f t="shared" si="23"/>
         <v>6558.9236839507494</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="1">
         <f t="shared" si="23"/>
         <v>7280.4052891853325</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="1">
         <f t="shared" ref="Y13" si="24">X13*(1+Y25)</f>
         <v>8081.2498709957199</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>284</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>273</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>277</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>297</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>318.39999999999998</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>280</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>300</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>545</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>726</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>945</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>1113</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>1165</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <f>S14*(1+T25)</f>
         <v>1298.4290415030252</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <f t="shared" ref="U14:X14" si="25">T14*(1+U25)</f>
         <v>1441.2562360683582</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <f t="shared" si="25"/>
         <v>1599.7944220358777</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <f t="shared" si="25"/>
         <v>1775.7718084598243</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="1">
         <f t="shared" si="25"/>
         <v>1971.1067073904053</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="1">
         <f t="shared" ref="Y14" si="26">X14*(1+Y25)</f>
         <v>2187.9284452033498</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <f>SUM(B13:B14)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f t="shared" ref="C15:E15" si="27">SUM(C13:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="27"/>
         <v>1325</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f t="shared" ref="F15:K15" si="28">SUM(F13:F14)</f>
         <v>1305</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <f t="shared" si="28"/>
         <v>1377</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f t="shared" si="28"/>
         <v>1352</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f t="shared" si="28"/>
         <v>1434.4</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <f t="shared" si="28"/>
         <v>1441</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <f t="shared" si="28"/>
         <v>1500</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <f>SUM(O13:O14)</f>
         <v>2746</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <f>SUM(P13:P14)</f>
         <v>3273</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <f>SUM(Q13:Q14)</f>
         <v>4198</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <f t="shared" ref="R15:S15" si="29">SUM(R13:R14)</f>
         <v>5093</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <f t="shared" si="29"/>
         <v>5468</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <f t="shared" ref="T15" si="30">SUM(T13:T14)</f>
         <v>6094.2575098184907</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <f t="shared" ref="U15" si="31">SUM(U13:U14)</f>
         <v>6764.6258358985251</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <f t="shared" ref="V15" si="32">SUM(V13:V14)</f>
         <v>7508.7346778473629</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <f t="shared" ref="W15" si="33">SUM(W13:W14)</f>
         <v>8334.6954924105739</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="1">
         <f t="shared" ref="X15" si="34">SUM(X13:X14)</f>
         <v>9251.5119965757385</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="1">
         <f>SUM(Y13:Y14)</f>
         <v>10269.17831619907</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f>B12-B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f t="shared" ref="C16:E16" si="35">C12-C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f t="shared" si="35"/>
         <v>2392</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f>F12-F15</f>
         <v>1392</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f t="shared" ref="G16:K16" si="36">G12-G15</f>
         <v>1835</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f t="shared" si="36"/>
         <v>2441</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f t="shared" si="36"/>
         <v>3365.6</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f t="shared" si="36"/>
         <v>2739.6800000000003</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f t="shared" si="36"/>
         <v>2311</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <f>O12-O15</f>
         <v>4232</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <f>P12-P15</f>
         <v>6536</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <f>Q12-Q15</f>
         <v>6502</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <f t="shared" ref="R16:S16" si="37">R12-R15</f>
         <v>9044</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <f t="shared" si="37"/>
         <v>9024</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <f t="shared" ref="T16" si="38">T12-T15</f>
         <v>10443.24249018151</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <f t="shared" ref="U16" si="39">U12-U15</f>
         <v>11867.348539101473</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="1">
         <f t="shared" ref="V16" si="40">V12-V15</f>
         <v>13482.979251746387</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="1">
         <f t="shared" ref="W16" si="41">W12-W15</f>
         <v>15315.619006366222</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="1">
         <f t="shared" ref="X16:Y16" si="42">X12-X15</f>
         <v>17394.11483347114</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="1">
         <f t="shared" si="42"/>
         <v>19751.117151873244</v>
       </c>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5.2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>26</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>-12</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>-1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>6.3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>49</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f>J35*(AB25/4)</f>
         <v>-11.264999999999999</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <v>-44.6</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <v>41</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <v>20</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="1">
         <f t="shared" ref="T17:Y17" si="43">S35*$AB$25</f>
         <v>160.79999999999998</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="1">
         <f t="shared" si="43"/>
         <v>702.92441122386163</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="1">
         <f t="shared" si="43"/>
         <v>1329.4275122959057</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="1">
         <f t="shared" si="43"/>
         <v>2066.6129786400797</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="1">
         <f t="shared" si="43"/>
         <v>2930.5952254603935</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="1">
         <f t="shared" si="43"/>
         <v>3939.694541631864</v>
       </c>
     </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <f>B16+B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f t="shared" ref="C18:E18" si="44">C16+C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <f t="shared" si="44"/>
         <v>2397.1999999999998</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <f>F16+F17</f>
         <v>1418</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <f t="shared" ref="G18:K18" si="45">G16+G17</f>
         <v>1823</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <f t="shared" si="45"/>
         <v>2440</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <f>I16+I17</f>
         <v>3371.9</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <f t="shared" si="45"/>
         <v>2788.6800000000003</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <f t="shared" si="45"/>
         <v>2299.7350000000001</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="1">
         <f>O16+O17</f>
         <v>4232</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="1">
         <f>P16+P17</f>
         <v>6536</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <f>Q16+Q17</f>
         <v>6457.4</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <f t="shared" ref="R18:S18" si="46">R16+R17</f>
         <v>9085</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="1">
         <f t="shared" si="46"/>
         <v>9044</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="1">
         <f t="shared" ref="T18" si="47">T16+T17</f>
         <v>10604.042490181509</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="1">
         <f t="shared" ref="U18" si="48">U16+U17</f>
         <v>12570.272950325334</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="1">
         <f t="shared" ref="V18" si="49">V16+V17</f>
         <v>14812.406764042293</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="1">
         <f t="shared" ref="W18" si="50">W16+W17</f>
         <v>17382.2319850063</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="1">
         <f t="shared" ref="X18:Y18" si="51">X16+X17</f>
         <v>20324.710058931534</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="1">
         <f t="shared" si="51"/>
         <v>23690.811693505108</v>
       </c>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>386</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>224</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>292</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>441</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>723.8</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>465</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <f>K18*K27</f>
         <v>390.95495000000005</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1">
         <v>970</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <v>1436</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <v>1681</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="1">
         <f>T18*T27</f>
         <v>1802.6872233308568</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="1">
         <f t="shared" ref="U19:Y19" si="52">U18*U27</f>
         <v>2388.3518605618133</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="1">
         <f t="shared" si="52"/>
         <v>2814.3572851680356</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="1">
         <f t="shared" si="52"/>
         <v>3302.6240771511971</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="1">
         <f t="shared" si="52"/>
         <v>3861.6949111969916</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="1">
         <f t="shared" si="52"/>
         <v>4501.2542217659702</v>
       </c>
     </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>36.6</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>30.2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>47</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>77</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>55.5</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <f>I20*(1+J26)</f>
         <v>46.386807729677209</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>50</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>138</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>191</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <v>210</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="1">
         <f>S20*(1+T25)</f>
         <v>234.05158688037363</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="1">
         <f t="shared" ref="U20:X20" si="53">T20*(1+U25)</f>
         <v>259.79726143721473</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="1">
         <f t="shared" si="53"/>
         <v>288.37496019530835</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="1">
         <f t="shared" si="53"/>
         <v>320.09620581679229</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="1">
         <f t="shared" si="53"/>
         <v>355.30678845663948</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="1">
         <f t="shared" ref="Y20" si="54">X20*(1+Y25)</f>
         <v>394.39053518686984</v>
       </c>
     </row>
-    <row r="21" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:115" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <f>B18-B19+B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <f t="shared" ref="C21:E21" si="55">C18-C19+C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <f t="shared" si="55"/>
         <v>2047.7999999999997</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <f>F18-F19+F20</f>
         <v>1224.2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <f t="shared" ref="G21:K21" si="56">G18-G19+G20</f>
         <v>1578</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
         <f t="shared" si="56"/>
         <v>2076</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <f>I18-I19+I20</f>
         <v>2703.6000000000004</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="5">
         <f t="shared" si="56"/>
         <v>2370.0668077296773</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="5">
         <f t="shared" si="56"/>
         <v>1958.7800500000001</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="5">
         <v>3554</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="5">
         <v>5883</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="5">
         <f>Q18-Q19+Q20</f>
         <v>5625.4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="5">
         <f t="shared" ref="R21:S21" si="57">R18-R19+R20</f>
         <v>7840</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="5">
         <f t="shared" si="57"/>
         <v>7573</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="5">
         <f t="shared" ref="T21" si="58">T18-T19+T20</f>
         <v>9035.4068537310268</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="5">
         <f t="shared" ref="U21" si="59">U18-U19+U20</f>
         <v>10441.718351200736</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="5">
         <f t="shared" ref="V21" si="60">V18-V19+V20</f>
         <v>12286.424439069566</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="5">
         <f t="shared" ref="W21" si="61">W18-W19+W20</f>
         <v>14399.704113671894</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="5">
         <f t="shared" ref="X21:Y21" si="62">X18-X19+X20</f>
         <v>16818.321936191183</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="5">
         <f t="shared" si="62"/>
         <v>19583.948006926006</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="5">
         <f t="shared" ref="Z21:BE21" si="63">Y21*(1+$AB$26)</f>
         <v>19779.787486995265</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="5">
         <f t="shared" si="63"/>
         <v>19977.585361865218</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="5">
         <f t="shared" si="63"/>
         <v>20177.36121548387</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="5">
         <f t="shared" si="63"/>
         <v>20379.134827638711</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="5">
         <f t="shared" si="63"/>
         <v>20582.926175915098</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="5">
         <f t="shared" si="63"/>
         <v>20788.755437674248</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF21" s="5">
         <f t="shared" si="63"/>
         <v>20996.642992050991</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG21" s="5">
         <f t="shared" si="63"/>
         <v>21206.609421971501</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AH21" s="5">
         <f t="shared" si="63"/>
         <v>21418.675516191215</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI21" s="5">
         <f t="shared" si="63"/>
         <v>21632.862271353126</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AJ21" s="5">
         <f t="shared" si="63"/>
         <v>21849.190894066658</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AK21" s="5">
         <f t="shared" si="63"/>
         <v>22067.682803007327</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AL21" s="5">
         <f t="shared" si="63"/>
         <v>22288.359631037401</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AM21" s="5">
         <f t="shared" si="63"/>
         <v>22511.243227347775</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AN21" s="5">
         <f t="shared" si="63"/>
         <v>22736.355659621255</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AO21" s="5">
         <f t="shared" si="63"/>
         <v>22963.719216217469</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AP21" s="5">
         <f t="shared" si="63"/>
         <v>23193.356408379645</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AQ21" s="5">
         <f t="shared" si="63"/>
         <v>23425.289972463441</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AR21" s="5">
         <f t="shared" si="63"/>
         <v>23659.542872188074</v>
       </c>
-      <c r="AS21" s="3">
+      <c r="AS21" s="5">
         <f t="shared" si="63"/>
         <v>23896.138300909955</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AT21" s="5">
         <f t="shared" si="63"/>
         <v>24135.099683919056</v>
       </c>
-      <c r="AU21" s="3">
+      <c r="AU21" s="5">
         <f t="shared" si="63"/>
         <v>24376.450680758247</v>
       </c>
-      <c r="AV21" s="3">
+      <c r="AV21" s="5">
         <f t="shared" si="63"/>
         <v>24620.215187565831</v>
       </c>
-      <c r="AW21" s="3">
+      <c r="AW21" s="5">
         <f t="shared" si="63"/>
         <v>24866.41733944149</v>
       </c>
-      <c r="AX21" s="3">
+      <c r="AX21" s="5">
         <f t="shared" si="63"/>
         <v>25115.081512835906</v>
       </c>
-      <c r="AY21" s="3">
+      <c r="AY21" s="5">
         <f t="shared" si="63"/>
         <v>25366.232327964266</v>
       </c>
-      <c r="AZ21" s="3">
+      <c r="AZ21" s="5">
         <f t="shared" si="63"/>
         <v>25619.894651243911</v>
       </c>
-      <c r="BA21" s="3">
+      <c r="BA21" s="5">
         <f t="shared" si="63"/>
         <v>25876.093597756349</v>
       </c>
-      <c r="BB21" s="3">
+      <c r="BB21" s="5">
         <f t="shared" si="63"/>
         <v>26134.854533733913</v>
       </c>
-      <c r="BC21" s="3">
+      <c r="BC21" s="5">
         <f t="shared" si="63"/>
         <v>26396.203079071252</v>
       </c>
-      <c r="BD21" s="3">
+      <c r="BD21" s="5">
         <f t="shared" si="63"/>
         <v>26660.165109861966</v>
       </c>
-      <c r="BE21" s="3">
+      <c r="BE21" s="5">
         <f t="shared" si="63"/>
         <v>26926.766760960585</v>
       </c>
-      <c r="BF21" s="3">
+      <c r="BF21" s="5">
         <f t="shared" ref="BF21:CK21" si="64">BE21*(1+$AB$26)</f>
         <v>27196.03442857019</v>
       </c>
-      <c r="BG21" s="3">
+      <c r="BG21" s="5">
         <f t="shared" si="64"/>
         <v>27467.994772855891</v>
       </c>
-      <c r="BH21" s="3">
+      <c r="BH21" s="5">
         <f t="shared" si="64"/>
         <v>27742.674720584451</v>
       </c>
-      <c r="BI21" s="3">
+      <c r="BI21" s="5">
         <f t="shared" si="64"/>
         <v>28020.101467790297</v>
       </c>
-      <c r="BJ21" s="3">
+      <c r="BJ21" s="5">
         <f t="shared" si="64"/>
         <v>28300.3024824682</v>
       </c>
-      <c r="BK21" s="3">
+      <c r="BK21" s="5">
         <f t="shared" si="64"/>
         <v>28583.305507292884</v>
       </c>
-      <c r="BL21" s="3">
+      <c r="BL21" s="5">
         <f t="shared" si="64"/>
         <v>28869.138562365813</v>
       </c>
-      <c r="BM21" s="3">
+      <c r="BM21" s="5">
         <f t="shared" si="64"/>
         <v>29157.82994798947</v>
       </c>
-      <c r="BN21" s="3">
+      <c r="BN21" s="5">
         <f t="shared" si="64"/>
         <v>29449.408247469364</v>
       </c>
-      <c r="BO21" s="3">
+      <c r="BO21" s="5">
         <f t="shared" si="64"/>
         <v>29743.90232994406</v>
       </c>
-      <c r="BP21" s="3">
+      <c r="BP21" s="5">
         <f t="shared" si="64"/>
         <v>30041.341353243501</v>
       </c>
-      <c r="BQ21" s="3">
+      <c r="BQ21" s="5">
         <f t="shared" si="64"/>
         <v>30341.754766775935</v>
       </c>
-      <c r="BR21" s="3">
+      <c r="BR21" s="5">
         <f t="shared" si="64"/>
         <v>30645.172314443695</v>
       </c>
-      <c r="BS21" s="3">
+      <c r="BS21" s="5">
         <f t="shared" si="64"/>
         <v>30951.624037588132</v>
       </c>
-      <c r="BT21" s="3">
+      <c r="BT21" s="5">
         <f t="shared" si="64"/>
         <v>31261.140277964012</v>
       </c>
-      <c r="BU21" s="3">
+      <c r="BU21" s="5">
         <f t="shared" si="64"/>
         <v>31573.751680743651</v>
       </c>
-      <c r="BV21" s="3">
+      <c r="BV21" s="5">
         <f t="shared" si="64"/>
         <v>31889.489197551087</v>
       </c>
-      <c r="BW21" s="3">
+      <c r="BW21" s="5">
         <f t="shared" si="64"/>
         <v>32208.384089526597</v>
       </c>
-      <c r="BX21" s="3">
+      <c r="BX21" s="5">
         <f t="shared" si="64"/>
         <v>32530.467930421863</v>
       </c>
-      <c r="BY21" s="3">
+      <c r="BY21" s="5">
         <f t="shared" si="64"/>
         <v>32855.772609726082</v>
       </c>
-      <c r="BZ21" s="3">
+      <c r="BZ21" s="5">
         <f t="shared" si="64"/>
         <v>33184.330335823346</v>
       </c>
-      <c r="CA21" s="3">
+      <c r="CA21" s="5">
         <f t="shared" si="64"/>
         <v>33516.173639181579</v>
       </c>
-      <c r="CB21" s="3">
+      <c r="CB21" s="5">
         <f t="shared" si="64"/>
         <v>33851.335375573399</v>
       </c>
-      <c r="CC21" s="3">
+      <c r="CC21" s="5">
         <f t="shared" si="64"/>
         <v>34189.848729329133</v>
       </c>
-      <c r="CD21" s="3">
+      <c r="CD21" s="5">
         <f t="shared" si="64"/>
         <v>34531.747216622425</v>
       </c>
-      <c r="CE21" s="3">
+      <c r="CE21" s="5">
         <f t="shared" si="64"/>
         <v>34877.064688788647</v>
       </c>
-      <c r="CF21" s="3">
+      <c r="CF21" s="5">
         <f t="shared" si="64"/>
         <v>35225.835335676536</v>
       </c>
-      <c r="CG21" s="3">
+      <c r="CG21" s="5">
         <f t="shared" si="64"/>
         <v>35578.093689033303</v>
       </c>
-      <c r="CH21" s="3">
+      <c r="CH21" s="5">
         <f t="shared" si="64"/>
         <v>35933.874625923636</v>
       </c>
-      <c r="CI21" s="3">
+      <c r="CI21" s="5">
         <f t="shared" si="64"/>
         <v>36293.213372182872</v>
       </c>
-      <c r="CJ21" s="3">
+      <c r="CJ21" s="5">
         <f t="shared" si="64"/>
         <v>36656.1455059047</v>
       </c>
-      <c r="CK21" s="3">
+      <c r="CK21" s="5">
         <f t="shared" si="64"/>
         <v>37022.706960963747</v>
       </c>
-      <c r="CL21" s="3">
+      <c r="CL21" s="5">
         <f t="shared" ref="CL21:DK21" si="65">CK21*(1+$AB$26)</f>
         <v>37392.934030573386</v>
       </c>
-      <c r="CM21" s="3">
+      <c r="CM21" s="5">
         <f t="shared" si="65"/>
         <v>37766.863370879117</v>
       </c>
-      <c r="CN21" s="3">
+      <c r="CN21" s="5">
         <f t="shared" si="65"/>
         <v>38144.532004587905</v>
       </c>
-      <c r="CO21" s="3">
+      <c r="CO21" s="5">
         <f t="shared" si="65"/>
         <v>38525.977324633786</v>
       </c>
-      <c r="CP21" s="3">
+      <c r="CP21" s="5">
         <f t="shared" si="65"/>
         <v>38911.237097880126</v>
       </c>
-      <c r="CQ21" s="3">
+      <c r="CQ21" s="5">
         <f t="shared" si="65"/>
         <v>39300.349468858927</v>
       </c>
-      <c r="CR21" s="3">
+      <c r="CR21" s="5">
         <f t="shared" si="65"/>
         <v>39693.352963547513</v>
       </c>
-      <c r="CS21" s="3">
+      <c r="CS21" s="5">
         <f t="shared" si="65"/>
         <v>40090.28649318299</v>
       </c>
-      <c r="CT21" s="3">
+      <c r="CT21" s="5">
         <f t="shared" si="65"/>
         <v>40491.189358114818</v>
       </c>
-      <c r="CU21" s="3">
+      <c r="CU21" s="5">
         <f t="shared" si="65"/>
         <v>40896.101251695967</v>
       </c>
-      <c r="CV21" s="3">
+      <c r="CV21" s="5">
         <f t="shared" si="65"/>
         <v>41305.062264212924</v>
       </c>
-      <c r="CW21" s="3">
+      <c r="CW21" s="5">
         <f t="shared" si="65"/>
         <v>41718.112886855051</v>
       </c>
-      <c r="CX21" s="3">
+      <c r="CX21" s="5">
         <f t="shared" si="65"/>
         <v>42135.294015723601</v>
       </c>
-      <c r="CY21" s="3">
+      <c r="CY21" s="5">
         <f t="shared" si="65"/>
         <v>42556.646955880839</v>
       </c>
-      <c r="CZ21" s="3">
+      <c r="CZ21" s="5">
         <f t="shared" si="65"/>
         <v>42982.213425439644</v>
       </c>
-      <c r="DA21" s="3">
+      <c r="DA21" s="5">
         <f t="shared" si="65"/>
         <v>43412.035559694043</v>
       </c>
-      <c r="DB21" s="3">
+      <c r="DB21" s="5">
         <f t="shared" si="65"/>
         <v>43846.155915290983</v>
       </c>
-      <c r="DC21" s="3">
+      <c r="DC21" s="5">
         <f t="shared" si="65"/>
         <v>44284.61747444389</v>
       </c>
-      <c r="DD21" s="3">
+      <c r="DD21" s="5">
         <f t="shared" si="65"/>
         <v>44727.463649188328</v>
       </c>
-      <c r="DE21" s="3">
+      <c r="DE21" s="5">
         <f t="shared" si="65"/>
         <v>45174.738285680214</v>
       </c>
-      <c r="DF21" s="3">
+      <c r="DF21" s="5">
         <f t="shared" si="65"/>
         <v>45626.485668537018</v>
       </c>
-      <c r="DG21" s="3">
+      <c r="DG21" s="5">
         <f t="shared" si="65"/>
         <v>46082.750525222385</v>
       </c>
-      <c r="DH21" s="3">
+      <c r="DH21" s="5">
         <f t="shared" si="65"/>
         <v>46543.578030474608</v>
       </c>
-      <c r="DI21" s="3">
+      <c r="DI21" s="5">
         <f t="shared" si="65"/>
         <v>47009.013810779354</v>
       </c>
-      <c r="DJ21" s="3">
+      <c r="DJ21" s="5">
         <f t="shared" si="65"/>
         <v>47479.103948887147</v>
       </c>
-      <c r="DK21" s="3">
+      <c r="DK21" s="5">
         <f t="shared" si="65"/>
         <v>47953.894988376022</v>
       </c>
     </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>394</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>394</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>393</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>394</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>394</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>392</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>392</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>396</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>394</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="1">
         <v>393.6</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="1">
         <v>393.6</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="1">
         <v>393.6</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="1">
         <v>393.6</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="1">
         <v>393.6</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="1">
         <v>393.6</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="1">
         <v>393.6</v>
       </c>
     </row>
-    <row r="23" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5" t="e">
+      <c r="B23" s="3" t="e">
         <f>B21/B22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C23" s="5" t="e">
+      <c r="C23" s="3" t="e">
         <f t="shared" ref="C23:E23" si="66">C21/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="5" t="e">
+      <c r="D23" s="3" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <f t="shared" si="66"/>
         <v>5.1974619289340094</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <f>F21/F22</f>
         <v>3.1071065989847715</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <f t="shared" ref="G23:K23" si="67">G21/G22</f>
         <v>4.0152671755725189</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <f t="shared" si="67"/>
         <v>5.2690355329949234</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <f t="shared" si="67"/>
         <v>6.8619289340101535</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="3">
         <f t="shared" si="67"/>
         <v>6.0460887952287683</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <f t="shared" si="67"/>
         <v>4.9968878826530618</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5" t="e">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="e">
         <f>O21/O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="5" t="e">
+      <c r="P23" s="3" t="e">
         <f>P21/P22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="3">
         <f>Q21/Q22</f>
         <v>14.205555555555554</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="3">
         <f t="shared" ref="R23:S23" si="68">R21/R22</f>
         <v>19.898477157360407</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="3">
         <f t="shared" si="68"/>
         <v>19.240345528455283</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="3">
         <f t="shared" ref="T23" si="69">T21/T22</f>
         <v>22.955810095861349</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="3">
         <f t="shared" ref="U23" si="70">U21/U22</f>
         <v>26.528755973579106</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="3">
         <f t="shared" ref="V23" si="71">V21/V22</f>
         <v>31.21550924560357</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="3">
         <f t="shared" ref="W23" si="72">W21/W22</f>
         <v>36.584614109938755</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23" s="3">
         <f t="shared" ref="X23:Y23" si="73">X21/X22</f>
         <v>42.729476463900362</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="3">
         <f t="shared" si="73"/>
         <v>49.755965464751029</v>
       </c>
     </row>
-    <row r="24" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -2858,148 +2867,148 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:115" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="7" t="e">
+      <c r="F25" s="6" t="e">
         <f>F8/B8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="7" t="e">
+      <c r="G25" s="6" t="e">
         <f>G8/C8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
+      <c r="H25" s="6" t="e">
         <f>H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f>I8/E8-1</f>
         <v>0.27995025563078624</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f>J8/F8-1</f>
         <v>0.46351606805293</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7">
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6">
         <f>P8/O8-1</f>
         <v>0.33135417411832035</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <f>Q8/P8-1</f>
         <v>0.1376605233464081</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="6">
         <f>R8/Q8-1</f>
         <v>0.30161054172767199</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="6">
         <f>S8/R8-1</f>
         <v>2.5545193947530853E-2</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="6">
         <f t="shared" ref="T25:X25" si="74">T8/S8-1</f>
         <v>0.11453136609701731</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="6">
         <f t="shared" ref="Y25" si="75">Y8/X8-1</f>
         <v>0.1100000000000001</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AA25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AB25" s="4">
         <v>0.06</v>
       </c>
-      <c r="AC25" s="2"/>
-    </row>
-    <row r="26" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:115" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="7" t="e">
+      <c r="B26" s="6" t="e">
         <f>B8/A8-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="7" t="e">
+      <c r="C26" s="6" t="e">
         <f t="shared" ref="C26:F26" si="76">C8/B8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="7" t="e">
+      <c r="D26" s="6" t="e">
         <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="7" t="e">
+      <c r="E26" s="6" t="e">
         <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="76"/>
         <v>-0.26903413016443278</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <f>G8/F8-1</f>
         <v>0.18015122873345946</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <f>H8/G8-1</f>
         <v>0.19605958673714552</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f>I8/H8-1</f>
         <v>0.24052497656354621</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f>J8/I8-1</f>
         <v>-0.16420166252833857</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="AA26" s="2" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="AA26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AB26" s="4">
         <v>0.01</v>
       </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AC26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="e">
@@ -3082,27 +3091,27 @@
       <c r="Y27" s="4">
         <v>0.19</v>
       </c>
-      <c r="AA27" s="2" t="s">
+      <c r="AA27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AB27" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AC27" s="3">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="AA28" s="2" t="s">
+    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="AA28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AB28" s="1">
         <f>NPV(AB27,T33:XFD33)+Sheet1!D5-Sheet1!D6</f>
         <v>291214.56132087915</v>
       </c>
     </row>
-    <row r="29" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="e">
@@ -3189,15 +3198,15 @@
         <f t="shared" si="81"/>
         <v>0.5655741020392967</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AA29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="8">
         <f>AB28/Sheet1!D3</f>
         <v>741.94792693217619</v>
       </c>
     </row>
-    <row r="30" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
       <c r="Q30" s="4">
         <f>Q31/Q8</f>
         <v>0.40084069333585226</v>
@@ -3234,52 +3243,52 @@
         <f t="shared" si="82"/>
         <v>0.56042120112693272</v>
       </c>
-      <c r="AA30" s="2" t="s">
+      <c r="AA30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AB30" s="1">
         <f>AB29*AC27</f>
         <v>845.82063670268076</v>
       </c>
     </row>
-    <row r="31" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>8487</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>5443</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>11166</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="1">
         <f>T8*T30</f>
         <v>13191.548667869652</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="1">
         <f t="shared" ref="U31:Y31" si="83">U8*U30</f>
         <v>15521.176162615435</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="1">
         <f t="shared" si="83"/>
         <v>18262.21587293332</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="1">
         <f t="shared" si="83"/>
         <v>21487.323196093352</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="1">
         <f t="shared" si="83"/>
         <v>25281.984472523436</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31" s="1">
         <f t="shared" si="83"/>
         <v>29746.782930371079</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AA31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AB31" s="4">
@@ -3287,524 +3296,524 @@
         <v>0.19129667141222639</v>
       </c>
     </row>
-    <row r="32" spans="1:115" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1">
         <v>1282</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="1">
         <v>2155</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>2067</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="1">
         <f>T8*0.07</f>
         <v>2205</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="1">
         <f t="shared" ref="U32:Y32" si="84">U8*0.07</f>
         <v>2447.5500000000002</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32" s="1">
         <f t="shared" si="84"/>
         <v>2716.7805000000003</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="1">
         <f t="shared" si="84"/>
         <v>3015.6263550000008</v>
       </c>
-      <c r="X32" s="2">
+      <c r="X32" s="1">
         <f t="shared" si="84"/>
         <v>3347.3452540500011</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="Y32" s="1">
         <f t="shared" si="84"/>
         <v>3715.5532319955014</v>
       </c>
     </row>
-    <row r="33" spans="1:124" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:124" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <f>B31-B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <f t="shared" ref="C33:J33" si="85">C31-C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="5">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="5">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="5">
         <f>Q31-Q32</f>
         <v>7205</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="5">
         <f t="shared" ref="R33:Y33" si="86">R31-R32</f>
         <v>3288</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="5">
         <f t="shared" si="86"/>
         <v>9099</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="5">
         <f t="shared" si="86"/>
         <v>10986.548667869652</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="5">
         <f t="shared" si="86"/>
         <v>13073.626162615434</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="5">
         <f t="shared" si="86"/>
         <v>15545.43537293332</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="5">
         <f t="shared" si="86"/>
         <v>18471.696841093351</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="5">
         <f t="shared" si="86"/>
         <v>21934.639218473436</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="5">
         <f t="shared" si="86"/>
         <v>26031.229698375577</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="5">
         <f t="shared" ref="Z33:BE33" si="87">Y33*(1+$AB$26)</f>
         <v>26291.541995359334</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="5">
         <f t="shared" si="87"/>
         <v>26554.457415312929</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="5">
         <f t="shared" si="87"/>
         <v>26820.001989466058</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="5">
         <f t="shared" si="87"/>
         <v>27088.202009360721</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="5">
         <f t="shared" si="87"/>
         <v>27359.084029454327</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AE33" s="5">
         <f t="shared" si="87"/>
         <v>27632.674869748869</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AF33" s="5">
         <f t="shared" si="87"/>
         <v>27909.001618446357</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AG33" s="5">
         <f t="shared" si="87"/>
         <v>28188.091634630819</v>
       </c>
-      <c r="AH33" s="3">
+      <c r="AH33" s="5">
         <f t="shared" si="87"/>
         <v>28469.972550977127</v>
       </c>
-      <c r="AI33" s="3">
+      <c r="AI33" s="5">
         <f t="shared" si="87"/>
         <v>28754.672276486897</v>
       </c>
-      <c r="AJ33" s="3">
+      <c r="AJ33" s="5">
         <f t="shared" si="87"/>
         <v>29042.218999251767</v>
       </c>
-      <c r="AK33" s="3">
+      <c r="AK33" s="5">
         <f t="shared" si="87"/>
         <v>29332.641189244285</v>
       </c>
-      <c r="AL33" s="3">
+      <c r="AL33" s="5">
         <f t="shared" si="87"/>
         <v>29625.967601136726</v>
       </c>
-      <c r="AM33" s="3">
+      <c r="AM33" s="5">
         <f t="shared" si="87"/>
         <v>29922.227277148093</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AN33" s="5">
         <f t="shared" si="87"/>
         <v>30221.449549919573</v>
       </c>
-      <c r="AO33" s="3">
+      <c r="AO33" s="5">
         <f t="shared" si="87"/>
         <v>30523.664045418769</v>
       </c>
-      <c r="AP33" s="3">
+      <c r="AP33" s="5">
         <f t="shared" si="87"/>
         <v>30828.900685872955</v>
       </c>
-      <c r="AQ33" s="3">
+      <c r="AQ33" s="5">
         <f t="shared" si="87"/>
         <v>31137.189692731685</v>
       </c>
-      <c r="AR33" s="3">
+      <c r="AR33" s="5">
         <f t="shared" si="87"/>
         <v>31448.561589659002</v>
       </c>
-      <c r="AS33" s="3">
+      <c r="AS33" s="5">
         <f t="shared" si="87"/>
         <v>31763.047205555591</v>
       </c>
-      <c r="AT33" s="3">
+      <c r="AT33" s="5">
         <f t="shared" si="87"/>
         <v>32080.677677611147</v>
       </c>
-      <c r="AU33" s="3">
+      <c r="AU33" s="5">
         <f t="shared" si="87"/>
         <v>32401.48445438726</v>
       </c>
-      <c r="AV33" s="3">
+      <c r="AV33" s="5">
         <f t="shared" si="87"/>
         <v>32725.499298931132</v>
       </c>
-      <c r="AW33" s="3">
+      <c r="AW33" s="5">
         <f t="shared" si="87"/>
         <v>33052.754291920442</v>
       </c>
-      <c r="AX33" s="3">
+      <c r="AX33" s="5">
         <f t="shared" si="87"/>
         <v>33383.281834839647</v>
       </c>
-      <c r="AY33" s="3">
+      <c r="AY33" s="5">
         <f t="shared" si="87"/>
         <v>33717.114653188044</v>
       </c>
-      <c r="AZ33" s="3">
+      <c r="AZ33" s="5">
         <f t="shared" si="87"/>
         <v>34054.285799719924</v>
       </c>
-      <c r="BA33" s="3">
+      <c r="BA33" s="5">
         <f t="shared" si="87"/>
         <v>34394.828657717124</v>
       </c>
-      <c r="BB33" s="3">
+      <c r="BB33" s="5">
         <f t="shared" si="87"/>
         <v>34738.776944294295</v>
       </c>
-      <c r="BC33" s="3">
+      <c r="BC33" s="5">
         <f t="shared" si="87"/>
         <v>35086.164713737242</v>
       </c>
-      <c r="BD33" s="3">
+      <c r="BD33" s="5">
         <f t="shared" si="87"/>
         <v>35437.026360874617</v>
       </c>
-      <c r="BE33" s="3">
+      <c r="BE33" s="5">
         <f t="shared" si="87"/>
         <v>35791.396624483365</v>
       </c>
-      <c r="BF33" s="3">
+      <c r="BF33" s="5">
         <f t="shared" ref="BF33:CK33" si="88">BE33*(1+$AB$26)</f>
         <v>36149.310590728201</v>
       </c>
-      <c r="BG33" s="3">
+      <c r="BG33" s="5">
         <f t="shared" si="88"/>
         <v>36510.803696635485</v>
       </c>
-      <c r="BH33" s="3">
+      <c r="BH33" s="5">
         <f t="shared" si="88"/>
         <v>36875.911733601839</v>
       </c>
-      <c r="BI33" s="3">
+      <c r="BI33" s="5">
         <f t="shared" si="88"/>
         <v>37244.670850937859</v>
       </c>
-      <c r="BJ33" s="3">
+      <c r="BJ33" s="5">
         <f t="shared" si="88"/>
         <v>37617.117559447237</v>
       </c>
-      <c r="BK33" s="3">
+      <c r="BK33" s="5">
         <f t="shared" si="88"/>
         <v>37993.288735041708</v>
       </c>
-      <c r="BL33" s="3">
+      <c r="BL33" s="5">
         <f t="shared" si="88"/>
         <v>38373.221622392128</v>
       </c>
-      <c r="BM33" s="3">
+      <c r="BM33" s="5">
         <f t="shared" si="88"/>
         <v>38756.953838616049</v>
       </c>
-      <c r="BN33" s="3">
+      <c r="BN33" s="5">
         <f t="shared" si="88"/>
         <v>39144.52337700221</v>
       </c>
-      <c r="BO33" s="3">
+      <c r="BO33" s="5">
         <f t="shared" si="88"/>
         <v>39535.96861077223</v>
       </c>
-      <c r="BP33" s="3">
+      <c r="BP33" s="5">
         <f t="shared" si="88"/>
         <v>39931.328296879954</v>
       </c>
-      <c r="BQ33" s="3">
+      <c r="BQ33" s="5">
         <f t="shared" si="88"/>
         <v>40330.641579848751</v>
       </c>
-      <c r="BR33" s="3">
+      <c r="BR33" s="5">
         <f t="shared" si="88"/>
         <v>40733.947995647235</v>
       </c>
-      <c r="BS33" s="3">
+      <c r="BS33" s="5">
         <f t="shared" si="88"/>
         <v>41141.287475603705</v>
       </c>
-      <c r="BT33" s="3">
+      <c r="BT33" s="5">
         <f t="shared" si="88"/>
         <v>41552.700350359744</v>
       </c>
-      <c r="BU33" s="3">
+      <c r="BU33" s="5">
         <f t="shared" si="88"/>
         <v>41968.227353863345</v>
       </c>
-      <c r="BV33" s="3">
+      <c r="BV33" s="5">
         <f t="shared" si="88"/>
         <v>42387.909627401976</v>
       </c>
-      <c r="BW33" s="3">
+      <c r="BW33" s="5">
         <f t="shared" si="88"/>
         <v>42811.788723675993</v>
       </c>
-      <c r="BX33" s="3">
+      <c r="BX33" s="5">
         <f t="shared" si="88"/>
         <v>43239.906610912753</v>
       </c>
-      <c r="BY33" s="3">
+      <c r="BY33" s="5">
         <f t="shared" si="88"/>
         <v>43672.305677021883</v>
       </c>
-      <c r="BZ33" s="3">
+      <c r="BZ33" s="5">
         <f t="shared" si="88"/>
         <v>44109.028733792104</v>
       </c>
-      <c r="CA33" s="3">
+      <c r="CA33" s="5">
         <f t="shared" si="88"/>
         <v>44550.119021130027</v>
       </c>
-      <c r="CB33" s="3">
+      <c r="CB33" s="5">
         <f t="shared" si="88"/>
         <v>44995.620211341331</v>
       </c>
-      <c r="CC33" s="3">
+      <c r="CC33" s="5">
         <f t="shared" si="88"/>
         <v>45445.576413454743</v>
       </c>
-      <c r="CD33" s="3">
+      <c r="CD33" s="5">
         <f t="shared" si="88"/>
         <v>45900.032177589288</v>
       </c>
-      <c r="CE33" s="3">
+      <c r="CE33" s="5">
         <f t="shared" si="88"/>
         <v>46359.032499365181</v>
       </c>
-      <c r="CF33" s="3">
+      <c r="CF33" s="5">
         <f t="shared" si="88"/>
         <v>46822.622824358834</v>
       </c>
-      <c r="CG33" s="3">
+      <c r="CG33" s="5">
         <f t="shared" si="88"/>
         <v>47290.849052602425</v>
       </c>
-      <c r="CH33" s="3">
+      <c r="CH33" s="5">
         <f t="shared" si="88"/>
         <v>47763.757543128449</v>
       </c>
-      <c r="CI33" s="3">
+      <c r="CI33" s="5">
         <f t="shared" si="88"/>
         <v>48241.395118559733</v>
       </c>
-      <c r="CJ33" s="3">
+      <c r="CJ33" s="5">
         <f t="shared" si="88"/>
         <v>48723.80906974533</v>
       </c>
-      <c r="CK33" s="3">
+      <c r="CK33" s="5">
         <f t="shared" si="88"/>
         <v>49211.04716044278</v>
       </c>
-      <c r="CL33" s="3">
+      <c r="CL33" s="5">
         <f t="shared" ref="CL33:DT33" si="89">CK33*(1+$AB$26)</f>
         <v>49703.157632047209</v>
       </c>
-      <c r="CM33" s="3">
+      <c r="CM33" s="5">
         <f t="shared" si="89"/>
         <v>50200.189208367679</v>
       </c>
-      <c r="CN33" s="3">
+      <c r="CN33" s="5">
         <f t="shared" si="89"/>
         <v>50702.191100451353</v>
       </c>
-      <c r="CO33" s="3">
+      <c r="CO33" s="5">
         <f t="shared" si="89"/>
         <v>51209.213011455868</v>
       </c>
-      <c r="CP33" s="3">
+      <c r="CP33" s="5">
         <f t="shared" si="89"/>
         <v>51721.305141570425</v>
       </c>
-      <c r="CQ33" s="3">
+      <c r="CQ33" s="5">
         <f t="shared" si="89"/>
         <v>52238.518192986128</v>
       </c>
-      <c r="CR33" s="3">
+      <c r="CR33" s="5">
         <f t="shared" si="89"/>
         <v>52760.903374915993</v>
       </c>
-      <c r="CS33" s="3">
+      <c r="CS33" s="5">
         <f t="shared" si="89"/>
         <v>53288.512408665156</v>
       </c>
-      <c r="CT33" s="3">
+      <c r="CT33" s="5">
         <f t="shared" si="89"/>
         <v>53821.397532751806</v>
       </c>
-      <c r="CU33" s="3">
+      <c r="CU33" s="5">
         <f t="shared" si="89"/>
         <v>54359.611508079324</v>
       </c>
-      <c r="CV33" s="3">
+      <c r="CV33" s="5">
         <f t="shared" si="89"/>
         <v>54903.207623160117</v>
       </c>
-      <c r="CW33" s="3">
+      <c r="CW33" s="5">
         <f t="shared" si="89"/>
         <v>55452.239699391721</v>
       </c>
-      <c r="CX33" s="3">
+      <c r="CX33" s="5">
         <f t="shared" si="89"/>
         <v>56006.762096385639</v>
       </c>
-      <c r="CY33" s="3">
+      <c r="CY33" s="5">
         <f t="shared" si="89"/>
         <v>56566.829717349494</v>
       </c>
-      <c r="CZ33" s="3">
+      <c r="CZ33" s="5">
         <f t="shared" si="89"/>
         <v>57132.498014522993</v>
       </c>
-      <c r="DA33" s="3">
+      <c r="DA33" s="5">
         <f t="shared" si="89"/>
         <v>57703.822994668226</v>
       </c>
-      <c r="DB33" s="3">
+      <c r="DB33" s="5">
         <f t="shared" si="89"/>
         <v>58280.861224614906</v>
       </c>
-      <c r="DC33" s="3">
+      <c r="DC33" s="5">
         <f t="shared" si="89"/>
         <v>58863.669836861052</v>
       </c>
-      <c r="DD33" s="3">
+      <c r="DD33" s="5">
         <f t="shared" si="89"/>
         <v>59452.306535229662</v>
       </c>
-      <c r="DE33" s="3">
+      <c r="DE33" s="5">
         <f t="shared" si="89"/>
         <v>60046.829600581957</v>
       </c>
-      <c r="DF33" s="3">
+      <c r="DF33" s="5">
         <f t="shared" si="89"/>
         <v>60647.297896587777</v>
       </c>
-      <c r="DG33" s="3">
+      <c r="DG33" s="5">
         <f t="shared" si="89"/>
         <v>61253.770875553659</v>
       </c>
-      <c r="DH33" s="3">
+      <c r="DH33" s="5">
         <f t="shared" si="89"/>
         <v>61866.308584309198</v>
       </c>
-      <c r="DI33" s="3">
+      <c r="DI33" s="5">
         <f t="shared" si="89"/>
         <v>62484.971670152292</v>
       </c>
-      <c r="DJ33" s="3">
+      <c r="DJ33" s="5">
         <f t="shared" si="89"/>
         <v>63109.821386853815</v>
       </c>
-      <c r="DK33" s="3">
+      <c r="DK33" s="5">
         <f t="shared" si="89"/>
         <v>63740.919600722351</v>
       </c>
-      <c r="DL33" s="3">
+      <c r="DL33" s="5">
         <f t="shared" si="89"/>
         <v>64378.328796729576</v>
       </c>
-      <c r="DM33" s="3">
+      <c r="DM33" s="5">
         <f t="shared" si="89"/>
         <v>65022.11208469687</v>
       </c>
-      <c r="DN33" s="3">
+      <c r="DN33" s="5">
         <f t="shared" si="89"/>
         <v>65672.333205543837</v>
       </c>
-      <c r="DO33" s="3">
+      <c r="DO33" s="5">
         <f t="shared" si="89"/>
         <v>66329.056537599274</v>
       </c>
-      <c r="DP33" s="3">
+      <c r="DP33" s="5">
         <f t="shared" si="89"/>
         <v>66992.347102975269</v>
       </c>
-      <c r="DQ33" s="3">
+      <c r="DQ33" s="5">
         <f t="shared" si="89"/>
         <v>67662.27057400503</v>
       </c>
-      <c r="DR33" s="3">
+      <c r="DR33" s="5">
         <f t="shared" si="89"/>
         <v>68338.893279745083</v>
       </c>
-      <c r="DS33" s="3">
+      <c r="DS33" s="5">
         <f t="shared" si="89"/>
         <v>69022.28221254253</v>
       </c>
-      <c r="DT33" s="3">
+      <c r="DT33" s="5">
         <f t="shared" si="89"/>
         <v>69712.505034667949</v>
       </c>
     </row>
-    <row r="34" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:124" x14ac:dyDescent="0.2">
       <c r="Q34" s="4">
         <f>Q33/Q21</f>
         <v>1.280797809933516</v>
@@ -3842,330 +3851,330 @@
         <v>1.3292125616943755</v>
       </c>
     </row>
-    <row r="35" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <f t="shared" ref="B35:H35" si="91">B59-B78</f>
         <v>0</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" si="91"/>
         <v>2378</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <f>I59-I82</f>
         <v>2680</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <f>J59-J82</f>
         <v>-751</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="1">
         <f>Q59-Q78</f>
         <v>0</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="1">
         <f>R59-R82</f>
         <v>-3221</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1">
         <f>S59-S82</f>
         <v>2680</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="1">
         <f t="shared" ref="T35:Y35" si="92">S35+T21</f>
         <v>11715.406853731027</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="1">
         <f t="shared" si="92"/>
         <v>22157.125204931763</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="1">
         <f t="shared" si="92"/>
         <v>34443.54964400133</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W35" s="1">
         <f t="shared" si="92"/>
         <v>48843.253757673228</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X35" s="1">
         <f t="shared" si="92"/>
         <v>65661.575693864404</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Y35" s="1">
         <f t="shared" si="92"/>
         <v>85245.523700790407</v>
       </c>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:124" x14ac:dyDescent="0.2">
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <f t="shared" ref="B37" si="93">B21</f>
         <v>0</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <f t="shared" ref="C37:J37" si="94">C21</f>
         <v>0</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f t="shared" si="94"/>
         <v>2047.7999999999997</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <f t="shared" si="94"/>
         <v>1224.2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <f t="shared" si="94"/>
         <v>1578</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <f t="shared" si="94"/>
         <v>2076</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <f t="shared" si="94"/>
         <v>2703.6000000000004</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <f t="shared" si="94"/>
         <v>2370.0668077296773</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="1">
         <f>Q21</f>
         <v>5625.4</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="1">
         <f t="shared" ref="R37:S37" si="95">R21</f>
         <v>7840</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1">
         <f t="shared" si="95"/>
         <v>7573</v>
       </c>
     </row>
-    <row r="38" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>2048</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>2693</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="1">
         <v>7839</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1">
         <v>7572</v>
       </c>
     </row>
-    <row r="39" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>212</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>10</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>42</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>211</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>-49</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>-28</v>
       </c>
     </row>
-    <row r="44" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>175</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>548</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>6237</v>
       </c>
     </row>
-    <row r="46" spans="1:124" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:124" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <f>E38+SUM(E39:E45)</f>
         <v>3197</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="5">
         <f>I38+SUM(I39:I45)</f>
         <v>9545</v>
       </c>
     </row>
-    <row r="47" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:124" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:124" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:124" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <f>SUM(E47:E50)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="E52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E57" s="4">
@@ -4174,412 +4183,412 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <f>7005+5</f>
         <v>7010</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="1">
         <f>12736+5</f>
         <v>12741</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <f>9098+5</f>
         <v>9103</v>
       </c>
-      <c r="R59" s="2">
+      <c r="R59" s="1">
         <f>7004+5</f>
         <v>7009</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="1">
         <f>12736+5</f>
         <v>12741</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <f>4334+1379</f>
         <v>5713</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="1">
         <f>4477+82</f>
         <v>4559</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <f>4597+382</f>
         <v>4979</v>
       </c>
-      <c r="R60" s="2">
+      <c r="R60" s="1">
         <v>4334</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="1">
         <v>4477</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>1001</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>284</v>
       </c>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>240</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <v>321</v>
       </c>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>8851</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>10892</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>11025</v>
       </c>
-      <c r="R63" s="2">
+      <c r="R63" s="1">
         <v>8851</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63" s="1">
         <v>10891</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>1579</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="1">
         <v>1940</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>61</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>1872</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <v>1941</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>929</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="1">
         <v>1457</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>652</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="1">
         <v>791</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>919</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <v>903</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>4588</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>4589</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>742</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>621</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>5493</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="1">
         <v>6847</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>307</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>387</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <f>SUM(B59:B74)</f>
         <v>0</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <f t="shared" ref="C75:J75" si="96">SUM(C59:C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <f>SUM(E59:E74)</f>
         <v>39957</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <f t="shared" si="96"/>
         <v>48590</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <f t="shared" si="96"/>
         <v>25107</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R77" s="2">
+      <c r="R77" s="1">
         <v>2347</v>
       </c>
-      <c r="S77" s="2">
+      <c r="S77" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>4632</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="1">
         <v>3677</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="1">
         <v>3681</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>372</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="1">
         <v>299</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>4826</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="1">
         <v>5625</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <v>5400</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>401</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="1">
         <v>460</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="1">
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <f>SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <f t="shared" ref="C82:J82" si="97">SUM(C77:C81)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <f>SUM(E77:E81)</f>
         <v>10231</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="1">
         <f t="shared" si="97"/>
         <v>10061</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="1">
         <f t="shared" si="97"/>
         <v>9854</v>
       </c>
-      <c r="R82" s="2">
+      <c r="R82" s="1">
         <v>10230</v>
       </c>
-      <c r="S82" s="2">
+      <c r="S82" s="1">
         <v>10061</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="2" t="e">
+      <c r="B84" s="1" t="e">
         <f t="shared" ref="B84:J84" si="98">B60/B8*360</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C84" s="2" t="e">
+      <c r="C84" s="1" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D84" s="2" t="e">
+      <c r="D84" s="1" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <f t="shared" si="98"/>
         <v>284.18958131822581</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="1">
         <f t="shared" si="98"/>
         <v>177.18233833531252</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="1">
         <f t="shared" si="98"/>
         <v>231.5215706535779</v>
       </c>
-      <c r="R84" s="2">
+      <c r="R84" s="1">
         <f>R60/R8*360</f>
         <v>56.614536086215026</v>
       </c>
-      <c r="S84" s="2">
+      <c r="S84" s="1">
         <f>S60/S8*360</f>
         <v>57.025793440186817</v>
       </c>

--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2048067-87C0-4B46-926B-D401B59E52A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62ABF5-37D7-4A61-A132-F1C573E6AC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1635" windowWidth="19695" windowHeight="13635" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
+    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -945,11 +945,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="11">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="E2" s="11">
         <f>D2/1.13</f>
-        <v>628.31858407079653</v>
+        <v>663.71681415929208</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -975,11 +975,11 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>278675</v>
+        <v>294375</v>
       </c>
       <c r="E4" s="10">
         <f>D4/1.13</f>
-        <v>246615.04424778762</v>
+        <v>260508.84955752216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="D7" s="1">
         <f>E4+D6-D5</f>
-        <v>247365.84424778761</v>
+        <v>261259.64955752215</v>
       </c>
       <c r="E7" s="1">
         <f>D7/D3</f>
-        <v>630.23145031283468</v>
+        <v>665.62968040133035</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D8" s="3">
         <f>E7/(Sheet2!J23*4*1.11)</f>
-        <v>23.476998957200681</v>
+        <v>24.795632310807278</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="AB31" s="4">
         <f>AB30/Sheet1!D2-1</f>
-        <v>0.19129667141222639</v>
+        <v>0.12776084893690776</v>
       </c>
     </row>
     <row r="32" spans="1:115" x14ac:dyDescent="0.2">

--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62ABF5-37D7-4A61-A132-F1C573E6AC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED86C978-ECE3-4211-9D7C-3BBAAB830281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="585" windowWidth="23670" windowHeight="14145" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -440,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -453,6 +454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3A3A0E-0235-4592-8342-EC1B6F585EA4}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -945,11 +947,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="11">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E2" s="11">
         <f>D2/1.13</f>
-        <v>663.71681415929208</v>
+        <v>661.06194690265488</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -975,11 +977,11 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>294375</v>
+        <v>293197.5</v>
       </c>
       <c r="E4" s="10">
         <f>D4/1.13</f>
-        <v>260508.84955752216</v>
+        <v>259466.81415929206</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1011,11 +1013,11 @@
       </c>
       <c r="D7" s="1">
         <f>E4+D6-D5</f>
-        <v>261259.64955752215</v>
+        <v>260217.61415929202</v>
       </c>
       <c r="E7" s="1">
         <f>D7/D3</f>
-        <v>665.62968040133035</v>
+        <v>662.97481314469303</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1026,7 @@
       </c>
       <c r="D8" s="3">
         <f>E7/(Sheet2!J23*4*1.11)</f>
-        <v>24.795632310807278</v>
+        <v>24.696734809286777</v>
       </c>
     </row>
   </sheetData>
@@ -1037,11 +1039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC9EA94-660F-4C9C-B2FF-A5D3568DEBBC}">
   <dimension ref="A1:DT84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z27" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2939,7 +2941,7 @@
       <c r="AA25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB25" s="12">
         <v>0.06</v>
       </c>
       <c r="AC25" s="1"/>
@@ -3000,7 +3002,7 @@
       <c r="AA26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB26" s="12">
         <v>0.01</v>
       </c>
       <c r="AC26" s="1" t="s">
@@ -3094,8 +3096,8 @@
       <c r="AA27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB27" s="4">
-        <v>8.5000000000000006E-2</v>
+      <c r="AB27" s="12">
+        <v>0.09</v>
       </c>
       <c r="AC27" s="3">
         <v>1.1399999999999999</v>
@@ -3107,7 +3109,7 @@
       </c>
       <c r="AB28" s="1">
         <f>NPV(AB27,T33:XFD33)+Sheet1!D5-Sheet1!D6</f>
-        <v>291214.56132087915</v>
+        <v>271056.12470466632</v>
       </c>
     </row>
     <row r="29" spans="1:115" x14ac:dyDescent="0.2">
@@ -3203,7 +3205,7 @@
       </c>
       <c r="AB29" s="8">
         <f>AB28/Sheet1!D3</f>
-        <v>741.94792693217619</v>
+        <v>690.58885275074226</v>
       </c>
     </row>
     <row r="30" spans="1:115" x14ac:dyDescent="0.2">
@@ -3246,9 +3248,9 @@
       <c r="AA30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AB30" s="3">
         <f>AB29*AC27</f>
-        <v>845.82063670268076</v>
+        <v>787.27129213584612</v>
       </c>
     </row>
     <row r="31" spans="1:115" x14ac:dyDescent="0.2">
@@ -3293,7 +3295,7 @@
       </c>
       <c r="AB31" s="4">
         <f>AB30/Sheet1!D2-1</f>
-        <v>0.12776084893690776</v>
+        <v>5.3910698977036375E-2</v>
       </c>
     </row>
     <row r="32" spans="1:115" x14ac:dyDescent="0.2">

--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED86C978-ECE3-4211-9D7C-3BBAAB830281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1424D5-FD99-4095-966B-7B907FAA2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
+    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
     <author>tc={5AA0A275-6EB6-49AB-B2CD-C8A33A588D1A}</author>
   </authors>
   <commentList>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{944BCAF5-5E56-4E9A-96BF-51366E4D31CB}">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{944BCAF5-5E56-4E9A-96BF-51366E4D31CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
     “ASML expects net sales 7.2-7.7B”</t>
       </text>
     </comment>
-    <comment ref="T8" authorId="1" shapeId="0" xr:uid="{C412A0B2-2218-40B9-84EF-F977CE1D409A}">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{C412A0B2-2218-40B9-84EF-F977CE1D409A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     FY25 revenue between 30-35B</t>
       </text>
     </comment>
-    <comment ref="Y8" authorId="2" shapeId="0" xr:uid="{117C89AC-E0B3-4801-BB04-4C223E158003}">
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{117C89AC-E0B3-4801-BB04-4C223E158003}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     “2030 revenue between 44 and 60 bn”</t>
       </text>
     </comment>
-    <comment ref="T27" authorId="3" shapeId="0" xr:uid="{7D9BE086-277F-4636-A4A5-3CA291FB4393}">
+    <comment ref="U28" authorId="3" shapeId="0" xr:uid="{7D9BE086-277F-4636-A4A5-3CA291FB4393}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +80,7 @@
     “FY25 effective tax rate”</t>
       </text>
     </comment>
-    <comment ref="K29" authorId="4" shapeId="0" xr:uid="{895B9FD8-FC46-401A-9FDD-188D6C7FB7BB}">
+    <comment ref="L30" authorId="4" shapeId="0" xr:uid="{895B9FD8-FC46-401A-9FDD-188D6C7FB7BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +88,7 @@
     “gross margin 50-53%”</t>
       </text>
     </comment>
-    <comment ref="T29" authorId="5" shapeId="0" xr:uid="{782012D7-B0C3-4C04-9954-6C66D27A90DC}">
+    <comment ref="U30" authorId="5" shapeId="0" xr:uid="{782012D7-B0C3-4C04-9954-6C66D27A90DC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +96,7 @@
     “expects gross margin between 51 - 53 percent”</t>
       </text>
     </comment>
-    <comment ref="Y29" authorId="6" shapeId="0" xr:uid="{5AA0A275-6EB6-49AB-B2CD-C8A33A588D1A}">
+    <comment ref="Z30" authorId="6" shapeId="0" xr:uid="{5AA0A275-6EB6-49AB-B2CD-C8A33A588D1A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,9 +129,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>ASML</t>
-  </si>
-  <si>
     <t>Q424</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>Q225</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +420,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,10 +446,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -455,8 +464,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,15 +487,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -526,15 +537,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -900,25 +911,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K8" dT="2025-04-16T23:54:22.82" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{944BCAF5-5E56-4E9A-96BF-51366E4D31CB}">
+  <threadedComment ref="L9" dT="2025-04-16T23:54:22.82" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{944BCAF5-5E56-4E9A-96BF-51366E4D31CB}">
     <text>“ASML expects net sales 7.2-7.7B”</text>
   </threadedComment>
-  <threadedComment ref="T8" dT="2025-04-16T00:59:47.67" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{C412A0B2-2218-40B9-84EF-F977CE1D409A}">
+  <threadedComment ref="U9" dT="2025-04-16T00:59:47.67" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{C412A0B2-2218-40B9-84EF-F977CE1D409A}">
     <text>FY25 revenue between 30-35B</text>
   </threadedComment>
-  <threadedComment ref="Y8" dT="2025-04-16T01:27:43.03" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{117C89AC-E0B3-4801-BB04-4C223E158003}">
+  <threadedComment ref="Z9" dT="2025-04-16T01:27:43.03" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{117C89AC-E0B3-4801-BB04-4C223E158003}">
     <text>“2030 revenue between 44 and 60 bn”</text>
   </threadedComment>
-  <threadedComment ref="T27" dT="2025-04-16T01:38:26.06" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{7D9BE086-277F-4636-A4A5-3CA291FB4393}">
+  <threadedComment ref="U28" dT="2025-04-16T01:38:26.06" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{7D9BE086-277F-4636-A4A5-3CA291FB4393}">
     <text>“FY25 effective tax rate”</text>
   </threadedComment>
-  <threadedComment ref="K29" dT="2025-04-16T23:54:37.88" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{895B9FD8-FC46-401A-9FDD-188D6C7FB7BB}">
+  <threadedComment ref="L30" dT="2025-04-16T23:54:37.88" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{895B9FD8-FC46-401A-9FDD-188D6C7FB7BB}">
     <text>“gross margin 50-53%”</text>
   </threadedComment>
-  <threadedComment ref="T29" dT="2025-04-16T01:01:30.18" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{782012D7-B0C3-4C04-9954-6C66D27A90DC}">
+  <threadedComment ref="U30" dT="2025-04-16T01:01:30.18" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{782012D7-B0C3-4C04-9954-6C66D27A90DC}">
     <text>“expects gross margin between 51 - 53 percent”</text>
   </threadedComment>
-  <threadedComment ref="Y29" dT="2025-04-16T01:28:00.48" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{5AA0A275-6EB6-49AB-B2CD-C8A33A588D1A}">
+  <threadedComment ref="Z30" dT="2025-04-16T01:28:00.48" personId="{CDEB7FFD-9779-4A1D-8E3F-07906DC8053A}" id="{5AA0A275-6EB6-49AB-B2CD-C8A33A588D1A}">
     <text>“gross margin between 56 and 60 percent”</text>
   </threadedComment>
 </ThreadedComments>
@@ -926,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3A3A0E-0235-4592-8342-EC1B6F585EA4}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,95 +948,93 @@
     <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
         <v>747</v>
       </c>
-      <c r="E2" s="11">
-        <f>D2/1.13</f>
+      <c r="P2" s="11">
+        <f>O2/1.13</f>
         <v>661.06194690265488</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>392.5</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>392.5</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <f>D3*D2</f>
+      <c r="O4" s="1">
+        <f>O3*O2</f>
         <v>293197.5</v>
       </c>
-      <c r="E4" s="10">
-        <f>D4/1.13</f>
+      <c r="P4" s="10">
+        <f>O4/1.13</f>
         <v>259466.81415929206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="O5" s="1">
         <f>9098+5.2</f>
         <v>9103.2000000000007</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="10" t="s">
+      <c r="P5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="O6" s="1">
         <v>9854</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="10" t="s">
+      <c r="P6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
-        <f>E4+D6-D5</f>
+      <c r="O7" s="1">
+        <f>P4+O6-O5</f>
         <v>260217.61415929202</v>
       </c>
-      <c r="E7" s="1">
-        <f>D7/D3</f>
+      <c r="P7" s="1">
+        <f>O7/O3</f>
         <v>662.97481314469303</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="3">
-        <f>E7/(Sheet2!J23*4*1.11)</f>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="3">
+        <f>P7/(Model!K24*4*1.11)</f>
         <v>24.696734809286777</v>
       </c>
     </row>
@@ -1037,3565 +1046,3574 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC9EA94-660F-4C9C-B2FF-A5D3568DEBBC}">
-  <dimension ref="A1:DT84"/>
+  <dimension ref="A1:DU85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB25" sqref="AB25"/>
+      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="2">
+      <c r="L2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="2">
         <v>2018</v>
       </c>
-      <c r="N1" s="2">
-        <f>M1+1</f>
+      <c r="O2" s="2">
+        <f>N2+1</f>
         <v>2019</v>
       </c>
-      <c r="O1" s="2">
-        <f t="shared" ref="O1:P1" si="0">N1+1</f>
+      <c r="P2" s="2">
+        <f t="shared" ref="P2:Q2" si="0">O2+1</f>
         <v>2020</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q2" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R2" s="2">
         <v>2022</v>
       </c>
-      <c r="R1" s="2">
-        <f>Q1+1</f>
+      <c r="S2" s="2">
+        <f>R2+1</f>
         <v>2023</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" ref="S1:X1" si="1">R1+1</f>
+      <c r="T2" s="2">
+        <f t="shared" ref="T2:Y2" si="1">S2+1</f>
         <v>2024</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U2" s="2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V2" s="2">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W2" s="2">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X2" s="2">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y2" s="2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z2" s="2">
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1">
         <v>124</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="1">
         <v>70</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I3" s="1">
         <v>116</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J3" s="1">
         <v>132</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K3" s="1">
         <f>73+4</f>
         <v>77</v>
       </c>
-      <c r="K2" s="1">
-        <f>K6/K4</f>
+      <c r="L3" s="1">
+        <f>L7/L5</f>
         <v>74.666666666666671</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O3" s="1">
         <v>229</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P3" s="1">
         <v>258</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q3" s="1">
         <v>300</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R3" s="2">
         <v>350</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S3" s="2">
         <v>380</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T3" s="2">
         <v>449</v>
       </c>
-      <c r="T2" s="2">
-        <f>T8/T4</f>
+      <c r="U3" s="2">
+        <f>U9/U5</f>
         <v>420</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9186</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3611</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5567</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2633</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7088</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3900</v>
-      </c>
-      <c r="O3" s="1">
-        <v>11292</v>
-      </c>
-      <c r="P3" s="1">
-        <v>26240</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>30674</v>
-      </c>
-      <c r="R3" s="1">
-        <v>20040</v>
-      </c>
-      <c r="S3" s="1">
-        <v>18899</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1">
-        <f>E6/E2</f>
-        <v>45.83064516129032</v>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:J4" si="2">F6/F2</f>
-        <v>56.657142857142858</v>
+        <v>9186</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
-        <v>47.61</v>
+        <v>3611</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>51.086206896551722</v>
+        <v>5567</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="2"/>
-        <v>53.909090909090907</v>
+        <v>2633</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
-        <v>74.558441558441558</v>
+        <v>7088</v>
       </c>
       <c r="K4" s="1">
-        <v>75</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:S4" si="3">N6/N2</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11292</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="3"/>
-        <v>44.085714285714289</v>
+        <v>26240</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="3"/>
-        <v>57.734210526315792</v>
+        <v>30674</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="3"/>
-        <v>48.483296213808465</v>
-      </c>
-      <c r="T4" s="2">
-        <v>75</v>
+        <v>20040</v>
+      </c>
+      <c r="T4" s="1">
+        <v>18899</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="O5" s="4">
-        <f t="shared" ref="O5:T5" si="4">O2/N2-1</f>
-        <v>0.1266375545851528</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.16279069767441867</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666674</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" si="4"/>
-        <v>8.5714285714285632E-2</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.18157894736842106</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="4"/>
-        <v>-6.4587973273942056E-2</v>
-      </c>
-      <c r="U5" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1">
+        <f>F7/F3</f>
+        <v>45.83064516129032</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:K5" si="2">G7/G3</f>
+        <v>56.657142857142858</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>47.61</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>51.086206896551722</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>53.909090909090907</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>74.558441558441558</v>
+      </c>
+      <c r="L5" s="1">
+        <v>75</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" ref="O5:T5" si="3">O7/O3</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="3"/>
+        <v>44.085714285714289</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="3"/>
+        <v>57.734210526315792</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="3"/>
+        <v>48.483296213808465</v>
+      </c>
+      <c r="U5" s="2">
+        <v>75</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="P6" s="4">
+        <f t="shared" ref="P6:U6" si="4">P3/O3-1</f>
+        <v>0.1266375545851528</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.16279069767441867</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="4"/>
+        <v>8.5714285714285632E-2</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.18157894736842106</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="4"/>
+        <v>-6.4587973273942056E-2</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5683</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3966</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4761</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5926</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7116</v>
+      </c>
+      <c r="K7" s="1">
+        <f>K9-K8</f>
+        <v>5741</v>
+      </c>
+      <c r="L7" s="1">
+        <f>L9-L8</f>
+        <v>5600</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15430</v>
+      </c>
+      <c r="S7" s="1">
+        <v>21939</v>
+      </c>
+      <c r="T7" s="1">
+        <v>21769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>5683</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3966</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4761</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5926</v>
-      </c>
-      <c r="I6" s="1">
-        <v>7116</v>
-      </c>
-      <c r="J6" s="1">
-        <f>J8-J7</f>
-        <v>5741</v>
-      </c>
-      <c r="K6" s="1">
-        <f>K8-K7</f>
-        <v>5600</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>15430</v>
-      </c>
-      <c r="R6" s="1">
-        <v>21939</v>
-      </c>
-      <c r="S6" s="1">
-        <v>21769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F8" s="1">
+        <v>1554</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1324</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1482</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1541</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2147</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="R8" s="1">
+        <v>5743</v>
+      </c>
+      <c r="S8" s="1">
+        <v>5620</v>
+      </c>
+      <c r="T8" s="1">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
-        <v>1554</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1324</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1482</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1541</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2147</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2001</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1800</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="Q7" s="1">
-        <v>5743</v>
-      </c>
-      <c r="R7" s="1">
-        <v>5620</v>
-      </c>
-      <c r="S7" s="1">
-        <v>6494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <f>SUM(B6:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8:E8" si="5">SUM(C6:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C9" s="5">
+        <f>SUM(C7:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:F9" si="5">SUM(D7:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F9" s="5">
         <f t="shared" si="5"/>
         <v>7237</v>
       </c>
-      <c r="F8" s="5">
-        <f>SUM(F6:F7)</f>
+      <c r="G9" s="5">
+        <f>SUM(G7:G8)</f>
         <v>5290</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" ref="G8:H8" si="6">SUM(G6:G7)</f>
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:I9" si="6">SUM(H7:H8)</f>
         <v>6243</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I9" s="5">
         <f t="shared" si="6"/>
         <v>7467</v>
       </c>
-      <c r="I8" s="5">
-        <f>SUM(I6:I7)</f>
+      <c r="J9" s="5">
+        <f>SUM(J7:J8)</f>
         <v>9263</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K9" s="5">
         <v>7742</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L9" s="5">
         <v>7400</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P9" s="5">
         <v>13979</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q9" s="5">
         <v>18611</v>
       </c>
-      <c r="Q8" s="5">
-        <f>SUM(Q6:Q7)</f>
+      <c r="R9" s="5">
+        <f>SUM(R7:R8)</f>
         <v>21173</v>
       </c>
-      <c r="R8" s="5">
-        <f t="shared" ref="R8:S8" si="7">SUM(R6:R7)</f>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9:T9" si="7">SUM(S7:S8)</f>
         <v>27559</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T9" s="5">
         <f t="shared" si="7"/>
         <v>28263</v>
       </c>
-      <c r="T8" s="5">
+      <c r="U9" s="5">
         <v>31500</v>
       </c>
-      <c r="U8" s="5">
-        <f>T8*1.11</f>
+      <c r="V9" s="5">
+        <f>U9*1.11</f>
         <v>34965</v>
       </c>
-      <c r="V8" s="5">
-        <f t="shared" ref="V8:Y8" si="8">U8*1.11</f>
+      <c r="W9" s="5">
+        <f t="shared" ref="W9:Z9" si="8">V9*1.11</f>
         <v>38811.15</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="8"/>
         <v>43080.376500000006</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y9" s="5">
         <f t="shared" si="8"/>
         <v>47819.217915000008</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Z9" s="5">
         <f t="shared" si="8"/>
         <v>53079.331885650012</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="R10" s="1">
+        <v>7582</v>
+      </c>
+      <c r="S10" s="1">
+        <v>10151</v>
+      </c>
+      <c r="T10" s="1">
+        <v>10407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="O9" s="5"/>
-      <c r="Q9" s="1">
-        <v>7582</v>
-      </c>
-      <c r="R9" s="1">
-        <v>10151</v>
-      </c>
-      <c r="S9" s="1">
-        <v>10407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="P11" s="5"/>
+      <c r="R11" s="1">
+        <v>2891</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3271</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="Q10" s="1">
-        <v>2891</v>
-      </c>
-      <c r="R10" s="1">
-        <v>3271</v>
-      </c>
-      <c r="S10" s="1">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ref="B11" si="9">SUM(B9:B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11" si="10">SUM(C9:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ref="D11" si="11">SUM(D9:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C12" s="1">
+        <f t="shared" ref="C12" si="9">SUM(C10:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12" si="10">SUM(D10:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12" si="11">SUM(E10:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>3520</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="1">
         <v>2593</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H12" s="1">
         <v>3031</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I12" s="1">
         <v>3674</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J12" s="1">
         <v>4463</v>
       </c>
-      <c r="J11" s="1">
-        <f t="shared" ref="J11" si="12">J8*(1-J29)</f>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12" si="12">K9*(1-K30)</f>
         <v>3561.3199999999997</v>
       </c>
-      <c r="K11" s="1">
-        <f>K8*(1-K29)</f>
+      <c r="L12" s="1">
+        <f>L9*(1-L30)</f>
         <v>3589</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="Q11" s="1">
-        <f>SUM(Q9:Q10)</f>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="R12" s="1">
+        <f>SUM(R10:R11)</f>
         <v>10473</v>
       </c>
-      <c r="R11" s="1">
-        <f t="shared" ref="R11:S11" si="13">SUM(R9:R10)</f>
+      <c r="S12" s="1">
+        <f t="shared" ref="S12:T12" si="13">SUM(S10:S11)</f>
         <v>13422</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T12" s="1">
         <f t="shared" si="13"/>
         <v>13771</v>
       </c>
-      <c r="T11" s="1">
-        <f t="shared" ref="T11:Y11" si="14">T8*(1-T29)</f>
+      <c r="U12" s="1">
+        <f t="shared" ref="U12:Z12" si="14">U9*(1-U30)</f>
         <v>14962.5</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V12" s="1">
         <f t="shared" si="14"/>
         <v>16333.025625</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W12" s="1">
         <f t="shared" si="14"/>
         <v>17819.436070406253</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X12" s="1">
         <f t="shared" si="14"/>
         <v>19430.06200122321</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y12" s="1">
         <f t="shared" si="14"/>
         <v>21173.591084953132</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z12" s="1">
         <f t="shared" si="14"/>
         <v>23059.036417577696</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <f>B8-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" ref="C12:E12" si="15">C8-C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C9-C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:F13" si="15">D9-D12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="15"/>
         <v>3717</v>
       </c>
-      <c r="F12" s="1">
-        <f>F8-F11</f>
+      <c r="G13" s="1">
+        <f>G9-G12</f>
         <v>2697</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" ref="G12:K12" si="16">G8-G11</f>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:L13" si="16">H9-H12</f>
         <v>3212</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="16"/>
         <v>3793</v>
       </c>
-      <c r="I12" s="1">
-        <f>I8-I11</f>
+      <c r="J13" s="1">
+        <f>J9-J12</f>
         <v>4800</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="16"/>
         <v>4180.68</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="16"/>
         <v>3811</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P13" s="1">
         <v>6978</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q13" s="1">
         <v>9809</v>
       </c>
-      <c r="Q12" s="1">
-        <f>Q8-Q11</f>
+      <c r="R13" s="1">
+        <f>R9-R12</f>
         <v>10700</v>
       </c>
-      <c r="R12" s="1">
-        <f t="shared" ref="R12:S12" si="17">R8-R11</f>
+      <c r="S13" s="1">
+        <f t="shared" ref="S13:T13" si="17">S9-S12</f>
         <v>14137</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="17"/>
         <v>14492</v>
       </c>
-      <c r="T12" s="1">
-        <f t="shared" ref="T12" si="18">T8-T11</f>
+      <c r="U13" s="1">
+        <f t="shared" ref="U13" si="18">U9-U12</f>
         <v>16537.5</v>
       </c>
-      <c r="U12" s="1">
-        <f t="shared" ref="U12" si="19">U8-U11</f>
+      <c r="V13" s="1">
+        <f t="shared" ref="V13" si="19">V9-V12</f>
         <v>18631.974374999998</v>
       </c>
-      <c r="V12" s="1">
-        <f t="shared" ref="V12" si="20">V8-V11</f>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13" si="20">W9-W12</f>
         <v>20991.713929593749</v>
       </c>
-      <c r="W12" s="1">
-        <f t="shared" ref="W12" si="21">W8-W11</f>
+      <c r="X13" s="1">
+        <f t="shared" ref="X13" si="21">X9-X12</f>
         <v>23650.314498776796</v>
       </c>
-      <c r="X12" s="1">
-        <f t="shared" ref="X12:Y12" si="22">X8-X11</f>
+      <c r="Y13" s="1">
+        <f t="shared" ref="Y13:Z13" si="22">Y9-Y12</f>
         <v>26645.626830046876</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z13" s="1">
         <f t="shared" si="22"/>
         <v>30020.295468072316</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
         <v>1041</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G14" s="1">
         <v>1032</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H14" s="1">
         <v>1100</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I14" s="1">
         <v>1055</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J14" s="1">
         <v>1116</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K14" s="1">
         <v>1161</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L14" s="1">
         <v>1200</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P14" s="1">
         <v>2201</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q14" s="1">
         <v>2547</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R14" s="1">
         <v>3253</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S14" s="1">
         <v>3980</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T14" s="1">
         <v>4303</v>
       </c>
-      <c r="T13" s="1">
-        <f>S13*(1+T25)</f>
+      <c r="U14" s="1">
+        <f>T14*(1+U26)</f>
         <v>4795.8284683154652</v>
       </c>
-      <c r="U13" s="1">
-        <f t="shared" ref="U13:X13" si="23">T13*(1+U25)</f>
+      <c r="V14" s="1">
+        <f t="shared" ref="V14:Y14" si="23">U14*(1+V26)</f>
         <v>5323.3695998301664</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W14" s="1">
         <f t="shared" si="23"/>
         <v>5908.9402558114853</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X14" s="1">
         <f t="shared" si="23"/>
         <v>6558.9236839507494</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y14" s="1">
         <f t="shared" si="23"/>
         <v>7280.4052891853325</v>
       </c>
-      <c r="Y13" s="1">
-        <f t="shared" ref="Y13" si="24">X13*(1+Y25)</f>
+      <c r="Z14" s="1">
+        <f t="shared" ref="Z14" si="24">Y14*(1+Z26)</f>
         <v>8081.2498709957199</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
         <v>284</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G15" s="1">
         <v>273</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H15" s="1">
         <v>277</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I15" s="1">
         <v>297</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J15" s="1">
         <v>318.39999999999998</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K15" s="1">
         <v>280</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L15" s="1">
         <v>300</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P15" s="1">
         <v>545</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q15" s="1">
         <v>726</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R15" s="1">
         <v>945</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S15" s="1">
         <v>1113</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T15" s="1">
         <v>1165</v>
       </c>
-      <c r="T14" s="1">
-        <f>S14*(1+T25)</f>
+      <c r="U15" s="1">
+        <f>T15*(1+U26)</f>
         <v>1298.4290415030252</v>
       </c>
-      <c r="U14" s="1">
-        <f t="shared" ref="U14:X14" si="25">T14*(1+U25)</f>
+      <c r="V15" s="1">
+        <f t="shared" ref="V15:Y15" si="25">U15*(1+V26)</f>
         <v>1441.2562360683582</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W15" s="1">
         <f t="shared" si="25"/>
         <v>1599.7944220358777</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X15" s="1">
         <f t="shared" si="25"/>
         <v>1775.7718084598243</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y15" s="1">
         <f t="shared" si="25"/>
         <v>1971.1067073904053</v>
       </c>
-      <c r="Y14" s="1">
-        <f t="shared" ref="Y14" si="26">X14*(1+Y25)</f>
+      <c r="Z15" s="1">
+        <f t="shared" ref="Z15" si="26">Y15*(1+Z26)</f>
         <v>2187.9284452033498</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <f>SUM(B13:B14)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" ref="C15:E15" si="27">SUM(C13:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:F16" si="27">SUM(D14:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="27"/>
         <v>1325</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" ref="F15:K15" si="28">SUM(F13:F14)</f>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:L16" si="28">SUM(G14:G15)</f>
         <v>1305</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="28"/>
         <v>1377</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="28"/>
         <v>1352</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="28"/>
         <v>1434.4</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="28"/>
         <v>1441</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L16" s="1">
         <f t="shared" si="28"/>
         <v>1500</v>
       </c>
-      <c r="O15" s="1">
-        <f>SUM(O13:O14)</f>
+      <c r="P16" s="1">
+        <f>SUM(P14:P15)</f>
         <v>2746</v>
       </c>
-      <c r="P15" s="1">
-        <f>SUM(P13:P14)</f>
+      <c r="Q16" s="1">
+        <f>SUM(Q14:Q15)</f>
         <v>3273</v>
       </c>
-      <c r="Q15" s="1">
-        <f>SUM(Q13:Q14)</f>
+      <c r="R16" s="1">
+        <f>SUM(R14:R15)</f>
         <v>4198</v>
       </c>
-      <c r="R15" s="1">
-        <f t="shared" ref="R15:S15" si="29">SUM(R13:R14)</f>
+      <c r="S16" s="1">
+        <f t="shared" ref="S16:T16" si="29">SUM(S14:S15)</f>
         <v>5093</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T16" s="1">
         <f t="shared" si="29"/>
         <v>5468</v>
       </c>
-      <c r="T15" s="1">
-        <f t="shared" ref="T15" si="30">SUM(T13:T14)</f>
+      <c r="U16" s="1">
+        <f t="shared" ref="U16" si="30">SUM(U14:U15)</f>
         <v>6094.2575098184907</v>
       </c>
-      <c r="U15" s="1">
-        <f t="shared" ref="U15" si="31">SUM(U13:U14)</f>
+      <c r="V16" s="1">
+        <f t="shared" ref="V16" si="31">SUM(V14:V15)</f>
         <v>6764.6258358985251</v>
       </c>
-      <c r="V15" s="1">
-        <f t="shared" ref="V15" si="32">SUM(V13:V14)</f>
+      <c r="W16" s="1">
+        <f t="shared" ref="W16" si="32">SUM(W14:W15)</f>
         <v>7508.7346778473629</v>
       </c>
-      <c r="W15" s="1">
-        <f t="shared" ref="W15" si="33">SUM(W13:W14)</f>
+      <c r="X16" s="1">
+        <f t="shared" ref="X16" si="33">SUM(X14:X15)</f>
         <v>8334.6954924105739</v>
       </c>
-      <c r="X15" s="1">
-        <f t="shared" ref="X15" si="34">SUM(X13:X14)</f>
+      <c r="Y16" s="1">
+        <f t="shared" ref="Y16" si="34">SUM(Y14:Y15)</f>
         <v>9251.5119965757385</v>
       </c>
-      <c r="Y15" s="1">
-        <f>SUM(Y13:Y14)</f>
+      <c r="Z16" s="1">
+        <f>SUM(Z14:Z15)</f>
         <v>10269.17831619907</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B12-B15</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ref="C16:E16" si="35">C12-C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+    <row r="17" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C13-C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:F17" si="35">D13-D16</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="35"/>
         <v>2392</v>
       </c>
-      <c r="F16" s="1">
-        <f>F12-F15</f>
+      <c r="G17" s="1">
+        <f>G13-G16</f>
         <v>1392</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" ref="G16:K16" si="36">G12-G15</f>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:L17" si="36">H13-H16</f>
         <v>1835</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="36"/>
         <v>2441</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="36"/>
         <v>3365.6</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="36"/>
         <v>2739.6800000000003</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L17" s="1">
         <f t="shared" si="36"/>
         <v>2311</v>
       </c>
-      <c r="O16" s="1">
-        <f>O12-O15</f>
+      <c r="P17" s="1">
+        <f>P13-P16</f>
         <v>4232</v>
       </c>
-      <c r="P16" s="1">
-        <f>P12-P15</f>
+      <c r="Q17" s="1">
+        <f>Q13-Q16</f>
         <v>6536</v>
       </c>
-      <c r="Q16" s="1">
-        <f>Q12-Q15</f>
+      <c r="R17" s="1">
+        <f>R13-R16</f>
         <v>6502</v>
       </c>
-      <c r="R16" s="1">
-        <f t="shared" ref="R16:S16" si="37">R12-R15</f>
+      <c r="S17" s="1">
+        <f t="shared" ref="S17:T17" si="37">S13-S16</f>
         <v>9044</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T17" s="1">
         <f t="shared" si="37"/>
         <v>9024</v>
       </c>
-      <c r="T16" s="1">
-        <f t="shared" ref="T16" si="38">T12-T15</f>
+      <c r="U17" s="1">
+        <f t="shared" ref="U17" si="38">U13-U16</f>
         <v>10443.24249018151</v>
       </c>
-      <c r="U16" s="1">
-        <f t="shared" ref="U16" si="39">U12-U15</f>
+      <c r="V17" s="1">
+        <f t="shared" ref="V17" si="39">V13-V16</f>
         <v>11867.348539101473</v>
       </c>
-      <c r="V16" s="1">
-        <f t="shared" ref="V16" si="40">V12-V15</f>
+      <c r="W17" s="1">
+        <f t="shared" ref="W17" si="40">W13-W16</f>
         <v>13482.979251746387</v>
       </c>
-      <c r="W16" s="1">
-        <f t="shared" ref="W16" si="41">W12-W15</f>
+      <c r="X17" s="1">
+        <f t="shared" ref="X17" si="41">X13-X16</f>
         <v>15315.619006366222</v>
       </c>
-      <c r="X16" s="1">
-        <f t="shared" ref="X16:Y16" si="42">X12-X15</f>
+      <c r="Y17" s="1">
+        <f t="shared" ref="Y17:Z17" si="42">Y13-Y16</f>
         <v>17394.11483347114</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z17" s="1">
         <f t="shared" si="42"/>
         <v>19751.117151873244</v>
       </c>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>49</v>
+      </c>
+      <c r="L18" s="1">
+        <f>K36*(AC26/4)</f>
+        <v>-3.7549999999999999</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-44.6</v>
+      </c>
+      <c r="S18" s="1">
+        <v>41</v>
+      </c>
+      <c r="T18" s="1">
+        <v>20</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" ref="U18:Z18" si="43">T36*$AC$26</f>
+        <v>53.6</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="43"/>
+        <v>232.52861707462057</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="43"/>
+        <v>433.7425722334176</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="43"/>
+        <v>664.96096498579664</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="43"/>
+        <v>930.2482846380351</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="43"/>
+        <v>1234.2091029205365</v>
+      </c>
+    </row>
+    <row r="19" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-12</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="J17" s="1">
-        <v>49</v>
-      </c>
-      <c r="K17" s="1">
-        <f>J35*(AB25/4)</f>
-        <v>-11.264999999999999</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>-44.6</v>
-      </c>
-      <c r="R17" s="1">
-        <v>41</v>
-      </c>
-      <c r="S17" s="1">
-        <v>20</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" ref="T17:Y17" si="43">S35*$AB$25</f>
-        <v>160.79999999999998</v>
-      </c>
-      <c r="U17" s="1">
-        <f t="shared" si="43"/>
-        <v>702.92441122386163</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="43"/>
-        <v>1329.4275122959057</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="43"/>
-        <v>2066.6129786400797</v>
-      </c>
-      <c r="X17" s="1">
-        <f t="shared" si="43"/>
-        <v>2930.5952254603935</v>
-      </c>
-      <c r="Y17" s="1">
-        <f t="shared" si="43"/>
-        <v>3939.694541631864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <f>B16+B17</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" ref="C18:E18" si="44">C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C19" s="1">
+        <f>C17+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:F19" si="44">D17+D18</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="44"/>
         <v>2397.1999999999998</v>
       </c>
-      <c r="F18" s="1">
-        <f>F16+F17</f>
+      <c r="G19" s="1">
+        <f>G17+G18</f>
         <v>1418</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" ref="G18:K18" si="45">G16+G17</f>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19:L19" si="45">H17+H18</f>
         <v>1823</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="45"/>
         <v>2440</v>
       </c>
-      <c r="I18" s="1">
-        <f>I16+I17</f>
+      <c r="J19" s="1">
+        <f>J17+J18</f>
         <v>3371.9</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="45"/>
         <v>2788.6800000000003</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L19" s="1">
         <f t="shared" si="45"/>
-        <v>2299.7350000000001</v>
-      </c>
-      <c r="O18" s="1">
-        <f>O16+O17</f>
+        <v>2307.2449999999999</v>
+      </c>
+      <c r="P19" s="1">
+        <f>P17+P18</f>
         <v>4232</v>
       </c>
-      <c r="P18" s="1">
-        <f>P16+P17</f>
+      <c r="Q19" s="1">
+        <f>Q17+Q18</f>
         <v>6536</v>
       </c>
-      <c r="Q18" s="1">
-        <f>Q16+Q17</f>
+      <c r="R19" s="1">
+        <f>R17+R18</f>
         <v>6457.4</v>
       </c>
-      <c r="R18" s="1">
-        <f t="shared" ref="R18:S18" si="46">R16+R17</f>
+      <c r="S19" s="1">
+        <f t="shared" ref="S19:T19" si="46">S17+S18</f>
         <v>9085</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T19" s="1">
         <f t="shared" si="46"/>
         <v>9044</v>
       </c>
-      <c r="T18" s="1">
-        <f t="shared" ref="T18" si="47">T16+T17</f>
-        <v>10604.042490181509</v>
-      </c>
-      <c r="U18" s="1">
-        <f t="shared" ref="U18" si="48">U16+U17</f>
-        <v>12570.272950325334</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" ref="V18" si="49">V16+V17</f>
-        <v>14812.406764042293</v>
-      </c>
-      <c r="W18" s="1">
-        <f t="shared" ref="W18" si="50">W16+W17</f>
-        <v>17382.2319850063</v>
-      </c>
-      <c r="X18" s="1">
-        <f t="shared" ref="X18:Y18" si="51">X16+X17</f>
-        <v>20324.710058931534</v>
-      </c>
-      <c r="Y18" s="1">
+      <c r="U19" s="1">
+        <f t="shared" ref="U19" si="47">U17+U18</f>
+        <v>10496.842490181511</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" ref="V19" si="48">V17+V18</f>
+        <v>12099.877156176093</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" ref="W19" si="49">W17+W18</f>
+        <v>13916.721823979804</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" ref="X19" si="50">X17+X18</f>
+        <v>15980.579971352017</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" ref="Y19:Z19" si="51">Y17+Y18</f>
+        <v>18324.363118109173</v>
+      </c>
+      <c r="Z19" s="1">
         <f t="shared" si="51"/>
-        <v>23690.811693505108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1">
+        <v>20985.326254793781</v>
+      </c>
+    </row>
+    <row r="20" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
         <v>386</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G20" s="1">
         <v>224</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H20" s="1">
         <v>292</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I20" s="1">
         <v>441</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J20" s="1">
         <v>723.8</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K20" s="1">
         <v>465</v>
       </c>
-      <c r="K19" s="1">
-        <f>K18*K27</f>
-        <v>390.95495000000005</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="L20" s="1">
+        <f>L19*L28</f>
+        <v>392.23165</v>
+      </c>
+      <c r="R20" s="1">
         <v>970</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S20" s="1">
         <v>1436</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T20" s="1">
         <v>1681</v>
       </c>
-      <c r="T19" s="1">
-        <f>T18*T27</f>
-        <v>1802.6872233308568</v>
-      </c>
-      <c r="U19" s="1">
-        <f t="shared" ref="U19:Y19" si="52">U18*U27</f>
-        <v>2388.3518605618133</v>
-      </c>
-      <c r="V19" s="1">
+      <c r="U20" s="1">
+        <f>U19*U28</f>
+        <v>1784.4632233308569</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:Z20" si="52">V19*V28</f>
+        <v>2298.9766596734576</v>
+      </c>
+      <c r="W20" s="1">
         <f t="shared" si="52"/>
-        <v>2814.3572851680356</v>
-      </c>
-      <c r="W19" s="1">
+        <v>2644.1771465561628</v>
+      </c>
+      <c r="X20" s="1">
         <f t="shared" si="52"/>
-        <v>3302.6240771511971</v>
-      </c>
-      <c r="X19" s="1">
+        <v>3036.3101945568833</v>
+      </c>
+      <c r="Y20" s="1">
         <f t="shared" si="52"/>
-        <v>3861.6949111969916</v>
-      </c>
-      <c r="Y19" s="1">
+        <v>3481.6289924407429</v>
+      </c>
+      <c r="Z20" s="1">
         <f t="shared" si="52"/>
-        <v>4501.2542217659702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1">
+        <v>3987.2119884108183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1">
         <v>36.6</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>30.2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H21" s="1">
         <v>47</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I21" s="1">
         <v>77</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>55.5</v>
       </c>
-      <c r="J20" s="1">
-        <f>I20*(1+J26)</f>
+      <c r="K21" s="1">
+        <f>J21*(1+K27)</f>
         <v>46.386807729677209</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L21" s="1">
         <v>50</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R21" s="1">
         <v>138</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S21" s="1">
         <v>191</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T21" s="1">
         <v>210</v>
       </c>
-      <c r="T20" s="1">
-        <f>S20*(1+T25)</f>
+      <c r="U21" s="1">
+        <f>T21*(1+U26)</f>
         <v>234.05158688037363</v>
       </c>
-      <c r="U20" s="1">
-        <f t="shared" ref="U20:X20" si="53">T20*(1+U25)</f>
+      <c r="V21" s="1">
+        <f t="shared" ref="V21:Y21" si="53">U21*(1+V26)</f>
         <v>259.79726143721473</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W21" s="1">
         <f t="shared" si="53"/>
         <v>288.37496019530835</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X21" s="1">
         <f t="shared" si="53"/>
         <v>320.09620581679229</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y21" s="1">
         <f t="shared" si="53"/>
         <v>355.30678845663948</v>
       </c>
-      <c r="Y20" s="1">
-        <f t="shared" ref="Y20" si="54">X20*(1+Y25)</f>
+      <c r="Z21" s="1">
+        <f t="shared" ref="Z21" si="54">Y21*(1+Z26)</f>
         <v>394.39053518686984</v>
       </c>
     </row>
-    <row r="21" spans="1:115" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <f>B18-B19+B20</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" ref="C21:E21" si="55">C18-C19+C20</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
+    <row r="22" spans="2:116" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <f>C19-C20+C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:F22" si="55">D19-D20+D21</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="55"/>
         <v>2047.7999999999997</v>
       </c>
-      <c r="F21" s="5">
-        <f>F18-F19+F20</f>
+      <c r="G22" s="5">
+        <f>G19-G20+G21</f>
         <v>1224.2</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" ref="G21:K21" si="56">G18-G19+G20</f>
+      <c r="H22" s="5">
+        <f t="shared" ref="H22:L22" si="56">H19-H20+H21</f>
         <v>1578</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="56"/>
         <v>2076</v>
       </c>
-      <c r="I21" s="5">
-        <f>I18-I19+I20</f>
+      <c r="J22" s="5">
+        <f>J19-J20+J21</f>
         <v>2703.6000000000004</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="56"/>
         <v>2370.0668077296773</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="56"/>
-        <v>1958.7800500000001</v>
-      </c>
-      <c r="O21" s="5">
+        <v>1965.0133499999999</v>
+      </c>
+      <c r="P22" s="5">
         <v>3554</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q22" s="5">
         <v>5883</v>
       </c>
-      <c r="Q21" s="5">
-        <f>Q18-Q19+Q20</f>
+      <c r="R22" s="5">
+        <f>R19-R20+R21</f>
         <v>5625.4</v>
       </c>
-      <c r="R21" s="5">
-        <f t="shared" ref="R21:S21" si="57">R18-R19+R20</f>
+      <c r="S22" s="5">
+        <f t="shared" ref="S22:T22" si="57">S19-S20+S21</f>
         <v>7840</v>
       </c>
-      <c r="S21" s="5">
+      <c r="T22" s="5">
         <f t="shared" si="57"/>
         <v>7573</v>
       </c>
-      <c r="T21" s="5">
-        <f t="shared" ref="T21" si="58">T18-T19+T20</f>
-        <v>9035.4068537310268</v>
-      </c>
-      <c r="U21" s="5">
-        <f t="shared" ref="U21" si="59">U18-U19+U20</f>
-        <v>10441.718351200736</v>
-      </c>
-      <c r="V21" s="5">
-        <f t="shared" ref="V21" si="60">V18-V19+V20</f>
-        <v>12286.424439069566</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" ref="W21" si="61">W18-W19+W20</f>
-        <v>14399.704113671894</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" ref="X21:Y21" si="62">X18-X19+X20</f>
-        <v>16818.321936191183</v>
-      </c>
-      <c r="Y21" s="5">
+      <c r="U22" s="5">
+        <f t="shared" ref="U22" si="58">U19-U20+U21</f>
+        <v>8946.430853731028</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" ref="V22" si="59">V19-V20+V21</f>
+        <v>10060.697757939852</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" ref="W22" si="60">W19-W20+W21</f>
+        <v>11560.919637618948</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" ref="X22" si="61">X19-X20+X21</f>
+        <v>13264.365982611926</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" ref="Y22:Z22" si="62">Y19-Y20+Y21</f>
+        <v>15198.040914125069</v>
+      </c>
+      <c r="Z22" s="5">
         <f t="shared" si="62"/>
-        <v>19583.948006926006</v>
-      </c>
-      <c r="Z21" s="5">
-        <f t="shared" ref="Z21:BE21" si="63">Y21*(1+$AB$26)</f>
-        <v>19779.787486995265</v>
-      </c>
-      <c r="AA21" s="5">
+        <v>17392.504801569834</v>
+      </c>
+      <c r="AA22" s="5">
+        <f t="shared" ref="AA22:BF22" si="63">Z22*(1+$AC$27)</f>
+        <v>17566.429849585533</v>
+      </c>
+      <c r="AB22" s="5">
         <f t="shared" si="63"/>
-        <v>19977.585361865218</v>
-      </c>
-      <c r="AB21" s="5">
+        <v>17742.094148081389</v>
+      </c>
+      <c r="AC22" s="5">
         <f t="shared" si="63"/>
-        <v>20177.36121548387</v>
-      </c>
-      <c r="AC21" s="5">
+        <v>17919.515089562203</v>
+      </c>
+      <c r="AD22" s="5">
         <f t="shared" si="63"/>
-        <v>20379.134827638711</v>
-      </c>
-      <c r="AD21" s="5">
+        <v>18098.710240457825</v>
+      </c>
+      <c r="AE22" s="5">
         <f t="shared" si="63"/>
-        <v>20582.926175915098</v>
-      </c>
-      <c r="AE21" s="5">
+        <v>18279.697342862404</v>
+      </c>
+      <c r="AF22" s="5">
         <f t="shared" si="63"/>
-        <v>20788.755437674248</v>
-      </c>
-      <c r="AF21" s="5">
+        <v>18462.494316291028</v>
+      </c>
+      <c r="AG22" s="5">
         <f t="shared" si="63"/>
-        <v>20996.642992050991</v>
-      </c>
-      <c r="AG21" s="5">
+        <v>18647.119259453939</v>
+      </c>
+      <c r="AH22" s="5">
         <f t="shared" si="63"/>
-        <v>21206.609421971501</v>
-      </c>
-      <c r="AH21" s="5">
+        <v>18833.59045204848</v>
+      </c>
+      <c r="AI22" s="5">
         <f t="shared" si="63"/>
-        <v>21418.675516191215</v>
-      </c>
-      <c r="AI21" s="5">
+        <v>19021.926356568965</v>
+      </c>
+      <c r="AJ22" s="5">
         <f t="shared" si="63"/>
-        <v>21632.862271353126</v>
-      </c>
-      <c r="AJ21" s="5">
+        <v>19212.145620134655</v>
+      </c>
+      <c r="AK22" s="5">
         <f t="shared" si="63"/>
-        <v>21849.190894066658</v>
-      </c>
-      <c r="AK21" s="5">
+        <v>19404.267076336004</v>
+      </c>
+      <c r="AL22" s="5">
         <f t="shared" si="63"/>
-        <v>22067.682803007327</v>
-      </c>
-      <c r="AL21" s="5">
+        <v>19598.309747099363</v>
+      </c>
+      <c r="AM22" s="5">
         <f t="shared" si="63"/>
-        <v>22288.359631037401</v>
-      </c>
-      <c r="AM21" s="5">
+        <v>19794.292844570358</v>
+      </c>
+      <c r="AN22" s="5">
         <f t="shared" si="63"/>
-        <v>22511.243227347775</v>
-      </c>
-      <c r="AN21" s="5">
+        <v>19992.235773016062</v>
+      </c>
+      <c r="AO22" s="5">
         <f t="shared" si="63"/>
-        <v>22736.355659621255</v>
-      </c>
-      <c r="AO21" s="5">
+        <v>20192.158130746222</v>
+      </c>
+      <c r="AP22" s="5">
         <f t="shared" si="63"/>
-        <v>22963.719216217469</v>
-      </c>
-      <c r="AP21" s="5">
+        <v>20394.079712053684</v>
+      </c>
+      <c r="AQ22" s="5">
         <f t="shared" si="63"/>
-        <v>23193.356408379645</v>
-      </c>
-      <c r="AQ21" s="5">
+        <v>20598.020509174221</v>
+      </c>
+      <c r="AR22" s="5">
         <f t="shared" si="63"/>
-        <v>23425.289972463441</v>
-      </c>
-      <c r="AR21" s="5">
+        <v>20804.000714265963</v>
+      </c>
+      <c r="AS22" s="5">
         <f t="shared" si="63"/>
-        <v>23659.542872188074</v>
-      </c>
-      <c r="AS21" s="5">
+        <v>21012.040721408623</v>
+      </c>
+      <c r="AT22" s="5">
         <f t="shared" si="63"/>
-        <v>23896.138300909955</v>
-      </c>
-      <c r="AT21" s="5">
+        <v>21222.161128622709</v>
+      </c>
+      <c r="AU22" s="5">
         <f t="shared" si="63"/>
-        <v>24135.099683919056</v>
-      </c>
-      <c r="AU21" s="5">
+        <v>21434.382739908935</v>
+      </c>
+      <c r="AV22" s="5">
         <f t="shared" si="63"/>
-        <v>24376.450680758247</v>
-      </c>
-      <c r="AV21" s="5">
+        <v>21648.726567308026</v>
+      </c>
+      <c r="AW22" s="5">
         <f t="shared" si="63"/>
-        <v>24620.215187565831</v>
-      </c>
-      <c r="AW21" s="5">
+        <v>21865.213832981106</v>
+      </c>
+      <c r="AX22" s="5">
         <f t="shared" si="63"/>
-        <v>24866.41733944149</v>
-      </c>
-      <c r="AX21" s="5">
+        <v>22083.865971310915</v>
+      </c>
+      <c r="AY22" s="5">
         <f t="shared" si="63"/>
-        <v>25115.081512835906</v>
-      </c>
-      <c r="AY21" s="5">
+        <v>22304.704631024026</v>
+      </c>
+      <c r="AZ22" s="5">
         <f t="shared" si="63"/>
-        <v>25366.232327964266</v>
-      </c>
-      <c r="AZ21" s="5">
+        <v>22527.751677334265</v>
+      </c>
+      <c r="BA22" s="5">
         <f t="shared" si="63"/>
-        <v>25619.894651243911</v>
-      </c>
-      <c r="BA21" s="5">
+        <v>22753.029194107607</v>
+      </c>
+      <c r="BB22" s="5">
         <f t="shared" si="63"/>
-        <v>25876.093597756349</v>
-      </c>
-      <c r="BB21" s="5">
+        <v>22980.559486048682</v>
+      </c>
+      <c r="BC22" s="5">
         <f t="shared" si="63"/>
-        <v>26134.854533733913</v>
-      </c>
-      <c r="BC21" s="5">
+        <v>23210.365080909171</v>
+      </c>
+      <c r="BD22" s="5">
         <f t="shared" si="63"/>
-        <v>26396.203079071252</v>
-      </c>
-      <c r="BD21" s="5">
+        <v>23442.468731718262</v>
+      </c>
+      <c r="BE22" s="5">
         <f t="shared" si="63"/>
-        <v>26660.165109861966</v>
-      </c>
-      <c r="BE21" s="5">
+        <v>23676.893419035445</v>
+      </c>
+      <c r="BF22" s="5">
         <f t="shared" si="63"/>
-        <v>26926.766760960585</v>
-      </c>
-      <c r="BF21" s="5">
-        <f t="shared" ref="BF21:CK21" si="64">BE21*(1+$AB$26)</f>
-        <v>27196.03442857019</v>
-      </c>
-      <c r="BG21" s="5">
+        <v>23913.662353225798</v>
+      </c>
+      <c r="BG22" s="5">
+        <f t="shared" ref="BG22:CL22" si="64">BF22*(1+$AC$27)</f>
+        <v>24152.798976758055</v>
+      </c>
+      <c r="BH22" s="5">
         <f t="shared" si="64"/>
-        <v>27467.994772855891</v>
-      </c>
-      <c r="BH21" s="5">
+        <v>24394.326966525634</v>
+      </c>
+      <c r="BI22" s="5">
         <f t="shared" si="64"/>
-        <v>27742.674720584451</v>
-      </c>
-      <c r="BI21" s="5">
+        <v>24638.270236190889</v>
+      </c>
+      <c r="BJ22" s="5">
         <f t="shared" si="64"/>
-        <v>28020.101467790297</v>
-      </c>
-      <c r="BJ21" s="5">
+        <v>24884.652938552797</v>
+      </c>
+      <c r="BK22" s="5">
         <f t="shared" si="64"/>
-        <v>28300.3024824682</v>
-      </c>
-      <c r="BK21" s="5">
+        <v>25133.499467938327</v>
+      </c>
+      <c r="BL22" s="5">
         <f t="shared" si="64"/>
-        <v>28583.305507292884</v>
-      </c>
-      <c r="BL21" s="5">
+        <v>25384.83446261771</v>
+      </c>
+      <c r="BM22" s="5">
         <f t="shared" si="64"/>
-        <v>28869.138562365813</v>
-      </c>
-      <c r="BM21" s="5">
+        <v>25638.682807243888</v>
+      </c>
+      <c r="BN22" s="5">
         <f t="shared" si="64"/>
-        <v>29157.82994798947</v>
-      </c>
-      <c r="BN21" s="5">
+        <v>25895.069635316326</v>
+      </c>
+      <c r="BO22" s="5">
         <f t="shared" si="64"/>
-        <v>29449.408247469364</v>
-      </c>
-      <c r="BO21" s="5">
+        <v>26154.02033166949</v>
+      </c>
+      <c r="BP22" s="5">
         <f t="shared" si="64"/>
-        <v>29743.90232994406</v>
-      </c>
-      <c r="BP21" s="5">
+        <v>26415.560534986183</v>
+      </c>
+      <c r="BQ22" s="5">
         <f t="shared" si="64"/>
-        <v>30041.341353243501</v>
-      </c>
-      <c r="BQ21" s="5">
+        <v>26679.716140336044</v>
+      </c>
+      <c r="BR22" s="5">
         <f t="shared" si="64"/>
-        <v>30341.754766775935</v>
-      </c>
-      <c r="BR21" s="5">
+        <v>26946.513301739404</v>
+      </c>
+      <c r="BS22" s="5">
         <f t="shared" si="64"/>
-        <v>30645.172314443695</v>
-      </c>
-      <c r="BS21" s="5">
+        <v>27215.978434756798</v>
+      </c>
+      <c r="BT22" s="5">
         <f t="shared" si="64"/>
-        <v>30951.624037588132</v>
-      </c>
-      <c r="BT21" s="5">
+        <v>27488.138219104367</v>
+      </c>
+      <c r="BU22" s="5">
         <f t="shared" si="64"/>
-        <v>31261.140277964012</v>
-      </c>
-      <c r="BU21" s="5">
+        <v>27763.019601295411</v>
+      </c>
+      <c r="BV22" s="5">
         <f t="shared" si="64"/>
-        <v>31573.751680743651</v>
-      </c>
-      <c r="BV21" s="5">
+        <v>28040.649797308364</v>
+      </c>
+      <c r="BW22" s="5">
         <f t="shared" si="64"/>
-        <v>31889.489197551087</v>
-      </c>
-      <c r="BW21" s="5">
+        <v>28321.056295281447</v>
+      </c>
+      <c r="BX22" s="5">
         <f t="shared" si="64"/>
-        <v>32208.384089526597</v>
-      </c>
-      <c r="BX21" s="5">
+        <v>28604.266858234263</v>
+      </c>
+      <c r="BY22" s="5">
         <f t="shared" si="64"/>
-        <v>32530.467930421863</v>
-      </c>
-      <c r="BY21" s="5">
+        <v>28890.309526816607</v>
+      </c>
+      <c r="BZ22" s="5">
         <f t="shared" si="64"/>
-        <v>32855.772609726082</v>
-      </c>
-      <c r="BZ21" s="5">
+        <v>29179.212622084775</v>
+      </c>
+      <c r="CA22" s="5">
         <f t="shared" si="64"/>
-        <v>33184.330335823346</v>
-      </c>
-      <c r="CA21" s="5">
+        <v>29471.004748305622</v>
+      </c>
+      <c r="CB22" s="5">
         <f t="shared" si="64"/>
-        <v>33516.173639181579</v>
-      </c>
-      <c r="CB21" s="5">
+        <v>29765.714795788677</v>
+      </c>
+      <c r="CC22" s="5">
         <f t="shared" si="64"/>
-        <v>33851.335375573399</v>
-      </c>
-      <c r="CC21" s="5">
+        <v>30063.371943746566</v>
+      </c>
+      <c r="CD22" s="5">
         <f t="shared" si="64"/>
-        <v>34189.848729329133</v>
-      </c>
-      <c r="CD21" s="5">
+        <v>30364.005663184031</v>
+      </c>
+      <c r="CE22" s="5">
         <f t="shared" si="64"/>
-        <v>34531.747216622425</v>
-      </c>
-      <c r="CE21" s="5">
+        <v>30667.645719815871</v>
+      </c>
+      <c r="CF22" s="5">
         <f t="shared" si="64"/>
-        <v>34877.064688788647</v>
-      </c>
-      <c r="CF21" s="5">
+        <v>30974.32217701403</v>
+      </c>
+      <c r="CG22" s="5">
         <f t="shared" si="64"/>
-        <v>35225.835335676536</v>
-      </c>
-      <c r="CG21" s="5">
+        <v>31284.065398784169</v>
+      </c>
+      <c r="CH22" s="5">
         <f t="shared" si="64"/>
-        <v>35578.093689033303</v>
-      </c>
-      <c r="CH21" s="5">
+        <v>31596.90605277201</v>
+      </c>
+      <c r="CI22" s="5">
         <f t="shared" si="64"/>
-        <v>35933.874625923636</v>
-      </c>
-      <c r="CI21" s="5">
+        <v>31912.875113299731</v>
+      </c>
+      <c r="CJ22" s="5">
         <f t="shared" si="64"/>
-        <v>36293.213372182872</v>
-      </c>
-      <c r="CJ21" s="5">
+        <v>32232.003864432729</v>
+      </c>
+      <c r="CK22" s="5">
         <f t="shared" si="64"/>
-        <v>36656.1455059047</v>
-      </c>
-      <c r="CK21" s="5">
+        <v>32554.323903077056</v>
+      </c>
+      <c r="CL22" s="5">
         <f t="shared" si="64"/>
-        <v>37022.706960963747</v>
-      </c>
-      <c r="CL21" s="5">
-        <f t="shared" ref="CL21:DK21" si="65">CK21*(1+$AB$26)</f>
-        <v>37392.934030573386</v>
-      </c>
-      <c r="CM21" s="5">
+        <v>32879.867142107825</v>
+      </c>
+      <c r="CM22" s="5">
+        <f t="shared" ref="CM22:DL22" si="65">CL22*(1+$AC$27)</f>
+        <v>33208.665813528904</v>
+      </c>
+      <c r="CN22" s="5">
         <f t="shared" si="65"/>
-        <v>37766.863370879117</v>
-      </c>
-      <c r="CN21" s="5">
+        <v>33540.752471664193</v>
+      </c>
+      <c r="CO22" s="5">
         <f t="shared" si="65"/>
-        <v>38144.532004587905</v>
-      </c>
-      <c r="CO21" s="5">
+        <v>33876.159996380833</v>
+      </c>
+      <c r="CP22" s="5">
         <f t="shared" si="65"/>
-        <v>38525.977324633786</v>
-      </c>
-      <c r="CP21" s="5">
+        <v>34214.92159634464</v>
+      </c>
+      <c r="CQ22" s="5">
         <f t="shared" si="65"/>
-        <v>38911.237097880126</v>
-      </c>
-      <c r="CQ21" s="5">
+        <v>34557.070812308084</v>
+      </c>
+      <c r="CR22" s="5">
         <f t="shared" si="65"/>
-        <v>39300.349468858927</v>
-      </c>
-      <c r="CR21" s="5">
+        <v>34902.641520431163</v>
+      </c>
+      <c r="CS22" s="5">
         <f t="shared" si="65"/>
-        <v>39693.352963547513</v>
-      </c>
-      <c r="CS21" s="5">
+        <v>35251.667935635473</v>
+      </c>
+      <c r="CT22" s="5">
         <f t="shared" si="65"/>
-        <v>40090.28649318299</v>
-      </c>
-      <c r="CT21" s="5">
+        <v>35604.184614991827</v>
+      </c>
+      <c r="CU22" s="5">
         <f t="shared" si="65"/>
-        <v>40491.189358114818</v>
-      </c>
-      <c r="CU21" s="5">
+        <v>35960.226461141749</v>
+      </c>
+      <c r="CV22" s="5">
         <f t="shared" si="65"/>
-        <v>40896.101251695967</v>
-      </c>
-      <c r="CV21" s="5">
+        <v>36319.828725753163</v>
+      </c>
+      <c r="CW22" s="5">
         <f t="shared" si="65"/>
-        <v>41305.062264212924</v>
-      </c>
-      <c r="CW21" s="5">
+        <v>36683.027013010695</v>
+      </c>
+      <c r="CX22" s="5">
         <f t="shared" si="65"/>
-        <v>41718.112886855051</v>
-      </c>
-      <c r="CX21" s="5">
+        <v>37049.857283140802</v>
+      </c>
+      <c r="CY22" s="5">
         <f t="shared" si="65"/>
-        <v>42135.294015723601</v>
-      </c>
-      <c r="CY21" s="5">
+        <v>37420.355855972208</v>
+      </c>
+      <c r="CZ22" s="5">
         <f t="shared" si="65"/>
-        <v>42556.646955880839</v>
-      </c>
-      <c r="CZ21" s="5">
+        <v>37794.559414531934</v>
+      </c>
+      <c r="DA22" s="5">
         <f t="shared" si="65"/>
-        <v>42982.213425439644</v>
-      </c>
-      <c r="DA21" s="5">
+        <v>38172.505008677253</v>
+      </c>
+      <c r="DB22" s="5">
         <f t="shared" si="65"/>
-        <v>43412.035559694043</v>
-      </c>
-      <c r="DB21" s="5">
+        <v>38554.230058764027</v>
+      </c>
+      <c r="DC22" s="5">
         <f t="shared" si="65"/>
-        <v>43846.155915290983</v>
-      </c>
-      <c r="DC21" s="5">
+        <v>38939.772359351671</v>
+      </c>
+      <c r="DD22" s="5">
         <f t="shared" si="65"/>
-        <v>44284.61747444389</v>
-      </c>
-      <c r="DD21" s="5">
+        <v>39329.170082945187</v>
+      </c>
+      <c r="DE22" s="5">
         <f t="shared" si="65"/>
-        <v>44727.463649188328</v>
-      </c>
-      <c r="DE21" s="5">
+        <v>39722.461783774641</v>
+      </c>
+      <c r="DF22" s="5">
         <f t="shared" si="65"/>
-        <v>45174.738285680214</v>
-      </c>
-      <c r="DF21" s="5">
+        <v>40119.686401612387</v>
+      </c>
+      <c r="DG22" s="5">
         <f t="shared" si="65"/>
-        <v>45626.485668537018</v>
-      </c>
-      <c r="DG21" s="5">
+        <v>40520.883265628509</v>
+      </c>
+      <c r="DH22" s="5">
         <f t="shared" si="65"/>
-        <v>46082.750525222385</v>
-      </c>
-      <c r="DH21" s="5">
+        <v>40926.092098284797</v>
+      </c>
+      <c r="DI22" s="5">
         <f t="shared" si="65"/>
-        <v>46543.578030474608</v>
-      </c>
-      <c r="DI21" s="5">
+        <v>41335.353019267648</v>
+      </c>
+      <c r="DJ22" s="5">
         <f t="shared" si="65"/>
-        <v>47009.013810779354</v>
-      </c>
-      <c r="DJ21" s="5">
+        <v>41748.706549460323</v>
+      </c>
+      <c r="DK22" s="5">
         <f t="shared" si="65"/>
-        <v>47479.103948887147</v>
-      </c>
-      <c r="DK21" s="5">
+        <v>42166.193614954929</v>
+      </c>
+      <c r="DL22" s="5">
         <f t="shared" si="65"/>
-        <v>47953.894988376022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+        <v>42587.855551104476</v>
+      </c>
+    </row>
+    <row r="23" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F23" s="1">
         <v>394</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G23" s="1">
         <v>394</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H23" s="1">
         <v>393</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I23" s="1">
         <v>394</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J23" s="1">
         <v>394</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K23" s="1">
         <v>392</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L23" s="1">
         <v>392</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R23" s="1">
         <v>396</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S23" s="1">
         <v>394</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T23" s="1">
         <v>393.6</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U23" s="1">
         <v>393.6</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V23" s="1">
         <v>393.6</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W23" s="1">
         <v>393.6</v>
       </c>
-      <c r="W22" s="1">
+      <c r="X23" s="1">
         <v>393.6</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y23" s="1">
         <v>393.6</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z23" s="1">
         <v>393.6</v>
       </c>
     </row>
-    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="e">
-        <f>B21/B22</f>
+    <row r="24" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="e">
+        <f>C22/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C23" s="3" t="e">
-        <f t="shared" ref="C23:E23" si="66">C21/C22</f>
+      <c r="D24" s="3" t="e">
+        <f t="shared" ref="D24:F24" si="66">D22/D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="3" t="e">
+      <c r="E24" s="3" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F24" s="3">
         <f t="shared" si="66"/>
         <v>5.1974619289340094</v>
       </c>
-      <c r="F23" s="3">
-        <f>F21/F22</f>
+      <c r="G24" s="3">
+        <f>G22/G23</f>
         <v>3.1071065989847715</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" ref="G23:K23" si="67">G21/G22</f>
+      <c r="H24" s="3">
+        <f t="shared" ref="H24:L24" si="67">H22/H23</f>
         <v>4.0152671755725189</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="67"/>
         <v>5.2690355329949234</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J24" s="3">
         <f t="shared" si="67"/>
         <v>6.8619289340101535</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K24" s="3">
         <f t="shared" si="67"/>
         <v>6.0460887952287683</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L24" s="3">
         <f t="shared" si="67"/>
-        <v>4.9968878826530618</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="e">
-        <f>O21/O22</f>
+        <v>5.0127891581632653</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="e">
+        <f>P22/P23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="3" t="e">
-        <f>P21/P22</f>
+      <c r="Q24" s="3" t="e">
+        <f>Q22/Q23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="3">
-        <f>Q21/Q22</f>
+      <c r="R24" s="3">
+        <f>R22/R23</f>
         <v>14.205555555555554</v>
       </c>
-      <c r="R23" s="3">
-        <f t="shared" ref="R23:S23" si="68">R21/R22</f>
+      <c r="S24" s="3">
+        <f t="shared" ref="S24:T24" si="68">S22/S23</f>
         <v>19.898477157360407</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T24" s="3">
         <f t="shared" si="68"/>
         <v>19.240345528455283</v>
       </c>
-      <c r="T23" s="3">
-        <f t="shared" ref="T23" si="69">T21/T22</f>
-        <v>22.955810095861349</v>
-      </c>
-      <c r="U23" s="3">
-        <f t="shared" ref="U23" si="70">U21/U22</f>
-        <v>26.528755973579106</v>
-      </c>
-      <c r="V23" s="3">
-        <f t="shared" ref="V23" si="71">V21/V22</f>
-        <v>31.21550924560357</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" ref="W23" si="72">W21/W22</f>
-        <v>36.584614109938755</v>
-      </c>
-      <c r="X23" s="3">
-        <f t="shared" ref="X23:Y23" si="73">X21/X22</f>
-        <v>42.729476463900362</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="U24" s="3">
+        <f t="shared" ref="U24" si="69">U22/U23</f>
+        <v>22.729753185292246</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" ref="V24" si="70">V22/V23</f>
+        <v>25.560715848424419</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" ref="W24" si="71">W22/W23</f>
+        <v>29.37225517687741</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" ref="X24" si="72">X22/X23</f>
+        <v>33.700116825741681</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" ref="Y24:Z24" si="73">Y22/Y23</f>
+        <v>38.612908826537264</v>
+      </c>
+      <c r="Z24" s="3">
         <f t="shared" si="73"/>
-        <v>49.755965464751029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:115" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="6" t="e">
-        <f>F8/B8-1</f>
+        <v>44.188274394232302</v>
+      </c>
+    </row>
+    <row r="25" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="2:116" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="6" t="e">
+        <f>G9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="6" t="e">
-        <f>G8/C8-1</f>
+      <c r="H26" s="6" t="e">
+        <f>H9/D9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="6" t="e">
-        <f>H8/D8-1</f>
+      <c r="I26" s="6" t="e">
+        <f>I9/E9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="6">
-        <f>I8/E8-1</f>
+      <c r="J26" s="6">
+        <f>J9/F9-1</f>
         <v>0.27995025563078624</v>
       </c>
-      <c r="J25" s="6">
-        <f>J8/F8-1</f>
+      <c r="K26" s="6">
+        <f>K9/G9-1</f>
         <v>0.46351606805293</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6">
-        <f>P8/O8-1</f>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6">
+        <f>Q9/P9-1</f>
         <v>0.33135417411832035</v>
       </c>
-      <c r="Q25" s="6">
-        <f>Q8/P8-1</f>
+      <c r="R26" s="6">
+        <f>R9/Q9-1</f>
         <v>0.1376605233464081</v>
       </c>
-      <c r="R25" s="6">
-        <f>R8/Q8-1</f>
+      <c r="S26" s="6">
+        <f>S9/R9-1</f>
         <v>0.30161054172767199</v>
       </c>
-      <c r="S25" s="6">
-        <f>S8/R8-1</f>
+      <c r="T26" s="6">
+        <f>T9/S9-1</f>
         <v>2.5545193947530853E-2</v>
       </c>
-      <c r="T25" s="6">
-        <f t="shared" ref="T25:X25" si="74">T8/S8-1</f>
+      <c r="U26" s="6">
+        <f t="shared" ref="U26:Y26" si="74">U9/T9-1</f>
         <v>0.11453136609701731</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V26" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W26" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X26" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="X25" s="6">
+      <c r="Y26" s="6">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="Y25" s="6">
-        <f t="shared" ref="Y25" si="75">Y8/X8-1</f>
+      <c r="Z26" s="6">
+        <f t="shared" ref="Z26" si="75">Z9/Y9-1</f>
         <v>0.1100000000000001</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB25" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:115" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="6" t="e">
-        <f>B8/A8-1</f>
+      <c r="AB26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="2:116" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6" t="e">
+        <f>C9/B9-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="6" t="e">
-        <f t="shared" ref="C26:F26" si="76">C8/B8-1</f>
+      <c r="D27" s="6" t="e">
+        <f t="shared" ref="D27:G27" si="76">D9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="6" t="e">
+      <c r="E27" s="6" t="e">
         <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="6" t="e">
+      <c r="F27" s="6" t="e">
         <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G27" s="6">
         <f t="shared" si="76"/>
         <v>-0.26903413016443278</v>
       </c>
-      <c r="G26" s="6">
-        <f>G8/F8-1</f>
+      <c r="H27" s="6">
+        <f>H9/G9-1</f>
         <v>0.18015122873345946</v>
       </c>
-      <c r="H26" s="6">
-        <f>H8/G8-1</f>
+      <c r="I27" s="6">
+        <f>I9/H9-1</f>
         <v>0.19605958673714552</v>
       </c>
-      <c r="I26" s="6">
-        <f>I8/H8-1</f>
+      <c r="J27" s="6">
+        <f>J9/I9-1</f>
         <v>0.24052497656354621</v>
       </c>
-      <c r="J26" s="6">
-        <f>J8/I8-1</f>
+      <c r="K27" s="6">
+        <f>K9/J9-1</f>
         <v>-0.16420166252833857</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="AA26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB26" s="12">
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AB27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" s="12">
         <v>0.01</v>
       </c>
-      <c r="AC26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="e">
-        <f>B19/B18</f>
+      <c r="AD27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="e">
+        <f>C20/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C27" s="4" t="e">
-        <f t="shared" ref="C27:E27" si="77">C19/C18</f>
+      <c r="D28" s="4" t="e">
+        <f t="shared" ref="D28:F28" si="77">D20/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="4" t="e">
+      <c r="E28" s="4" t="e">
         <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F28" s="4">
         <f t="shared" si="77"/>
         <v>0.16102119138995497</v>
       </c>
-      <c r="F27" s="4">
-        <f>F19/F18</f>
+      <c r="G28" s="4">
+        <f>G20/G19</f>
         <v>0.15796897038081806</v>
       </c>
-      <c r="G27" s="4">
-        <f>G19/G18</f>
+      <c r="H28" s="4">
+        <f>H20/H19</f>
         <v>0.16017553483269337</v>
       </c>
-      <c r="H27" s="4">
-        <f>H19/H18</f>
+      <c r="I28" s="4">
+        <f>I20/I19</f>
         <v>0.18073770491803279</v>
       </c>
-      <c r="I27" s="4">
-        <f>I19/I18</f>
+      <c r="J28" s="4">
+        <f>J20/J19</f>
         <v>0.21465642516088851</v>
       </c>
-      <c r="J27" s="4">
-        <f>J19/J18</f>
+      <c r="K28" s="4">
+        <f>K20/K19</f>
         <v>0.16674555703773827</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L28" s="4">
         <v>0.17</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4">
-        <f>O19/O18</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <f>P19/P18</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
-        <f>Q19/Q18</f>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4">
+        <f>P20/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>Q20/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <f>R20/R19</f>
         <v>0.15021525691454765</v>
       </c>
-      <c r="R27" s="4">
-        <f t="shared" ref="R27:S27" si="78">R19/R18</f>
+      <c r="S28" s="4">
+        <f t="shared" ref="S28:T28" si="78">S20/S19</f>
         <v>0.15806274078150798</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="78"/>
         <v>0.18586908447589562</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U28" s="4">
         <v>0.17</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V28" s="4">
         <v>0.19</v>
       </c>
-      <c r="V27" s="4">
+      <c r="W28" s="4">
         <v>0.19</v>
       </c>
-      <c r="W27" s="4">
+      <c r="X28" s="4">
         <v>0.19</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Y28" s="4">
         <v>0.19</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Z28" s="4">
         <v>0.19</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="AB29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB27" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="AA28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB28" s="1">
-        <f>NPV(AB27,T33:XFD33)+Sheet1!D5-Sheet1!D6</f>
+      <c r="AC29" s="1">
+        <f>NPV(AC28,U34:XFD34)+Main!O5-Main!O6</f>
         <v>271056.12470466632</v>
       </c>
     </row>
-    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="e">
-        <f>B12/B8</f>
+    <row r="30" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="e">
+        <f>C13/C9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C29" s="4" t="e">
-        <f t="shared" ref="C29:E29" si="79">C12/C8</f>
+      <c r="D30" s="4" t="e">
+        <f t="shared" ref="D30:F30" si="79">D13/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="4" t="e">
+      <c r="E30" s="4" t="e">
         <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F30" s="4">
         <f t="shared" si="79"/>
         <v>0.51361061213209891</v>
       </c>
-      <c r="F29" s="4">
-        <f>F12/F8</f>
+      <c r="G30" s="4">
+        <f>G13/G9</f>
         <v>0.50982986767485827</v>
       </c>
-      <c r="G29" s="4">
-        <f>G12/G8</f>
+      <c r="H30" s="4">
+        <f>H13/H9</f>
         <v>0.51449623578407822</v>
       </c>
-      <c r="H29" s="4">
-        <f>H12/H8</f>
+      <c r="I30" s="4">
+        <f>I13/I9</f>
         <v>0.50796839426811302</v>
       </c>
-      <c r="I29" s="4">
-        <f>I12/I8</f>
+      <c r="J30" s="4">
+        <f>J13/J9</f>
         <v>0.51819065097700534</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K30" s="4">
         <v>0.54</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L30" s="4">
         <v>0.51500000000000001</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4">
-        <f>O12/O8</f>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4">
+        <f>P13/P9</f>
         <v>0.49917733743472353</v>
       </c>
-      <c r="P29" s="4">
-        <f>P12/P8</f>
+      <c r="Q30" s="4">
+        <f>Q13/Q9</f>
         <v>0.52705389285906179</v>
       </c>
-      <c r="Q29" s="4">
-        <f>Q12/Q8</f>
+      <c r="R30" s="4">
+        <f>R13/R9</f>
         <v>0.50536060076512535</v>
       </c>
-      <c r="R29" s="4">
-        <f t="shared" ref="R29:S29" si="80">R12/R8</f>
+      <c r="S30" s="4">
+        <f t="shared" ref="S30:T30" si="80">S13/S9</f>
         <v>0.51297216880148044</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="80"/>
         <v>0.51275519230088806</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U30" s="4">
         <v>0.52500000000000002</v>
       </c>
-      <c r="U29" s="4">
-        <f>T29*1.015</f>
+      <c r="V30" s="4">
+        <f>U30*1.015</f>
         <v>0.53287499999999999</v>
       </c>
-      <c r="V29" s="4">
-        <f t="shared" ref="V29:Y29" si="81">U29*1.015</f>
+      <c r="W30" s="4">
+        <f t="shared" ref="W30:Z30" si="81">V30*1.015</f>
         <v>0.54086812499999992</v>
       </c>
-      <c r="W29" s="4">
+      <c r="X30" s="4">
         <f t="shared" si="81"/>
         <v>0.54898114687499988</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y30" s="4">
         <f t="shared" si="81"/>
         <v>0.55721586407812485</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Z30" s="4">
         <f t="shared" si="81"/>
         <v>0.5655741020392967</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB29" s="8">
-        <f>AB28/Sheet1!D3</f>
+      <c r="AB30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC30" s="8">
+        <f>AC29/Main!O3</f>
         <v>690.58885275074226</v>
       </c>
     </row>
-    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="Q30" s="4">
-        <f>Q31/Q8</f>
+    <row r="31" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="R31" s="4">
+        <f>R32/R9</f>
         <v>0.40084069333585226</v>
       </c>
-      <c r="R30" s="4">
-        <f>R31/R8</f>
+      <c r="S31" s="4">
+        <f>S32/S9</f>
         <v>0.19750353786421859</v>
       </c>
-      <c r="S30" s="4">
-        <f>S31/S8</f>
+      <c r="T31" s="4">
+        <f>T32/T9</f>
         <v>0.3950748328202951</v>
       </c>
-      <c r="T30" s="4">
-        <f>S30*1.06</f>
+      <c r="U31" s="4">
+        <f>T31*1.06</f>
         <v>0.4187793227895128</v>
       </c>
-      <c r="U30" s="4">
-        <f t="shared" ref="U30:Y30" si="82">T30*1.06</f>
+      <c r="V31" s="4">
+        <f t="shared" ref="V31:Z31" si="82">U31*1.06</f>
         <v>0.4439060821568836</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W31" s="4">
         <f t="shared" si="82"/>
         <v>0.47054044708629661</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X31" s="4">
         <f t="shared" si="82"/>
         <v>0.49877287391147446</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y31" s="4">
         <f t="shared" si="82"/>
         <v>0.52869924634616294</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Z31" s="4">
         <f t="shared" si="82"/>
         <v>0.56042120112693272</v>
       </c>
-      <c r="AA30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB30" s="3">
-        <f>AB29*AC27</f>
+      <c r="AB31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC31" s="3">
+        <f>AC30*AD28</f>
         <v>787.27129213584612</v>
       </c>
     </row>
-    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="1">
+    <row r="32" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="1">
         <v>8487</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S32" s="1">
         <v>5443</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T32" s="1">
         <v>11166</v>
       </c>
-      <c r="T31" s="1">
-        <f>T8*T30</f>
+      <c r="U32" s="1">
+        <f>U9*U31</f>
         <v>13191.548667869652</v>
       </c>
-      <c r="U31" s="1">
-        <f t="shared" ref="U31:Y31" si="83">U8*U30</f>
+      <c r="V32" s="1">
+        <f t="shared" ref="V32:Z32" si="83">V9*V31</f>
         <v>15521.176162615435</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W32" s="1">
         <f t="shared" si="83"/>
         <v>18262.21587293332</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X32" s="1">
         <f t="shared" si="83"/>
         <v>21487.323196093352</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Y32" s="1">
         <f t="shared" si="83"/>
         <v>25281.984472523436</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z32" s="1">
         <f t="shared" si="83"/>
         <v>29746.782930371079</v>
       </c>
-      <c r="AA31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB31" s="4">
-        <f>AB30/Sheet1!D2-1</f>
+      <c r="AB32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC32" s="4">
+        <f>AC31/Main!O2-1</f>
         <v>5.3910698977036375E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q32" s="1">
+    <row r="33" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="1">
         <v>1282</v>
       </c>
-      <c r="R32" s="1">
+      <c r="S33" s="1">
         <v>2155</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T33" s="1">
         <v>2067</v>
       </c>
-      <c r="T32" s="1">
-        <f>T8*0.07</f>
+      <c r="U33" s="1">
+        <f>U9*0.07</f>
         <v>2205</v>
       </c>
-      <c r="U32" s="1">
-        <f t="shared" ref="U32:Y32" si="84">U8*0.07</f>
+      <c r="V33" s="1">
+        <f t="shared" ref="V33:Z33" si="84">V9*0.07</f>
         <v>2447.5500000000002</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W33" s="1">
         <f t="shared" si="84"/>
         <v>2716.7805000000003</v>
       </c>
-      <c r="W32" s="1">
+      <c r="X33" s="1">
         <f t="shared" si="84"/>
         <v>3015.6263550000008</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Y33" s="1">
         <f t="shared" si="84"/>
         <v>3347.3452540500011</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z33" s="1">
         <f t="shared" si="84"/>
         <v>3715.5532319955014</v>
       </c>
     </row>
-    <row r="33" spans="1:124" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5">
-        <f>B31-B32</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" ref="C33:J33" si="85">C31-C32</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
+    <row r="34" spans="2:125" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="5">
+        <f>C32-C33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" ref="D34:K34" si="85">D32-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F34" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G34" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H34" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I34" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J34" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K34" s="5">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O34" s="5">
         <v>2400</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P34" s="5">
         <v>3600</v>
       </c>
-      <c r="Q33" s="5">
-        <f>Q31-Q32</f>
+      <c r="R34" s="5">
+        <f>R32-R33</f>
         <v>7205</v>
       </c>
-      <c r="R33" s="5">
-        <f t="shared" ref="R33:Y33" si="86">R31-R32</f>
+      <c r="S34" s="5">
+        <f t="shared" ref="S34:Z34" si="86">S32-S33</f>
         <v>3288</v>
       </c>
-      <c r="S33" s="5">
+      <c r="T34" s="5">
         <f t="shared" si="86"/>
         <v>9099</v>
       </c>
-      <c r="T33" s="5">
+      <c r="U34" s="5">
         <f t="shared" si="86"/>
         <v>10986.548667869652</v>
       </c>
-      <c r="U33" s="5">
+      <c r="V34" s="5">
         <f t="shared" si="86"/>
         <v>13073.626162615434</v>
       </c>
-      <c r="V33" s="5">
+      <c r="W34" s="5">
         <f t="shared" si="86"/>
         <v>15545.43537293332</v>
       </c>
-      <c r="W33" s="5">
+      <c r="X34" s="5">
         <f t="shared" si="86"/>
         <v>18471.696841093351</v>
       </c>
-      <c r="X33" s="5">
+      <c r="Y34" s="5">
         <f t="shared" si="86"/>
         <v>21934.639218473436</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="Z34" s="5">
         <f t="shared" si="86"/>
         <v>26031.229698375577</v>
       </c>
-      <c r="Z33" s="5">
-        <f t="shared" ref="Z33:BE33" si="87">Y33*(1+$AB$26)</f>
+      <c r="AA34" s="5">
+        <f t="shared" ref="AA34:BF34" si="87">Z34*(1+$AC$27)</f>
         <v>26291.541995359334</v>
       </c>
-      <c r="AA33" s="5">
+      <c r="AB34" s="5">
         <f t="shared" si="87"/>
         <v>26554.457415312929</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AC34" s="5">
         <f t="shared" si="87"/>
         <v>26820.001989466058</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AD34" s="5">
         <f t="shared" si="87"/>
         <v>27088.202009360721</v>
       </c>
-      <c r="AD33" s="5">
+      <c r="AE34" s="5">
         <f t="shared" si="87"/>
         <v>27359.084029454327</v>
       </c>
-      <c r="AE33" s="5">
+      <c r="AF34" s="5">
         <f t="shared" si="87"/>
         <v>27632.674869748869</v>
       </c>
-      <c r="AF33" s="5">
+      <c r="AG34" s="5">
         <f t="shared" si="87"/>
         <v>27909.001618446357</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AH34" s="5">
         <f t="shared" si="87"/>
         <v>28188.091634630819</v>
       </c>
-      <c r="AH33" s="5">
+      <c r="AI34" s="5">
         <f t="shared" si="87"/>
         <v>28469.972550977127</v>
       </c>
-      <c r="AI33" s="5">
+      <c r="AJ34" s="5">
         <f t="shared" si="87"/>
         <v>28754.672276486897</v>
       </c>
-      <c r="AJ33" s="5">
+      <c r="AK34" s="5">
         <f t="shared" si="87"/>
         <v>29042.218999251767</v>
       </c>
-      <c r="AK33" s="5">
+      <c r="AL34" s="5">
         <f t="shared" si="87"/>
         <v>29332.641189244285</v>
       </c>
-      <c r="AL33" s="5">
+      <c r="AM34" s="5">
         <f t="shared" si="87"/>
         <v>29625.967601136726</v>
       </c>
-      <c r="AM33" s="5">
+      <c r="AN34" s="5">
         <f t="shared" si="87"/>
         <v>29922.227277148093</v>
       </c>
-      <c r="AN33" s="5">
+      <c r="AO34" s="5">
         <f t="shared" si="87"/>
         <v>30221.449549919573</v>
       </c>
-      <c r="AO33" s="5">
+      <c r="AP34" s="5">
         <f t="shared" si="87"/>
         <v>30523.664045418769</v>
       </c>
-      <c r="AP33" s="5">
+      <c r="AQ34" s="5">
         <f t="shared" si="87"/>
         <v>30828.900685872955</v>
       </c>
-      <c r="AQ33" s="5">
+      <c r="AR34" s="5">
         <f t="shared" si="87"/>
         <v>31137.189692731685</v>
       </c>
-      <c r="AR33" s="5">
+      <c r="AS34" s="5">
         <f t="shared" si="87"/>
         <v>31448.561589659002</v>
       </c>
-      <c r="AS33" s="5">
+      <c r="AT34" s="5">
         <f t="shared" si="87"/>
         <v>31763.047205555591</v>
       </c>
-      <c r="AT33" s="5">
+      <c r="AU34" s="5">
         <f t="shared" si="87"/>
         <v>32080.677677611147</v>
       </c>
-      <c r="AU33" s="5">
+      <c r="AV34" s="5">
         <f t="shared" si="87"/>
         <v>32401.48445438726</v>
       </c>
-      <c r="AV33" s="5">
+      <c r="AW34" s="5">
         <f t="shared" si="87"/>
         <v>32725.499298931132</v>
       </c>
-      <c r="AW33" s="5">
+      <c r="AX34" s="5">
         <f t="shared" si="87"/>
         <v>33052.754291920442</v>
       </c>
-      <c r="AX33" s="5">
+      <c r="AY34" s="5">
         <f t="shared" si="87"/>
         <v>33383.281834839647</v>
       </c>
-      <c r="AY33" s="5">
+      <c r="AZ34" s="5">
         <f t="shared" si="87"/>
         <v>33717.114653188044</v>
       </c>
-      <c r="AZ33" s="5">
+      <c r="BA34" s="5">
         <f t="shared" si="87"/>
         <v>34054.285799719924</v>
       </c>
-      <c r="BA33" s="5">
+      <c r="BB34" s="5">
         <f t="shared" si="87"/>
         <v>34394.828657717124</v>
       </c>
-      <c r="BB33" s="5">
+      <c r="BC34" s="5">
         <f t="shared" si="87"/>
         <v>34738.776944294295</v>
       </c>
-      <c r="BC33" s="5">
+      <c r="BD34" s="5">
         <f t="shared" si="87"/>
         <v>35086.164713737242</v>
       </c>
-      <c r="BD33" s="5">
+      <c r="BE34" s="5">
         <f t="shared" si="87"/>
         <v>35437.026360874617</v>
       </c>
-      <c r="BE33" s="5">
+      <c r="BF34" s="5">
         <f t="shared" si="87"/>
         <v>35791.396624483365</v>
       </c>
-      <c r="BF33" s="5">
-        <f t="shared" ref="BF33:CK33" si="88">BE33*(1+$AB$26)</f>
+      <c r="BG34" s="5">
+        <f t="shared" ref="BG34:CL34" si="88">BF34*(1+$AC$27)</f>
         <v>36149.310590728201</v>
       </c>
-      <c r="BG33" s="5">
+      <c r="BH34" s="5">
         <f t="shared" si="88"/>
         <v>36510.803696635485</v>
       </c>
-      <c r="BH33" s="5">
+      <c r="BI34" s="5">
         <f t="shared" si="88"/>
         <v>36875.911733601839</v>
       </c>
-      <c r="BI33" s="5">
+      <c r="BJ34" s="5">
         <f t="shared" si="88"/>
         <v>37244.670850937859</v>
       </c>
-      <c r="BJ33" s="5">
+      <c r="BK34" s="5">
         <f t="shared" si="88"/>
         <v>37617.117559447237</v>
       </c>
-      <c r="BK33" s="5">
+      <c r="BL34" s="5">
         <f t="shared" si="88"/>
         <v>37993.288735041708</v>
       </c>
-      <c r="BL33" s="5">
+      <c r="BM34" s="5">
         <f t="shared" si="88"/>
         <v>38373.221622392128</v>
       </c>
-      <c r="BM33" s="5">
+      <c r="BN34" s="5">
         <f t="shared" si="88"/>
         <v>38756.953838616049</v>
       </c>
-      <c r="BN33" s="5">
+      <c r="BO34" s="5">
         <f t="shared" si="88"/>
         <v>39144.52337700221</v>
       </c>
-      <c r="BO33" s="5">
+      <c r="BP34" s="5">
         <f t="shared" si="88"/>
         <v>39535.96861077223</v>
       </c>
-      <c r="BP33" s="5">
+      <c r="BQ34" s="5">
         <f t="shared" si="88"/>
         <v>39931.328296879954</v>
       </c>
-      <c r="BQ33" s="5">
+      <c r="BR34" s="5">
         <f t="shared" si="88"/>
         <v>40330.641579848751</v>
       </c>
-      <c r="BR33" s="5">
+      <c r="BS34" s="5">
         <f t="shared" si="88"/>
         <v>40733.947995647235</v>
       </c>
-      <c r="BS33" s="5">
+      <c r="BT34" s="5">
         <f t="shared" si="88"/>
         <v>41141.287475603705</v>
       </c>
-      <c r="BT33" s="5">
+      <c r="BU34" s="5">
         <f t="shared" si="88"/>
         <v>41552.700350359744</v>
       </c>
-      <c r="BU33" s="5">
+      <c r="BV34" s="5">
         <f t="shared" si="88"/>
         <v>41968.227353863345</v>
       </c>
-      <c r="BV33" s="5">
+      <c r="BW34" s="5">
         <f t="shared" si="88"/>
         <v>42387.909627401976</v>
       </c>
-      <c r="BW33" s="5">
+      <c r="BX34" s="5">
         <f t="shared" si="88"/>
         <v>42811.788723675993</v>
       </c>
-      <c r="BX33" s="5">
+      <c r="BY34" s="5">
         <f t="shared" si="88"/>
         <v>43239.906610912753</v>
       </c>
-      <c r="BY33" s="5">
+      <c r="BZ34" s="5">
         <f t="shared" si="88"/>
         <v>43672.305677021883</v>
       </c>
-      <c r="BZ33" s="5">
+      <c r="CA34" s="5">
         <f t="shared" si="88"/>
         <v>44109.028733792104</v>
       </c>
-      <c r="CA33" s="5">
+      <c r="CB34" s="5">
         <f t="shared" si="88"/>
         <v>44550.119021130027</v>
       </c>
-      <c r="CB33" s="5">
+      <c r="CC34" s="5">
         <f t="shared" si="88"/>
         <v>44995.620211341331</v>
       </c>
-      <c r="CC33" s="5">
+      <c r="CD34" s="5">
         <f t="shared" si="88"/>
         <v>45445.576413454743</v>
       </c>
-      <c r="CD33" s="5">
+      <c r="CE34" s="5">
         <f t="shared" si="88"/>
         <v>45900.032177589288</v>
       </c>
-      <c r="CE33" s="5">
+      <c r="CF34" s="5">
         <f t="shared" si="88"/>
         <v>46359.032499365181</v>
       </c>
-      <c r="CF33" s="5">
+      <c r="CG34" s="5">
         <f t="shared" si="88"/>
         <v>46822.622824358834</v>
       </c>
-      <c r="CG33" s="5">
+      <c r="CH34" s="5">
         <f t="shared" si="88"/>
         <v>47290.849052602425</v>
       </c>
-      <c r="CH33" s="5">
+      <c r="CI34" s="5">
         <f t="shared" si="88"/>
         <v>47763.757543128449</v>
       </c>
-      <c r="CI33" s="5">
+      <c r="CJ34" s="5">
         <f t="shared" si="88"/>
         <v>48241.395118559733</v>
       </c>
-      <c r="CJ33" s="5">
+      <c r="CK34" s="5">
         <f t="shared" si="88"/>
         <v>48723.80906974533</v>
       </c>
-      <c r="CK33" s="5">
+      <c r="CL34" s="5">
         <f t="shared" si="88"/>
         <v>49211.04716044278</v>
       </c>
-      <c r="CL33" s="5">
-        <f t="shared" ref="CL33:DT33" si="89">CK33*(1+$AB$26)</f>
+      <c r="CM34" s="5">
+        <f t="shared" ref="CM34:DU34" si="89">CL34*(1+$AC$27)</f>
         <v>49703.157632047209</v>
       </c>
-      <c r="CM33" s="5">
+      <c r="CN34" s="5">
         <f t="shared" si="89"/>
         <v>50200.189208367679</v>
       </c>
-      <c r="CN33" s="5">
+      <c r="CO34" s="5">
         <f t="shared" si="89"/>
         <v>50702.191100451353</v>
       </c>
-      <c r="CO33" s="5">
+      <c r="CP34" s="5">
         <f t="shared" si="89"/>
         <v>51209.213011455868</v>
       </c>
-      <c r="CP33" s="5">
+      <c r="CQ34" s="5">
         <f t="shared" si="89"/>
         <v>51721.305141570425</v>
       </c>
-      <c r="CQ33" s="5">
+      <c r="CR34" s="5">
         <f t="shared" si="89"/>
         <v>52238.518192986128</v>
       </c>
-      <c r="CR33" s="5">
+      <c r="CS34" s="5">
         <f t="shared" si="89"/>
         <v>52760.903374915993</v>
       </c>
-      <c r="CS33" s="5">
+      <c r="CT34" s="5">
         <f t="shared" si="89"/>
         <v>53288.512408665156</v>
       </c>
-      <c r="CT33" s="5">
+      <c r="CU34" s="5">
         <f t="shared" si="89"/>
         <v>53821.397532751806</v>
       </c>
-      <c r="CU33" s="5">
+      <c r="CV34" s="5">
         <f t="shared" si="89"/>
         <v>54359.611508079324</v>
       </c>
-      <c r="CV33" s="5">
+      <c r="CW34" s="5">
         <f t="shared" si="89"/>
         <v>54903.207623160117</v>
       </c>
-      <c r="CW33" s="5">
+      <c r="CX34" s="5">
         <f t="shared" si="89"/>
         <v>55452.239699391721</v>
       </c>
-      <c r="CX33" s="5">
+      <c r="CY34" s="5">
         <f t="shared" si="89"/>
         <v>56006.762096385639</v>
       </c>
-      <c r="CY33" s="5">
+      <c r="CZ34" s="5">
         <f t="shared" si="89"/>
         <v>56566.829717349494</v>
       </c>
-      <c r="CZ33" s="5">
+      <c r="DA34" s="5">
         <f t="shared" si="89"/>
         <v>57132.498014522993</v>
       </c>
-      <c r="DA33" s="5">
+      <c r="DB34" s="5">
         <f t="shared" si="89"/>
         <v>57703.822994668226</v>
       </c>
-      <c r="DB33" s="5">
+      <c r="DC34" s="5">
         <f t="shared" si="89"/>
         <v>58280.861224614906</v>
       </c>
-      <c r="DC33" s="5">
+      <c r="DD34" s="5">
         <f t="shared" si="89"/>
         <v>58863.669836861052</v>
       </c>
-      <c r="DD33" s="5">
+      <c r="DE34" s="5">
         <f t="shared" si="89"/>
         <v>59452.306535229662</v>
       </c>
-      <c r="DE33" s="5">
+      <c r="DF34" s="5">
         <f t="shared" si="89"/>
         <v>60046.829600581957</v>
       </c>
-      <c r="DF33" s="5">
+      <c r="DG34" s="5">
         <f t="shared" si="89"/>
         <v>60647.297896587777</v>
       </c>
-      <c r="DG33" s="5">
+      <c r="DH34" s="5">
         <f t="shared" si="89"/>
         <v>61253.770875553659</v>
       </c>
-      <c r="DH33" s="5">
+      <c r="DI34" s="5">
         <f t="shared" si="89"/>
         <v>61866.308584309198</v>
       </c>
-      <c r="DI33" s="5">
+      <c r="DJ34" s="5">
         <f t="shared" si="89"/>
         <v>62484.971670152292</v>
       </c>
-      <c r="DJ33" s="5">
+      <c r="DK34" s="5">
         <f t="shared" si="89"/>
         <v>63109.821386853815</v>
       </c>
-      <c r="DK33" s="5">
+      <c r="DL34" s="5">
         <f t="shared" si="89"/>
         <v>63740.919600722351</v>
       </c>
-      <c r="DL33" s="5">
+      <c r="DM34" s="5">
         <f t="shared" si="89"/>
         <v>64378.328796729576</v>
       </c>
-      <c r="DM33" s="5">
+      <c r="DN34" s="5">
         <f t="shared" si="89"/>
         <v>65022.11208469687</v>
       </c>
-      <c r="DN33" s="5">
+      <c r="DO34" s="5">
         <f t="shared" si="89"/>
         <v>65672.333205543837</v>
       </c>
-      <c r="DO33" s="5">
+      <c r="DP34" s="5">
         <f t="shared" si="89"/>
         <v>66329.056537599274</v>
       </c>
-      <c r="DP33" s="5">
+      <c r="DQ34" s="5">
         <f t="shared" si="89"/>
         <v>66992.347102975269</v>
       </c>
-      <c r="DQ33" s="5">
+      <c r="DR34" s="5">
         <f t="shared" si="89"/>
         <v>67662.27057400503</v>
       </c>
-      <c r="DR33" s="5">
+      <c r="DS34" s="5">
         <f t="shared" si="89"/>
         <v>68338.893279745083</v>
       </c>
-      <c r="DS33" s="5">
+      <c r="DT34" s="5">
         <f t="shared" si="89"/>
         <v>69022.28221254253</v>
       </c>
-      <c r="DT33" s="5">
+      <c r="DU34" s="5">
         <f t="shared" si="89"/>
         <v>69712.505034667949</v>
       </c>
     </row>
-    <row r="34" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="Q34" s="4">
-        <f>Q33/Q21</f>
+    <row r="35" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="R35" s="4">
+        <f>R34/R22</f>
         <v>1.280797809933516</v>
       </c>
-      <c r="R34" s="4">
-        <f>R33/R21</f>
+      <c r="S35" s="4">
+        <f>S34/S22</f>
         <v>0.41938775510204079</v>
       </c>
-      <c r="S34" s="4">
-        <f>S33/S21</f>
+      <c r="T35" s="4">
+        <f>T34/T22</f>
         <v>1.2015053479466526</v>
       </c>
-      <c r="T34" s="4">
-        <f>T33/T21</f>
-        <v>1.2159439907604086</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" ref="U34:Y34" si="90">U33/U21</f>
-        <v>1.2520569625508089</v>
-      </c>
-      <c r="V34" s="4">
+      <c r="U35" s="4">
+        <f>U34/U22</f>
+        <v>1.2280370627676411</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" ref="V35:Z35" si="90">V34/V22</f>
+        <v>1.2994750937923558</v>
+      </c>
+      <c r="W35" s="4">
         <f t="shared" si="90"/>
-        <v>1.2652529993592305</v>
-      </c>
-      <c r="W34" s="4">
+        <v>1.3446538735853553</v>
+      </c>
+      <c r="X35" s="4">
         <f t="shared" si="90"/>
-        <v>1.2827830832687233</v>
-      </c>
-      <c r="X34" s="4">
+        <v>1.3925804569406215</v>
+      </c>
+      <c r="Y35" s="4">
         <f t="shared" si="90"/>
-        <v>1.3042109255426071</v>
-      </c>
-      <c r="Y34" s="4">
+        <v>1.443254386694496</v>
+      </c>
+      <c r="Z35" s="4">
         <f t="shared" si="90"/>
-        <v>1.3292125616943755</v>
-      </c>
-    </row>
-    <row r="35" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" ref="B35:H35" si="91">B59-B78</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
+        <v>1.4966923968321124</v>
+      </c>
+    </row>
+    <row r="36" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:I36" si="91">C60-C79</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E36" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F36" s="1">
         <f t="shared" si="91"/>
         <v>2378</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G36" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H36" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I36" s="1">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="I35" s="1">
-        <f>I59-I82</f>
+      <c r="J36" s="1">
+        <f>J60-J83</f>
         <v>2680</v>
       </c>
-      <c r="J35" s="1">
-        <f>J59-J82</f>
+      <c r="K36" s="1">
+        <f>K60-K83</f>
         <v>-751</v>
       </c>
-      <c r="Q35" s="1">
-        <f>Q59-Q78</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <f>R59-R82</f>
+      <c r="R36" s="1">
+        <f>R60-R79</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f>S60-S83</f>
         <v>-3221</v>
       </c>
-      <c r="S35" s="1">
-        <f>S59-S82</f>
+      <c r="T36" s="1">
+        <f>T60-T83</f>
         <v>2680</v>
       </c>
-      <c r="T35" s="1">
-        <f t="shared" ref="T35:Y35" si="92">S35+T21</f>
-        <v>11715.406853731027</v>
-      </c>
-      <c r="U35" s="1">
+      <c r="U36" s="1">
+        <f t="shared" ref="U36:Z36" si="92">T36+U22</f>
+        <v>11626.430853731028</v>
+      </c>
+      <c r="V36" s="1">
         <f t="shared" si="92"/>
-        <v>22157.125204931763</v>
-      </c>
-      <c r="V35" s="1">
+        <v>21687.12861167088</v>
+      </c>
+      <c r="W36" s="1">
         <f t="shared" si="92"/>
-        <v>34443.54964400133</v>
-      </c>
-      <c r="W35" s="1">
+        <v>33248.04824928983</v>
+      </c>
+      <c r="X36" s="1">
         <f t="shared" si="92"/>
-        <v>48843.253757673228</v>
-      </c>
-      <c r="X35" s="1">
+        <v>46512.414231901756</v>
+      </c>
+      <c r="Y36" s="1">
         <f t="shared" si="92"/>
-        <v>65661.575693864404</v>
-      </c>
-      <c r="Y35" s="1">
+        <v>61710.455146026827</v>
+      </c>
+      <c r="Z36" s="1">
         <f t="shared" si="92"/>
-        <v>85245.523700790407</v>
-      </c>
-      <c r="Z35" s="4"/>
-    </row>
-    <row r="36" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" ref="B37" si="93">B21</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" ref="C37:J37" si="94">C21</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
+        <v>79102.959947596653</v>
+      </c>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" ref="C38" si="93">C22</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ref="D38:K38" si="94">D22</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F38" s="1">
         <f t="shared" si="94"/>
         <v>2047.7999999999997</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G38" s="1">
         <f t="shared" si="94"/>
         <v>1224.2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H38" s="1">
         <f t="shared" si="94"/>
         <v>1578</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I38" s="1">
         <f t="shared" si="94"/>
         <v>2076</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J38" s="1">
         <f t="shared" si="94"/>
         <v>2703.6000000000004</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K38" s="1">
         <f t="shared" si="94"/>
         <v>2370.0668077296773</v>
       </c>
-      <c r="Q37" s="1">
-        <f>Q21</f>
+      <c r="R38" s="1">
+        <f>R22</f>
         <v>5625.4</v>
       </c>
-      <c r="R37" s="1">
-        <f t="shared" ref="R37:S37" si="95">R21</f>
+      <c r="S38" s="1">
+        <f t="shared" ref="S38:T38" si="95">S22</f>
         <v>7840</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T38" s="1">
         <f t="shared" si="95"/>
         <v>7573</v>
       </c>
     </row>
-    <row r="38" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1">
+    <row r="39" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="1">
         <v>2048</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J39" s="1">
         <v>2693</v>
       </c>
-      <c r="R38" s="1">
+      <c r="S39" s="1">
         <v>7839</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T39" s="1">
         <v>7572</v>
       </c>
     </row>
-    <row r="39" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1">
+        <v>212</v>
+      </c>
+      <c r="J40" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="1">
-        <v>212</v>
-      </c>
-      <c r="I39" s="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="F42" s="1">
+        <v>42</v>
+      </c>
+      <c r="J42" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="1">
+        <v>211</v>
+      </c>
+      <c r="J43" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-49</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="1">
+        <v>175</v>
+      </c>
+      <c r="J45" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="1">
+        <v>548</v>
+      </c>
+      <c r="J46" s="1">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="47" spans="2:125" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="5">
+        <f>F39+SUM(F40:F46)</f>
+        <v>3197</v>
+      </c>
+      <c r="J47" s="5">
+        <f>J39+SUM(J40:J46)</f>
+        <v>9545</v>
+      </c>
+    </row>
+    <row r="48" spans="2:125" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="I40" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1">
-        <v>42</v>
-      </c>
-      <c r="I41" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="1">
-        <v>211</v>
-      </c>
-      <c r="I42" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="1">
-        <v>-49</v>
-      </c>
-      <c r="I43" s="1">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="1">
-        <v>175</v>
-      </c>
-      <c r="I44" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="1">
-        <v>548</v>
-      </c>
-      <c r="I45" s="1">
-        <v>6237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:124" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="5">
-        <f>E38+SUM(E39:E45)</f>
-        <v>3197</v>
-      </c>
-      <c r="I46" s="5">
-        <f>I38+SUM(I39:I45)</f>
-        <v>9545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:124" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:124" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="F49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="F50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="F51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:29" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="F52" s="5">
+        <f>SUM(F48:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:29" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="5">
-        <f>SUM(E47:E50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:28" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="F53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="F54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="F55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="F56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="F57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="4">
-        <f>SUM(E52:E56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E58" s="4"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="F58" s="4">
+        <f>SUM(F53:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="F59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F60" s="1">
         <f>7005+5</f>
         <v>7010</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J60" s="1">
         <f>12736+5</f>
         <v>12741</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K60" s="1">
         <f>9098+5</f>
         <v>9103</v>
       </c>
-      <c r="R59" s="1">
+      <c r="S60" s="1">
         <f>7004+5</f>
         <v>7009</v>
       </c>
-      <c r="S59" s="1">
+      <c r="T60" s="1">
         <f>12736+5</f>
         <v>12741</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="1">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="1">
         <f>4334+1379</f>
         <v>5713</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J61" s="1">
         <f>4477+82</f>
         <v>4559</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K61" s="1">
         <f>4597+382</f>
         <v>4979</v>
       </c>
-      <c r="R60" s="1">
+      <c r="S61" s="1">
         <v>4334</v>
       </c>
-      <c r="S60" s="1">
+      <c r="T61" s="1">
         <v>4477</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J62" s="1">
+        <v>284</v>
+      </c>
+      <c r="AC62" s="4"/>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="1">
-        <v>1001</v>
-      </c>
-      <c r="I61" s="1">
-        <v>284</v>
-      </c>
-      <c r="AB61" s="4"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="F63" s="1">
+        <v>240</v>
+      </c>
+      <c r="J63" s="1">
+        <v>321</v>
+      </c>
+      <c r="AC63" s="4"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8851</v>
+      </c>
+      <c r="J64" s="1">
+        <v>10892</v>
+      </c>
+      <c r="K64" s="1">
+        <v>11025</v>
+      </c>
+      <c r="S64" s="1">
+        <v>8851</v>
+      </c>
+      <c r="T64" s="1">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="1">
-        <v>240</v>
-      </c>
-      <c r="I62" s="1">
-        <v>321</v>
-      </c>
-      <c r="AB62" s="4"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="1">
-        <v>8851</v>
-      </c>
-      <c r="I63" s="1">
-        <v>10892</v>
-      </c>
-      <c r="J63" s="1">
-        <v>11025</v>
-      </c>
-      <c r="R63" s="1">
-        <v>8851</v>
-      </c>
-      <c r="S63" s="1">
-        <v>10891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="F65" s="1">
+        <v>1579</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="1">
         <v>61</v>
       </c>
-      <c r="E64" s="1">
-        <v>1579</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="J67" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F68" s="1">
+        <v>1872</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="1">
+        <v>929</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="1">
+        <v>652</v>
+      </c>
+      <c r="J70" s="1">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="1">
+        <v>919</v>
+      </c>
+      <c r="J71" s="1">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4588</v>
+      </c>
+      <c r="J72" s="1">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="1">
+        <v>742</v>
+      </c>
+      <c r="J73" s="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="1">
+        <v>5493</v>
+      </c>
+      <c r="J74" s="1">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="1">
+        <v>307</v>
+      </c>
+      <c r="J75" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="1">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1872</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="1">
-        <v>929</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="1">
-        <v>652</v>
-      </c>
-      <c r="I69" s="1">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="1">
-        <v>919</v>
-      </c>
-      <c r="I70" s="1">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E71" s="1">
-        <v>4588</v>
-      </c>
-      <c r="I71" s="1">
-        <v>4589</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="1">
-        <v>742</v>
-      </c>
-      <c r="I72" s="1">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="1">
-        <v>5493</v>
-      </c>
-      <c r="I73" s="1">
-        <v>6847</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="1">
-        <v>307</v>
-      </c>
-      <c r="I74" s="1">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="1">
-        <f>SUM(B59:B74)</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="1">
-        <f t="shared" ref="C75:J75" si="96">SUM(C59:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="C76" s="1">
+        <f>SUM(C60:C75)</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" ref="D76:K76" si="96">SUM(D60:D75)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="E75" s="1">
-        <f>SUM(E59:E74)</f>
+      <c r="F76" s="1">
+        <f>SUM(F60:F75)</f>
         <v>39957</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G76" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H76" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I76" s="1">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J76" s="1">
         <f t="shared" si="96"/>
         <v>48590</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K76" s="1">
         <f t="shared" si="96"/>
         <v>25107</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R77" s="1">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S78" s="1">
         <v>2347</v>
       </c>
-      <c r="S77" s="1">
+      <c r="T78" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F79" s="1">
         <v>4632</v>
       </c>
-      <c r="I78" s="1">
+      <c r="J79" s="1">
         <v>3677</v>
       </c>
-      <c r="J78" s="1">
+      <c r="K79" s="1">
         <v>3681</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="1">
+        <v>372</v>
+      </c>
+      <c r="J80" s="1">
+        <v>299</v>
+      </c>
+      <c r="K80" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E79" s="1">
-        <v>372</v>
-      </c>
-      <c r="I79" s="1">
-        <v>299</v>
-      </c>
-      <c r="J79" s="1">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="F81" s="1">
+        <v>4826</v>
+      </c>
+      <c r="J81" s="1">
+        <v>5625</v>
+      </c>
+      <c r="K81" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="1">
-        <v>4826</v>
-      </c>
-      <c r="I80" s="1">
-        <v>5625</v>
-      </c>
-      <c r="J80" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="F82" s="1">
+        <v>401</v>
+      </c>
+      <c r="J82" s="1">
+        <v>460</v>
+      </c>
+      <c r="K82" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E81" s="1">
-        <v>401</v>
-      </c>
-      <c r="I81" s="1">
-        <v>460</v>
-      </c>
-      <c r="J81" s="1">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="1">
-        <f>SUM(B77:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
-        <f t="shared" ref="C82:J82" si="97">SUM(C77:C81)</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C83" s="1">
+        <f>SUM(C78:C82)</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" ref="D83:K83" si="97">SUM(D78:D82)</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="E82" s="1">
-        <f>SUM(E77:E81)</f>
+      <c r="F83" s="1">
+        <f>SUM(F78:F82)</f>
         <v>10231</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G83" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H83" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I83" s="1">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="I82" s="1">
+      <c r="J83" s="1">
         <f t="shared" si="97"/>
         <v>10061</v>
       </c>
-      <c r="J82" s="1">
+      <c r="K83" s="1">
         <f t="shared" si="97"/>
         <v>9854</v>
       </c>
-      <c r="R82" s="1">
+      <c r="S83" s="1">
         <v>10230</v>
       </c>
-      <c r="S82" s="1">
+      <c r="T83" s="1">
         <v>10061</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="1" t="e">
-        <f t="shared" ref="B84:J84" si="98">B60/B8*360</f>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1" t="e">
+        <f t="shared" ref="C85:K85" si="98">C61/C9*360</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C84" s="1" t="e">
+      <c r="D85" s="1" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D84" s="1" t="e">
+      <c r="E85" s="1" t="e">
         <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F85" s="1">
         <f t="shared" si="98"/>
         <v>284.18958131822581</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G85" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H85" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="H84" s="1">
+      <c r="I85" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="I84" s="1">
+      <c r="J85" s="1">
         <f t="shared" si="98"/>
         <v>177.18233833531252</v>
       </c>
-      <c r="J84" s="1">
+      <c r="K85" s="1">
         <f t="shared" si="98"/>
         <v>231.5215706535779</v>
       </c>
-      <c r="R84" s="1">
-        <f>R60/R8*360</f>
+      <c r="S85" s="1">
+        <f>S61/S9*360</f>
         <v>56.614536086215026</v>
       </c>
-      <c r="S84" s="1">
-        <f>S60/S8*360</f>
+      <c r="T85" s="1">
+        <f>T61/T9*360</f>
         <v>57.025793440186817</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A38C2740-61C4-4839-BEF1-79E2469C06E4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ASML.xlsx
+++ b/ASML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1424D5-FD99-4095-966B-7B907FAA2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35E1BE-6E08-43D1-9D8C-87A76195188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
+    <workbookView xWindow="4410" yWindow="300" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{97FBD9E3-1932-42E7-BB98-5F86DEFF785F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>SG&amp;A</t>
   </si>
   <si>
-    <t>OPEX</t>
-  </si>
-  <si>
     <t>Operating Income</t>
   </si>
   <si>
@@ -388,24 +385,32 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -423,6 +428,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -448,23 +468,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,7 +516,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -545,7 +566,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -945,79 +966,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
+      <c r="A1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
+      <c r="N2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
         <v>747</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="5">
         <f>O2/1.13</f>
         <v>661.06194690265488</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>392.5</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>39</v>
+      <c r="P3" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="1">
         <f>O3*O2</f>
         <v>293197.5</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="4">
         <f>O4/1.13</f>
         <v>259466.81415929206</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="1">
         <f>9098+5.2</f>
         <v>9103.2000000000007</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>39</v>
+      <c r="P5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="1">
         <v>9854</v>
       </c>
-      <c r="P6" s="10" t="s">
-        <v>39</v>
+      <c r="P6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="1">
@@ -1030,10 +1051,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="N8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="2">
         <f>P7/(Model!K24*4*1.11)</f>
         <v>24.696734809286777</v>
       </c>
@@ -1046,3567 +1067,3501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC9EA94-660F-4C9C-B2FF-A5D3568DEBBC}">
-  <dimension ref="A1:DU85"/>
+  <dimension ref="A1:DU84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="bottomRight" activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="7" customWidth="1"/>
+    <col min="3" max="6" width="10" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>92</v>
+    <row r="1" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="L2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="8">
         <v>2018</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="8">
         <f>N2+1</f>
         <v>2019</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="8">
         <f t="shared" ref="P2:Q2" si="0">O2+1</f>
         <v>2020</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="8">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="8">
         <v>2022</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="8">
         <f>R2+1</f>
         <v>2023</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="8">
         <f t="shared" ref="T2:Y2" si="1">S2+1</f>
         <v>2024</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="8">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="8">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="8">
         <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="8">
         <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="8">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="8">
         <v>2030</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="7">
         <v>124</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>70</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>100</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <v>116</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <v>132</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="7">
         <f>73+4</f>
         <v>77</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="7">
         <f>L7/L5</f>
         <v>74.666666666666671</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="7">
         <v>229</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="7">
         <v>258</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="7">
         <v>300</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="8">
         <v>350</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="8">
         <v>380</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="8">
         <v>449</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="8">
         <f>U9/U5</f>
         <v>420</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="7">
         <v>9186</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>3611</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>5567</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="7">
         <v>2633</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="7">
         <v>7088</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="7">
         <v>3900</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="7">
         <v>11292</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="7">
         <v>26240</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="7">
         <v>30674</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="7">
         <v>20040</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="7">
         <v>18899</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="7">
         <f>F7/F3</f>
         <v>45.83064516129032</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:K5" si="2">G7/G3</f>
         <v>56.657142857142858</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <f t="shared" si="2"/>
         <v>47.61</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <f t="shared" si="2"/>
         <v>51.086206896551722</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <f t="shared" si="2"/>
         <v>53.909090909090907</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="7">
         <f t="shared" si="2"/>
         <v>74.558441558441558</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="7">
         <v>75</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="7">
         <f t="shared" ref="O5:T5" si="3">O7/O3</f>
         <v>0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="7">
         <f t="shared" si="3"/>
         <v>44.085714285714289</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="7">
         <f t="shared" si="3"/>
         <v>57.734210526315792</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="7">
         <f t="shared" si="3"/>
         <v>48.483296213808465</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="8">
         <v>75</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="P6" s="4">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="P6" s="10">
         <f t="shared" ref="P6:U6" si="4">P3/O3-1</f>
         <v>0.1266375545851528</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="10">
         <f t="shared" si="4"/>
         <v>0.16279069767441867</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="10">
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="10">
         <f t="shared" si="4"/>
         <v>8.5714285714285632E-2</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="10">
         <f t="shared" si="4"/>
         <v>0.18157894736842106</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="10">
         <f t="shared" si="4"/>
         <v>-6.4587973273942056E-2</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>5683</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>3966</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>4761</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
         <v>5926</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>7116</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <f>K9-K8</f>
         <v>5741</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="7">
         <f>L9-L8</f>
         <v>5600</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="7">
         <v>15430</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="7">
         <v>21939</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="7">
         <v>21769</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>1554</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>1324</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>1482</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>1541</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>2147</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="7">
         <v>2001</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="7">
         <v>1800</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="R8" s="1">
+      <c r="P8" s="11"/>
+      <c r="R8" s="7">
         <v>5743</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="7">
         <v>5620</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="7">
         <v>6494</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="11">
         <f>SUM(C7:C8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <f t="shared" ref="D9:F9" si="5">SUM(D7:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <f t="shared" si="5"/>
         <v>7237</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="11">
         <f>SUM(G7:G8)</f>
         <v>5290</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <f t="shared" ref="H9:I9" si="6">SUM(H7:H8)</f>
         <v>6243</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="11">
         <f t="shared" si="6"/>
         <v>7467</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="11">
         <f>SUM(J7:J8)</f>
         <v>9263</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="11">
         <v>7742</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="11">
         <v>7400</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="11">
         <v>13979</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="11">
         <v>18611</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="11">
         <f>SUM(R7:R8)</f>
         <v>21173</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="11">
         <f t="shared" ref="S9:T9" si="7">SUM(S7:S8)</f>
         <v>27559</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="11">
         <f t="shared" si="7"/>
         <v>28263</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="11">
         <v>31500</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="11">
         <f>U9*1.11</f>
         <v>34965</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="11">
         <f t="shared" ref="W9:Z9" si="8">V9*1.11</f>
         <v>38811.15</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="11">
         <f t="shared" si="8"/>
         <v>43080.376500000006</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="11">
         <f t="shared" si="8"/>
         <v>47819.217915000008</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="11">
         <f t="shared" si="8"/>
         <v>53079.331885650012</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="R10" s="1">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="R10" s="7">
         <v>7582</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="7">
         <v>10151</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="7">
         <v>10407</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="R11" s="1">
+      <c r="P11" s="11"/>
+      <c r="R11" s="7">
         <v>2891</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="7">
         <v>3271</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="7">
         <v>3364</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <f t="shared" ref="C12" si="9">SUM(C10:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <f t="shared" ref="D12" si="10">SUM(D10:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <f t="shared" ref="E12" si="11">SUM(E10:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>3520</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>2593</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>3031</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>3674</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>4463</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <f t="shared" ref="K12" si="12">K9*(1-K30)</f>
         <v>3561.3199999999997</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="7">
         <f>L9*(1-L30)</f>
         <v>3589</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="R12" s="1">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="R12" s="7">
         <f>SUM(R10:R11)</f>
         <v>10473</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="7">
         <f t="shared" ref="S12:T12" si="13">SUM(S10:S11)</f>
         <v>13422</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="7">
         <f t="shared" si="13"/>
         <v>13771</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="7">
         <f t="shared" ref="U12:Z12" si="14">U9*(1-U30)</f>
         <v>14962.5</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="7">
         <f t="shared" si="14"/>
         <v>16333.025625</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="7">
         <f t="shared" si="14"/>
         <v>17819.436070406253</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="7">
         <f t="shared" si="14"/>
         <v>19430.06200122321</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="7">
         <f t="shared" si="14"/>
         <v>21173.591084953132</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="7">
         <f t="shared" si="14"/>
         <v>23059.036417577696</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <f>C9-C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <f t="shared" ref="D13:F13" si="15">D9-D12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <f t="shared" si="15"/>
         <v>3717</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <f>G9-G12</f>
         <v>2697</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <f t="shared" ref="H13:L13" si="16">H9-H12</f>
         <v>3212</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <f t="shared" si="16"/>
         <v>3793</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="7">
         <f>J9-J12</f>
         <v>4800</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <f t="shared" si="16"/>
         <v>4180.68</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="7">
         <f t="shared" si="16"/>
         <v>3811</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="7">
         <v>6978</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="7">
         <v>9809</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="7">
         <f>R9-R12</f>
         <v>10700</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="7">
         <f t="shared" ref="S13:T13" si="17">S9-S12</f>
         <v>14137</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="7">
         <f t="shared" si="17"/>
         <v>14492</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="7">
         <f t="shared" ref="U13" si="18">U9-U12</f>
         <v>16537.5</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="7">
         <f t="shared" ref="V13" si="19">V9-V12</f>
         <v>18631.974374999998</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="7">
         <f t="shared" ref="W13" si="20">W9-W12</f>
         <v>20991.713929593749</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="7">
         <f t="shared" ref="X13" si="21">X9-X12</f>
         <v>23650.314498776796</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="7">
         <f t="shared" ref="Y13:Z13" si="22">Y9-Y12</f>
         <v>26645.626830046876</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="7">
         <f t="shared" si="22"/>
         <v>30020.295468072316</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>1041</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>1032</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="7">
         <v>1100</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="7">
         <v>1055</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="7">
         <v>1116</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="7">
         <v>1161</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="7">
         <v>1200</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="7">
         <v>2201</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="7">
         <v>2547</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="7">
         <v>3253</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="7">
         <v>3980</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="7">
         <v>4303</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="7">
         <f>T14*(1+U26)</f>
         <v>4795.8284683154652</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="7">
         <f t="shared" ref="V14:Y14" si="23">U14*(1+V26)</f>
         <v>5323.3695998301664</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="7">
         <f t="shared" si="23"/>
         <v>5908.9402558114853</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="7">
         <f t="shared" si="23"/>
         <v>6558.9236839507494</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="7">
         <f t="shared" si="23"/>
         <v>7280.4052891853325</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="7">
         <f t="shared" ref="Z14" si="24">Y14*(1+Z26)</f>
         <v>8081.2498709957199</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>284</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>273</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="7">
         <v>277</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="7">
         <v>297</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="7">
         <v>318.39999999999998</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="7">
         <v>280</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="7">
         <v>300</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="7">
         <v>545</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="7">
         <v>726</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="7">
         <v>945</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="7">
         <v>1113</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="7">
         <v>1165</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="7">
         <f>T15*(1+U26)</f>
         <v>1298.4290415030252</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="7">
         <f t="shared" ref="V15:Y15" si="25">U15*(1+V26)</f>
         <v>1441.2562360683582</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="7">
         <f t="shared" si="25"/>
         <v>1599.7944220358777</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="7">
         <f t="shared" si="25"/>
         <v>1775.7718084598243</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="7">
         <f t="shared" si="25"/>
         <v>1971.1067073904053</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="7">
         <f t="shared" ref="Z15" si="26">Y15*(1+Z26)</f>
         <v>2187.9284452033498</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="7">
         <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <f t="shared" ref="D16:F16" si="27">SUM(D14:D15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <f t="shared" si="27"/>
         <v>1325</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <f t="shared" ref="G16:L16" si="28">SUM(G14:G15)</f>
         <v>1305</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="7">
         <f t="shared" si="28"/>
         <v>1377</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="7">
         <f t="shared" si="28"/>
         <v>1352</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="7">
         <f t="shared" si="28"/>
         <v>1434.4</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="7">
         <f t="shared" si="28"/>
         <v>1441</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="7">
         <f t="shared" si="28"/>
         <v>1500</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="7">
         <f>SUM(P14:P15)</f>
         <v>2746</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="7">
         <f>SUM(Q14:Q15)</f>
         <v>3273</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="7">
         <f>SUM(R14:R15)</f>
         <v>4198</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="7">
         <f t="shared" ref="S16:T16" si="29">SUM(S14:S15)</f>
         <v>5093</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="7">
         <f t="shared" si="29"/>
         <v>5468</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="7">
         <f t="shared" ref="U16" si="30">SUM(U14:U15)</f>
         <v>6094.2575098184907</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="7">
         <f t="shared" ref="V16" si="31">SUM(V14:V15)</f>
         <v>6764.6258358985251</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="7">
         <f t="shared" ref="W16" si="32">SUM(W14:W15)</f>
         <v>7508.7346778473629</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="7">
         <f t="shared" ref="X16" si="33">SUM(X14:X15)</f>
         <v>8334.6954924105739</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="7">
         <f t="shared" ref="Y16" si="34">SUM(Y14:Y15)</f>
         <v>9251.5119965757385</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="7">
         <f>SUM(Z14:Z15)</f>
         <v>10269.17831619907</v>
       </c>
     </row>
-    <row r="17" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1">
+    <row r="17" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <f>C13-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <f t="shared" ref="D17:F17" si="35">D13-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <f t="shared" si="35"/>
         <v>2392</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <f>G13-G16</f>
         <v>1392</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="7">
         <f t="shared" ref="H17:L17" si="36">H13-H16</f>
         <v>1835</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="7">
         <f t="shared" si="36"/>
         <v>2441</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="7">
         <f t="shared" si="36"/>
         <v>3365.6</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="7">
         <f t="shared" si="36"/>
         <v>2739.6800000000003</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="7">
         <f t="shared" si="36"/>
         <v>2311</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="7">
         <f>P13-P16</f>
         <v>4232</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="7">
         <f>Q13-Q16</f>
         <v>6536</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="7">
         <f>R13-R16</f>
         <v>6502</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="7">
         <f t="shared" ref="S17:T17" si="37">S13-S16</f>
         <v>9044</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="7">
         <f t="shared" si="37"/>
         <v>9024</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="7">
         <f t="shared" ref="U17" si="38">U13-U16</f>
         <v>10443.24249018151</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="7">
         <f t="shared" ref="V17" si="39">V13-V16</f>
         <v>11867.348539101473</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="7">
         <f t="shared" ref="W17" si="40">W13-W16</f>
         <v>13482.979251746387</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="7">
         <f t="shared" ref="X17" si="41">X13-X16</f>
         <v>15315.619006366222</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="7">
         <f t="shared" ref="Y17:Z17" si="42">Y13-Y16</f>
         <v>17394.11483347114</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="7">
         <f t="shared" si="42"/>
         <v>19751.117151873244</v>
       </c>
     </row>
-    <row r="18" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1">
+    <row r="18" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7">
         <v>5.2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>26</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="7">
         <v>-12</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="7">
         <v>-1</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="7">
         <v>6.3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="7">
         <v>49</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="7">
         <f>K36*(AC26/4)</f>
         <v>-3.7549999999999999</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="7">
         <v>-44.6</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="7">
         <v>41</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="7">
         <v>20</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="7">
         <f t="shared" ref="U18:Z18" si="43">T36*$AC$26</f>
         <v>53.6</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="7">
         <f t="shared" si="43"/>
         <v>232.52861707462057</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="7">
         <f t="shared" si="43"/>
         <v>433.7425722334176</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="7">
         <f t="shared" si="43"/>
         <v>664.96096498579664</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="7">
         <f t="shared" si="43"/>
         <v>930.2482846380351</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="7">
         <f t="shared" si="43"/>
         <v>1234.2091029205365</v>
       </c>
     </row>
-    <row r="19" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1">
+    <row r="19" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7">
         <f>C17+C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <f t="shared" ref="D19:F19" si="44">D17+D18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="7">
         <f t="shared" si="44"/>
         <v>2397.1999999999998</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <f>G17+G18</f>
         <v>1418</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="7">
         <f t="shared" ref="H19:L19" si="45">H17+H18</f>
         <v>1823</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="7">
         <f t="shared" si="45"/>
         <v>2440</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="7">
         <f>J17+J18</f>
         <v>3371.9</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="7">
         <f t="shared" si="45"/>
         <v>2788.6800000000003</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="7">
         <f t="shared" si="45"/>
         <v>2307.2449999999999</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="7">
         <f>P17+P18</f>
         <v>4232</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="7">
         <f>Q17+Q18</f>
         <v>6536</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="7">
         <f>R17+R18</f>
         <v>6457.4</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="7">
         <f t="shared" ref="S19:T19" si="46">S17+S18</f>
         <v>9085</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="7">
         <f t="shared" si="46"/>
         <v>9044</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="7">
         <f t="shared" ref="U19" si="47">U17+U18</f>
         <v>10496.842490181511</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="7">
         <f t="shared" ref="V19" si="48">V17+V18</f>
         <v>12099.877156176093</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="7">
         <f t="shared" ref="W19" si="49">W17+W18</f>
         <v>13916.721823979804</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="7">
         <f t="shared" ref="X19" si="50">X17+X18</f>
         <v>15980.579971352017</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="7">
         <f t="shared" ref="Y19:Z19" si="51">Y17+Y18</f>
         <v>18324.363118109173</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="7">
         <f t="shared" si="51"/>
         <v>20985.326254793781</v>
       </c>
     </row>
-    <row r="20" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1">
+    <row r="20" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7">
         <v>386</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>224</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="7">
         <v>292</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="7">
         <v>441</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="7">
         <v>723.8</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="7">
         <v>465</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="7">
         <f>L19*L28</f>
         <v>392.23165</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="7">
         <v>970</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="7">
         <v>1436</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="7">
         <v>1681</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="7">
         <f>U19*U28</f>
         <v>1784.4632233308569</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="7">
         <f t="shared" ref="V20:Z20" si="52">V19*V28</f>
         <v>2298.9766596734576</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="7">
         <f t="shared" si="52"/>
         <v>2644.1771465561628</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="7">
         <f t="shared" si="52"/>
         <v>3036.3101945568833</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="7">
         <f t="shared" si="52"/>
         <v>3481.6289924407429</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="7">
         <f t="shared" si="52"/>
         <v>3987.2119884108183</v>
       </c>
     </row>
-    <row r="21" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="1">
+    <row r="21" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7">
         <v>36.6</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>30.2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="7">
         <v>47</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="7">
         <v>77</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="7">
         <v>55.5</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="7">
         <f>J21*(1+K27)</f>
         <v>46.386807729677209</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="7">
         <v>50</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="7">
         <v>138</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="7">
         <v>191</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="7">
         <v>210</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="7">
         <f>T21*(1+U26)</f>
         <v>234.05158688037363</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="7">
         <f t="shared" ref="V21:Y21" si="53">U21*(1+V26)</f>
         <v>259.79726143721473</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="7">
         <f t="shared" si="53"/>
         <v>288.37496019530835</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="7">
         <f t="shared" si="53"/>
         <v>320.09620581679229</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="7">
         <f t="shared" si="53"/>
         <v>355.30678845663948</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="7">
         <f t="shared" ref="Z21" si="54">Y21*(1+Z26)</f>
         <v>394.39053518686984</v>
       </c>
     </row>
-    <row r="22" spans="2:116" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5">
+    <row r="22" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7">
         <f>C19-C20+C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <f t="shared" ref="D22:F22" si="55">D19-D20+D21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <f t="shared" si="55"/>
         <v>2047.7999999999997</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <f>G19-G20+G21</f>
         <v>1224.2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="7">
         <f t="shared" ref="H22:L22" si="56">H19-H20+H21</f>
         <v>1578</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="7">
         <f t="shared" si="56"/>
         <v>2076</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="7">
         <f>J19-J20+J21</f>
         <v>2703.6000000000004</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="7">
         <f t="shared" si="56"/>
         <v>2370.0668077296773</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="7">
         <f t="shared" si="56"/>
         <v>1965.0133499999999</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="7">
         <v>3554</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="7">
         <v>5883</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="7">
         <f>R19-R20+R21</f>
         <v>5625.4</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="7">
         <f t="shared" ref="S22:T22" si="57">S19-S20+S21</f>
         <v>7840</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="7">
         <f t="shared" si="57"/>
         <v>7573</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="7">
         <f t="shared" ref="U22" si="58">U19-U20+U21</f>
         <v>8946.430853731028</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="7">
         <f t="shared" ref="V22" si="59">V19-V20+V21</f>
         <v>10060.697757939852</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="7">
         <f t="shared" ref="W22" si="60">W19-W20+W21</f>
         <v>11560.919637618948</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="7">
         <f t="shared" ref="X22" si="61">X19-X20+X21</f>
         <v>13264.365982611926</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="7">
         <f t="shared" ref="Y22:Z22" si="62">Y19-Y20+Y21</f>
         <v>15198.040914125069</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="7">
         <f t="shared" si="62"/>
         <v>17392.504801569834</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="7">
         <f t="shared" ref="AA22:BF22" si="63">Z22*(1+$AC$27)</f>
         <v>17566.429849585533</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" s="7">
         <f t="shared" si="63"/>
         <v>17742.094148081389</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" s="7">
         <f t="shared" si="63"/>
         <v>17919.515089562203</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" s="7">
         <f t="shared" si="63"/>
         <v>18098.710240457825</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" s="7">
         <f t="shared" si="63"/>
         <v>18279.697342862404</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" s="7">
         <f t="shared" si="63"/>
         <v>18462.494316291028</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AG22" s="7">
         <f t="shared" si="63"/>
         <v>18647.119259453939</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AH22" s="7">
         <f t="shared" si="63"/>
         <v>18833.59045204848</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AI22" s="7">
         <f t="shared" si="63"/>
         <v>19021.926356568965</v>
       </c>
-      <c r="AJ22" s="5">
+      <c r="AJ22" s="7">
         <f t="shared" si="63"/>
         <v>19212.145620134655</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AK22" s="7">
         <f t="shared" si="63"/>
         <v>19404.267076336004</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AL22" s="7">
         <f t="shared" si="63"/>
         <v>19598.309747099363</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AM22" s="7">
         <f t="shared" si="63"/>
         <v>19794.292844570358</v>
       </c>
-      <c r="AN22" s="5">
+      <c r="AN22" s="7">
         <f t="shared" si="63"/>
         <v>19992.235773016062</v>
       </c>
-      <c r="AO22" s="5">
+      <c r="AO22" s="7">
         <f t="shared" si="63"/>
         <v>20192.158130746222</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AP22" s="7">
         <f t="shared" si="63"/>
         <v>20394.079712053684</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AQ22" s="7">
         <f t="shared" si="63"/>
         <v>20598.020509174221</v>
       </c>
-      <c r="AR22" s="5">
+      <c r="AR22" s="7">
         <f t="shared" si="63"/>
         <v>20804.000714265963</v>
       </c>
-      <c r="AS22" s="5">
+      <c r="AS22" s="7">
         <f t="shared" si="63"/>
         <v>21012.040721408623</v>
       </c>
-      <c r="AT22" s="5">
+      <c r="AT22" s="7">
         <f t="shared" si="63"/>
         <v>21222.161128622709</v>
       </c>
-      <c r="AU22" s="5">
+      <c r="AU22" s="7">
         <f t="shared" si="63"/>
         <v>21434.382739908935</v>
       </c>
-      <c r="AV22" s="5">
+      <c r="AV22" s="7">
         <f t="shared" si="63"/>
         <v>21648.726567308026</v>
       </c>
-      <c r="AW22" s="5">
+      <c r="AW22" s="7">
         <f t="shared" si="63"/>
         <v>21865.213832981106</v>
       </c>
-      <c r="AX22" s="5">
+      <c r="AX22" s="7">
         <f t="shared" si="63"/>
         <v>22083.865971310915</v>
       </c>
-      <c r="AY22" s="5">
+      <c r="AY22" s="7">
         <f t="shared" si="63"/>
         <v>22304.704631024026</v>
       </c>
-      <c r="AZ22" s="5">
+      <c r="AZ22" s="7">
         <f t="shared" si="63"/>
         <v>22527.751677334265</v>
       </c>
-      <c r="BA22" s="5">
+      <c r="BA22" s="7">
         <f t="shared" si="63"/>
         <v>22753.029194107607</v>
       </c>
-      <c r="BB22" s="5">
+      <c r="BB22" s="7">
         <f t="shared" si="63"/>
         <v>22980.559486048682</v>
       </c>
-      <c r="BC22" s="5">
+      <c r="BC22" s="7">
         <f t="shared" si="63"/>
         <v>23210.365080909171</v>
       </c>
-      <c r="BD22" s="5">
+      <c r="BD22" s="7">
         <f t="shared" si="63"/>
         <v>23442.468731718262</v>
       </c>
-      <c r="BE22" s="5">
+      <c r="BE22" s="7">
         <f t="shared" si="63"/>
         <v>23676.893419035445</v>
       </c>
-      <c r="BF22" s="5">
+      <c r="BF22" s="7">
         <f t="shared" si="63"/>
         <v>23913.662353225798</v>
       </c>
-      <c r="BG22" s="5">
+      <c r="BG22" s="7">
         <f t="shared" ref="BG22:CL22" si="64">BF22*(1+$AC$27)</f>
         <v>24152.798976758055</v>
       </c>
-      <c r="BH22" s="5">
+      <c r="BH22" s="7">
         <f t="shared" si="64"/>
         <v>24394.326966525634</v>
       </c>
-      <c r="BI22" s="5">
+      <c r="BI22" s="7">
         <f t="shared" si="64"/>
         <v>24638.270236190889</v>
       </c>
-      <c r="BJ22" s="5">
+      <c r="BJ22" s="7">
         <f t="shared" si="64"/>
         <v>24884.652938552797</v>
       </c>
-      <c r="BK22" s="5">
+      <c r="BK22" s="7">
         <f t="shared" si="64"/>
         <v>25133.499467938327</v>
       </c>
-      <c r="BL22" s="5">
+      <c r="BL22" s="7">
         <f t="shared" si="64"/>
         <v>25384.83446261771</v>
       </c>
-      <c r="BM22" s="5">
+      <c r="BM22" s="7">
         <f t="shared" si="64"/>
         <v>25638.682807243888</v>
       </c>
-      <c r="BN22" s="5">
+      <c r="BN22" s="7">
         <f t="shared" si="64"/>
         <v>25895.069635316326</v>
       </c>
-      <c r="BO22" s="5">
+      <c r="BO22" s="7">
         <f t="shared" si="64"/>
         <v>26154.02033166949</v>
       </c>
-      <c r="BP22" s="5">
+      <c r="BP22" s="7">
         <f t="shared" si="64"/>
         <v>26415.560534986183</v>
       </c>
-      <c r="BQ22" s="5">
+      <c r="BQ22" s="7">
         <f t="shared" si="64"/>
         <v>26679.716140336044</v>
       </c>
-      <c r="BR22" s="5">
+      <c r="BR22" s="7">
         <f t="shared" si="64"/>
         <v>26946.513301739404</v>
       </c>
-      <c r="BS22" s="5">
+      <c r="BS22" s="7">
         <f t="shared" si="64"/>
         <v>27215.978434756798</v>
       </c>
-      <c r="BT22" s="5">
+      <c r="BT22" s="7">
         <f t="shared" si="64"/>
         <v>27488.138219104367</v>
       </c>
-      <c r="BU22" s="5">
+      <c r="BU22" s="7">
         <f t="shared" si="64"/>
         <v>27763.019601295411</v>
       </c>
-      <c r="BV22" s="5">
+      <c r="BV22" s="7">
         <f t="shared" si="64"/>
         <v>28040.649797308364</v>
       </c>
-      <c r="BW22" s="5">
+      <c r="BW22" s="7">
         <f t="shared" si="64"/>
         <v>28321.056295281447</v>
       </c>
-      <c r="BX22" s="5">
+      <c r="BX22" s="7">
         <f t="shared" si="64"/>
         <v>28604.266858234263</v>
       </c>
-      <c r="BY22" s="5">
+      <c r="BY22" s="7">
         <f t="shared" si="64"/>
         <v>28890.309526816607</v>
       </c>
-      <c r="BZ22" s="5">
+      <c r="BZ22" s="7">
         <f t="shared" si="64"/>
         <v>29179.212622084775</v>
       </c>
-      <c r="CA22" s="5">
+      <c r="CA22" s="7">
         <f t="shared" si="64"/>
         <v>29471.004748305622</v>
       </c>
-      <c r="CB22" s="5">
+      <c r="CB22" s="7">
         <f t="shared" si="64"/>
         <v>29765.714795788677</v>
       </c>
-      <c r="CC22" s="5">
+      <c r="CC22" s="7">
         <f t="shared" si="64"/>
         <v>30063.371943746566</v>
       </c>
-      <c r="CD22" s="5">
+      <c r="CD22" s="7">
         <f t="shared" si="64"/>
         <v>30364.005663184031</v>
       </c>
-      <c r="CE22" s="5">
+      <c r="CE22" s="7">
         <f t="shared" si="64"/>
         <v>30667.645719815871</v>
       </c>
-      <c r="CF22" s="5">
+      <c r="CF22" s="7">
         <f t="shared" si="64"/>
         <v>30974.32217701403</v>
       </c>
-      <c r="CG22" s="5">
+      <c r="CG22" s="7">
         <f t="shared" si="64"/>
         <v>31284.065398784169</v>
       </c>
-      <c r="CH22" s="5">
+      <c r="CH22" s="7">
         <f t="shared" si="64"/>
         <v>31596.90605277201</v>
       </c>
-      <c r="CI22" s="5">
+      <c r="CI22" s="7">
         <f t="shared" si="64"/>
         <v>31912.875113299731</v>
       </c>
-      <c r="CJ22" s="5">
+      <c r="CJ22" s="7">
         <f t="shared" si="64"/>
         <v>32232.003864432729</v>
       </c>
-      <c r="CK22" s="5">
+      <c r="CK22" s="7">
         <f t="shared" si="64"/>
         <v>32554.323903077056</v>
       </c>
-      <c r="CL22" s="5">
+      <c r="CL22" s="7">
         <f t="shared" si="64"/>
         <v>32879.867142107825</v>
       </c>
-      <c r="CM22" s="5">
+      <c r="CM22" s="7">
         <f t="shared" ref="CM22:DL22" si="65">CL22*(1+$AC$27)</f>
         <v>33208.665813528904</v>
       </c>
-      <c r="CN22" s="5">
+      <c r="CN22" s="7">
         <f t="shared" si="65"/>
         <v>33540.752471664193</v>
       </c>
-      <c r="CO22" s="5">
+      <c r="CO22" s="7">
         <f t="shared" si="65"/>
         <v>33876.159996380833</v>
       </c>
-      <c r="CP22" s="5">
+      <c r="CP22" s="7">
         <f t="shared" si="65"/>
         <v>34214.92159634464</v>
       </c>
-      <c r="CQ22" s="5">
+      <c r="CQ22" s="7">
         <f t="shared" si="65"/>
         <v>34557.070812308084</v>
       </c>
-      <c r="CR22" s="5">
+      <c r="CR22" s="7">
         <f t="shared" si="65"/>
         <v>34902.641520431163</v>
       </c>
-      <c r="CS22" s="5">
+      <c r="CS22" s="7">
         <f t="shared" si="65"/>
         <v>35251.667935635473</v>
       </c>
-      <c r="CT22" s="5">
+      <c r="CT22" s="7">
         <f t="shared" si="65"/>
         <v>35604.184614991827</v>
       </c>
-      <c r="CU22" s="5">
+      <c r="CU22" s="7">
         <f t="shared" si="65"/>
         <v>35960.226461141749</v>
       </c>
-      <c r="CV22" s="5">
+      <c r="CV22" s="7">
         <f t="shared" si="65"/>
         <v>36319.828725753163</v>
       </c>
-      <c r="CW22" s="5">
+      <c r="CW22" s="7">
         <f t="shared" si="65"/>
         <v>36683.027013010695</v>
       </c>
-      <c r="CX22" s="5">
+      <c r="CX22" s="7">
         <f t="shared" si="65"/>
         <v>37049.857283140802</v>
       </c>
-      <c r="CY22" s="5">
+      <c r="CY22" s="7">
         <f t="shared" si="65"/>
         <v>37420.355855972208</v>
       </c>
-      <c r="CZ22" s="5">
+      <c r="CZ22" s="7">
         <f t="shared" si="65"/>
         <v>37794.559414531934</v>
       </c>
-      <c r="DA22" s="5">
+      <c r="DA22" s="7">
         <f t="shared" si="65"/>
         <v>38172.505008677253</v>
       </c>
-      <c r="DB22" s="5">
+      <c r="DB22" s="7">
         <f t="shared" si="65"/>
         <v>38554.230058764027</v>
       </c>
-      <c r="DC22" s="5">
+      <c r="DC22" s="7">
         <f t="shared" si="65"/>
         <v>38939.772359351671</v>
       </c>
-      <c r="DD22" s="5">
+      <c r="DD22" s="7">
         <f t="shared" si="65"/>
         <v>39329.170082945187</v>
       </c>
-      <c r="DE22" s="5">
+      <c r="DE22" s="7">
         <f t="shared" si="65"/>
         <v>39722.461783774641</v>
       </c>
-      <c r="DF22" s="5">
+      <c r="DF22" s="7">
         <f t="shared" si="65"/>
         <v>40119.686401612387</v>
       </c>
-      <c r="DG22" s="5">
+      <c r="DG22" s="7">
         <f t="shared" si="65"/>
         <v>40520.883265628509</v>
       </c>
-      <c r="DH22" s="5">
+      <c r="DH22" s="7">
         <f t="shared" si="65"/>
         <v>40926.092098284797</v>
       </c>
-      <c r="DI22" s="5">
+      <c r="DI22" s="7">
         <f t="shared" si="65"/>
         <v>41335.353019267648</v>
       </c>
-      <c r="DJ22" s="5">
+      <c r="DJ22" s="7">
         <f t="shared" si="65"/>
         <v>41748.706549460323</v>
       </c>
-      <c r="DK22" s="5">
+      <c r="DK22" s="7">
         <f t="shared" si="65"/>
         <v>42166.193614954929</v>
       </c>
-      <c r="DL22" s="5">
+      <c r="DL22" s="7">
         <f t="shared" si="65"/>
         <v>42587.855551104476</v>
       </c>
     </row>
-    <row r="23" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="7">
         <v>394</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <v>394</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="7">
         <v>393</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="7">
         <v>394</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="7">
         <v>394</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="7">
         <v>392</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="7">
         <v>392</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="7">
         <v>396</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="7">
         <v>394</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="7">
         <v>393.6</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="7">
         <v>393.6</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="7">
         <v>393.6</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="7">
         <v>393.6</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="7">
         <v>393.6</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23" s="7">
         <v>393.6</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23" s="7">
         <v>393.6</v>
       </c>
     </row>
-    <row r="24" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="e">
+    <row r="24" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9" t="e">
         <f>C22/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="3" t="e">
+      <c r="D24" s="9" t="e">
         <f t="shared" ref="D24:F24" si="66">D22/D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="3" t="e">
+      <c r="E24" s="9" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="9">
         <f t="shared" si="66"/>
         <v>5.1974619289340094</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="9">
         <f>G22/G23</f>
         <v>3.1071065989847715</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="9">
         <f t="shared" ref="H24:L24" si="67">H22/H23</f>
         <v>4.0152671755725189</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="9">
         <f t="shared" si="67"/>
         <v>5.2690355329949234</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="9">
         <f t="shared" si="67"/>
         <v>6.8619289340101535</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="9">
         <f t="shared" si="67"/>
         <v>6.0460887952287683</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="9">
         <f t="shared" si="67"/>
         <v>5.0127891581632653</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3" t="e">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9" t="e">
         <f>P22/P23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="3" t="e">
+      <c r="Q24" s="9" t="e">
         <f>Q22/Q23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="9">
         <f>R22/R23</f>
         <v>14.205555555555554</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="9">
         <f t="shared" ref="S24:T24" si="68">S22/S23</f>
         <v>19.898477157360407</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="9">
         <f t="shared" si="68"/>
         <v>19.240345528455283</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="9">
         <f t="shared" ref="U24" si="69">U22/U23</f>
         <v>22.729753185292246</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="9">
         <f t="shared" ref="V24" si="70">V22/V23</f>
         <v>25.560715848424419</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="9">
         <f t="shared" ref="W24" si="71">W22/W23</f>
         <v>29.37225517687741</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="9">
         <f t="shared" ref="X24" si="72">X22/X23</f>
         <v>33.700116825741681</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="9">
         <f t="shared" ref="Y24:Z24" si="73">Y22/Y23</f>
         <v>38.612908826537264</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="9">
         <f t="shared" si="73"/>
         <v>44.188274394232302</v>
       </c>
     </row>
-    <row r="25" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="2:116" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="6" t="e">
+    <row r="25" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+    </row>
+    <row r="26" spans="1:116" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="12" t="e">
         <f>G9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="6" t="e">
+      <c r="H26" s="12" t="e">
         <f>H9/D9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="6" t="e">
+      <c r="I26" s="12" t="e">
         <f>I9/E9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="12">
         <f>J9/F9-1</f>
         <v>0.27995025563078624</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="12">
         <f>K9/G9-1</f>
         <v>0.46351606805293</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6">
+      <c r="L26" s="12"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12">
         <f>Q9/P9-1</f>
         <v>0.33135417411832035</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="12">
         <f>R9/Q9-1</f>
         <v>0.1376605233464081</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="12">
         <f>S9/R9-1</f>
         <v>0.30161054172767199</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="12">
         <f>T9/S9-1</f>
         <v>2.5545193947530853E-2</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="12">
         <f t="shared" ref="U26:Y26" si="74">U9/T9-1</f>
         <v>0.11453136609701731</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="12">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="12">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="12">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="12">
         <f t="shared" si="74"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="12">
         <f t="shared" ref="Z26" si="75">Z9/Y9-1</f>
         <v>0.1100000000000001</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC26" s="12">
+      <c r="AB26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC26" s="10">
         <v>0.02</v>
       </c>
-      <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="2:116" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="6" t="e">
+      <c r="AD26" s="7"/>
+    </row>
+    <row r="27" spans="1:116" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="10" t="e">
         <f>C9/B9-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="6" t="e">
+      <c r="D27" s="10" t="e">
         <f t="shared" ref="D27:G27" si="76">D9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="6" t="e">
+      <c r="E27" s="10" t="e">
         <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="6" t="e">
+      <c r="F27" s="10" t="e">
         <f t="shared" si="76"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="10">
         <f t="shared" si="76"/>
         <v>-0.26903413016443278</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="10">
         <f>H9/G9-1</f>
         <v>0.18015122873345946</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="10">
         <f>I9/H9-1</f>
         <v>0.19605958673714552</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="10">
         <f>J9/I9-1</f>
         <v>0.24052497656354621</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="10">
         <f>K9/J9-1</f>
         <v>-0.16420166252833857</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AB27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC27" s="12">
+      <c r="L27" s="10"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AB27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC27" s="10">
         <v>0.01</v>
       </c>
-      <c r="AD27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4" t="e">
+      <c r="AD27" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10" t="e">
         <f>C20/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="4" t="e">
+      <c r="D28" s="10" t="e">
         <f t="shared" ref="D28:F28" si="77">D20/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="4" t="e">
+      <c r="E28" s="10" t="e">
         <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="10">
         <f t="shared" si="77"/>
         <v>0.16102119138995497</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="10">
         <f>G20/G19</f>
         <v>0.15796897038081806</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="10">
         <f>H20/H19</f>
         <v>0.16017553483269337</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="10">
         <f>I20/I19</f>
         <v>0.18073770491803279</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="10">
         <f>J20/J19</f>
         <v>0.21465642516088851</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="10">
         <f>K20/K19</f>
         <v>0.16674555703773827</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="10">
         <v>0.17</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4">
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10">
         <f>P20/P19</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="10">
         <f>Q20/Q19</f>
         <v>0</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="10">
         <f>R20/R19</f>
         <v>0.15021525691454765</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="10">
         <f t="shared" ref="S28:T28" si="78">S20/S19</f>
         <v>0.15806274078150798</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="10">
         <f t="shared" si="78"/>
         <v>0.18586908447589562</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="10">
         <v>0.17</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V28" s="10">
         <v>0.19</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="10">
         <v>0.19</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28" s="10">
         <v>0.19</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Y28" s="10">
         <v>0.19</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="Z28" s="10">
         <v>0.19</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AB28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="AB29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC28" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="AB29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC29" s="1">
+      <c r="AC29" s="7">
         <f>NPV(AC28,U34:XFD34)+Main!O5-Main!O6</f>
-        <v>271056.12470466632</v>
-      </c>
-    </row>
-    <row r="30" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="e">
+        <v>256357.27795864001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="10" t="e">
         <f>C13/C9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="4" t="e">
+      <c r="D30" s="10" t="e">
         <f t="shared" ref="D30:F30" si="79">D13/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="4" t="e">
+      <c r="E30" s="10" t="e">
         <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="10">
         <f t="shared" si="79"/>
         <v>0.51361061213209891</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="10">
         <f>G13/G9</f>
         <v>0.50982986767485827</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="10">
         <f>H13/H9</f>
         <v>0.51449623578407822</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="10">
         <f>I13/I9</f>
         <v>0.50796839426811302</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="10">
         <f>J13/J9</f>
         <v>0.51819065097700534</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="10">
         <v>0.54</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="10">
         <v>0.51500000000000001</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4">
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10">
         <f>P13/P9</f>
         <v>0.49917733743472353</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="10">
         <f>Q13/Q9</f>
         <v>0.52705389285906179</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="10">
         <f>R13/R9</f>
         <v>0.50536060076512535</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="10">
         <f t="shared" ref="S30:T30" si="80">S13/S9</f>
         <v>0.51297216880148044</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="10">
         <f t="shared" si="80"/>
         <v>0.51275519230088806</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="10">
         <v>0.52500000000000002</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30" s="10">
         <f>U30*1.015</f>
         <v>0.53287499999999999</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="10">
         <f t="shared" ref="W30:Z30" si="81">V30*1.015</f>
         <v>0.54086812499999992</v>
       </c>
-      <c r="X30" s="4">
+      <c r="X30" s="10">
         <f t="shared" si="81"/>
         <v>0.54898114687499988</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Y30" s="10">
         <f t="shared" si="81"/>
         <v>0.55721586407812485</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="Z30" s="10">
         <f t="shared" si="81"/>
         <v>0.5655741020392967</v>
       </c>
-      <c r="AB30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC30" s="8">
+      <c r="AB30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC30" s="14">
         <f>AC29/Main!O3</f>
-        <v>690.58885275074226</v>
-      </c>
-    </row>
-    <row r="31" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="R31" s="4">
-        <f>R32/R9</f>
-        <v>0.40084069333585226</v>
-      </c>
-      <c r="S31" s="4">
-        <f>S32/S9</f>
-        <v>0.19750353786421859</v>
-      </c>
-      <c r="T31" s="4">
-        <f>T32/T9</f>
-        <v>0.3950748328202951</v>
-      </c>
-      <c r="U31" s="4">
-        <f>T31*1.06</f>
-        <v>0.4187793227895128</v>
-      </c>
-      <c r="V31" s="4">
-        <f t="shared" ref="V31:Z31" si="82">U31*1.06</f>
-        <v>0.4439060821568836</v>
-      </c>
-      <c r="W31" s="4">
+        <v>653.13956167806373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AB31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC31" s="9">
+        <f>AC30*AD28</f>
+        <v>744.57910031299264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R32" s="7">
+        <v>8487</v>
+      </c>
+      <c r="S32" s="7">
+        <v>5443</v>
+      </c>
+      <c r="T32" s="7">
+        <v>11166</v>
+      </c>
+      <c r="U32" s="7">
+        <f>U22*1.6</f>
+        <v>14314.289365969646</v>
+      </c>
+      <c r="V32" s="7">
+        <f t="shared" ref="V32:Z32" si="82">V22*1.6</f>
+        <v>16097.116412703763</v>
+      </c>
+      <c r="W32" s="7">
         <f t="shared" si="82"/>
-        <v>0.47054044708629661</v>
-      </c>
-      <c r="X31" s="4">
+        <v>18497.471420190319</v>
+      </c>
+      <c r="X32" s="7">
         <f t="shared" si="82"/>
-        <v>0.49877287391147446</v>
-      </c>
-      <c r="Y31" s="4">
+        <v>21222.985572179081</v>
+      </c>
+      <c r="Y32" s="7">
         <f t="shared" si="82"/>
-        <v>0.52869924634616294</v>
-      </c>
-      <c r="Z31" s="4">
+        <v>24316.865462600112</v>
+      </c>
+      <c r="Z32" s="7">
         <f t="shared" si="82"/>
-        <v>0.56042120112693272</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC31" s="3">
-        <f>AC30*AD28</f>
-        <v>787.27129213584612</v>
-      </c>
-    </row>
-    <row r="32" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+        <v>27828.007682511736</v>
+      </c>
+      <c r="AB32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" s="10">
+        <f>AC31/Main!O2-1</f>
+        <v>-3.2408295676136234E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R32" s="1">
-        <v>8487</v>
-      </c>
-      <c r="S32" s="1">
-        <v>5443</v>
-      </c>
-      <c r="T32" s="1">
-        <v>11166</v>
-      </c>
-      <c r="U32" s="1">
-        <f>U9*U31</f>
-        <v>13191.548667869652</v>
-      </c>
-      <c r="V32" s="1">
-        <f t="shared" ref="V32:Z32" si="83">V9*V31</f>
-        <v>15521.176162615435</v>
-      </c>
-      <c r="W32" s="1">
-        <f t="shared" si="83"/>
-        <v>18262.21587293332</v>
-      </c>
-      <c r="X32" s="1">
-        <f t="shared" si="83"/>
-        <v>21487.323196093352</v>
-      </c>
-      <c r="Y32" s="1">
-        <f t="shared" si="83"/>
-        <v>25281.984472523436</v>
-      </c>
-      <c r="Z32" s="1">
-        <f t="shared" si="83"/>
-        <v>29746.782930371079</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC32" s="4">
-        <f>AC31/Main!O2-1</f>
-        <v>5.3910698977036375E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R33" s="1">
+      <c r="R33" s="7">
         <v>1282</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="7">
         <v>2155</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33" s="7">
         <v>2067</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="7">
         <f>U9*0.07</f>
         <v>2205</v>
       </c>
-      <c r="V33" s="1">
-        <f t="shared" ref="V33:Z33" si="84">V9*0.07</f>
+      <c r="V33" s="7">
+        <f t="shared" ref="V33:Z33" si="83">V9*0.07</f>
         <v>2447.5500000000002</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33" s="7">
+        <f t="shared" si="83"/>
+        <v>2716.7805000000003</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" si="83"/>
+        <v>3015.6263550000008</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="83"/>
+        <v>3347.3452540500011</v>
+      </c>
+      <c r="Z33" s="7">
+        <f t="shared" si="83"/>
+        <v>3715.5532319955014</v>
+      </c>
+    </row>
+    <row r="34" spans="2:125" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="11">
+        <f>C32-C33</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" ref="D34:K34" si="84">D32-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
         <f t="shared" si="84"/>
-        <v>2716.7805000000003</v>
-      </c>
-      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
         <f t="shared" si="84"/>
-        <v>3015.6263550000008</v>
-      </c>
-      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
         <f t="shared" si="84"/>
-        <v>3347.3452540500011</v>
-      </c>
-      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
         <f t="shared" si="84"/>
-        <v>3715.5532319955014</v>
-      </c>
-    </row>
-    <row r="34" spans="2:125" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="5">
-        <f>C32-C33</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <f t="shared" ref="D34:K34" si="85">D32-D33</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
         <v>2400</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="11">
         <v>3600</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="11">
         <f>R32-R33</f>
         <v>7205</v>
       </c>
-      <c r="S34" s="5">
-        <f t="shared" ref="S34:Z34" si="86">S32-S33</f>
+      <c r="S34" s="11">
+        <f t="shared" ref="S34:Z34" si="85">S32-S33</f>
         <v>3288</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="11">
+        <f t="shared" si="85"/>
+        <v>9099</v>
+      </c>
+      <c r="U34" s="11">
+        <f t="shared" si="85"/>
+        <v>12109.289365969646</v>
+      </c>
+      <c r="V34" s="11">
+        <f t="shared" si="85"/>
+        <v>13649.566412703763</v>
+      </c>
+      <c r="W34" s="11">
+        <f t="shared" si="85"/>
+        <v>15780.690920190318</v>
+      </c>
+      <c r="X34" s="11">
+        <f t="shared" si="85"/>
+        <v>18207.359217179081</v>
+      </c>
+      <c r="Y34" s="11">
+        <f t="shared" si="85"/>
+        <v>20969.520208550111</v>
+      </c>
+      <c r="Z34" s="11">
+        <f t="shared" si="85"/>
+        <v>24112.454450516234</v>
+      </c>
+      <c r="AA34" s="11">
+        <f t="shared" ref="AA34:BF34" si="86">Z34*(1+$AC$27)</f>
+        <v>24353.578995021395</v>
+      </c>
+      <c r="AB34" s="11">
         <f t="shared" si="86"/>
-        <v>9099</v>
-      </c>
-      <c r="U34" s="5">
+        <v>24597.114784971607</v>
+      </c>
+      <c r="AC34" s="11">
         <f t="shared" si="86"/>
-        <v>10986.548667869652</v>
-      </c>
-      <c r="V34" s="5">
+        <v>24843.085932821323</v>
+      </c>
+      <c r="AD34" s="11">
         <f t="shared" si="86"/>
-        <v>13073.626162615434</v>
-      </c>
-      <c r="W34" s="5">
+        <v>25091.516792149538</v>
+      </c>
+      <c r="AE34" s="11">
         <f t="shared" si="86"/>
-        <v>15545.43537293332</v>
-      </c>
-      <c r="X34" s="5">
+        <v>25342.431960071033</v>
+      </c>
+      <c r="AF34" s="11">
         <f t="shared" si="86"/>
-        <v>18471.696841093351</v>
-      </c>
-      <c r="Y34" s="5">
+        <v>25595.856279671745</v>
+      </c>
+      <c r="AG34" s="11">
         <f t="shared" si="86"/>
-        <v>21934.639218473436</v>
-      </c>
-      <c r="Z34" s="5">
+        <v>25851.814842468462</v>
+      </c>
+      <c r="AH34" s="11">
         <f t="shared" si="86"/>
-        <v>26031.229698375577</v>
-      </c>
-      <c r="AA34" s="5">
-        <f t="shared" ref="AA34:BF34" si="87">Z34*(1+$AC$27)</f>
-        <v>26291.541995359334</v>
-      </c>
-      <c r="AB34" s="5">
+        <v>26110.332990893148</v>
+      </c>
+      <c r="AI34" s="11">
+        <f t="shared" si="86"/>
+        <v>26371.43632080208</v>
+      </c>
+      <c r="AJ34" s="11">
+        <f t="shared" si="86"/>
+        <v>26635.150684010103</v>
+      </c>
+      <c r="AK34" s="11">
+        <f t="shared" si="86"/>
+        <v>26901.502190850206</v>
+      </c>
+      <c r="AL34" s="11">
+        <f t="shared" si="86"/>
+        <v>27170.517212758707</v>
+      </c>
+      <c r="AM34" s="11">
+        <f t="shared" si="86"/>
+        <v>27442.222384886292</v>
+      </c>
+      <c r="AN34" s="11">
+        <f t="shared" si="86"/>
+        <v>27716.644608735154</v>
+      </c>
+      <c r="AO34" s="11">
+        <f t="shared" si="86"/>
+        <v>27993.811054822505</v>
+      </c>
+      <c r="AP34" s="11">
+        <f t="shared" si="86"/>
+        <v>28273.749165370729</v>
+      </c>
+      <c r="AQ34" s="11">
+        <f t="shared" si="86"/>
+        <v>28556.486657024438</v>
+      </c>
+      <c r="AR34" s="11">
+        <f t="shared" si="86"/>
+        <v>28842.05152359468</v>
+      </c>
+      <c r="AS34" s="11">
+        <f t="shared" si="86"/>
+        <v>29130.472038830627</v>
+      </c>
+      <c r="AT34" s="11">
+        <f t="shared" si="86"/>
+        <v>29421.776759218934</v>
+      </c>
+      <c r="AU34" s="11">
+        <f t="shared" si="86"/>
+        <v>29715.994526811122</v>
+      </c>
+      <c r="AV34" s="11">
+        <f t="shared" si="86"/>
+        <v>30013.154472079234</v>
+      </c>
+      <c r="AW34" s="11">
+        <f t="shared" si="86"/>
+        <v>30313.286016800026</v>
+      </c>
+      <c r="AX34" s="11">
+        <f t="shared" si="86"/>
+        <v>30616.418876968026</v>
+      </c>
+      <c r="AY34" s="11">
+        <f t="shared" si="86"/>
+        <v>30922.583065737705</v>
+      </c>
+      <c r="AZ34" s="11">
+        <f t="shared" si="86"/>
+        <v>31231.808896395083</v>
+      </c>
+      <c r="BA34" s="11">
+        <f t="shared" si="86"/>
+        <v>31544.126985359035</v>
+      </c>
+      <c r="BB34" s="11">
+        <f t="shared" si="86"/>
+        <v>31859.568255212624</v>
+      </c>
+      <c r="BC34" s="11">
+        <f t="shared" si="86"/>
+        <v>32178.163937764752</v>
+      </c>
+      <c r="BD34" s="11">
+        <f t="shared" si="86"/>
+        <v>32499.9455771424</v>
+      </c>
+      <c r="BE34" s="11">
+        <f t="shared" si="86"/>
+        <v>32824.945032913827</v>
+      </c>
+      <c r="BF34" s="11">
+        <f t="shared" si="86"/>
+        <v>33153.194483242965</v>
+      </c>
+      <c r="BG34" s="11">
+        <f t="shared" ref="BG34:CL34" si="87">BF34*(1+$AC$27)</f>
+        <v>33484.726428075395</v>
+      </c>
+      <c r="BH34" s="11">
         <f t="shared" si="87"/>
-        <v>26554.457415312929</v>
-      </c>
-      <c r="AC34" s="5">
+        <v>33819.573692356149</v>
+      </c>
+      <c r="BI34" s="11">
         <f t="shared" si="87"/>
-        <v>26820.001989466058</v>
-      </c>
-      <c r="AD34" s="5">
+        <v>34157.76942927971</v>
+      </c>
+      <c r="BJ34" s="11">
         <f t="shared" si="87"/>
-        <v>27088.202009360721</v>
-      </c>
-      <c r="AE34" s="5">
+        <v>34499.347123572508</v>
+      </c>
+      <c r="BK34" s="11">
         <f t="shared" si="87"/>
-        <v>27359.084029454327</v>
-      </c>
-      <c r="AF34" s="5">
+        <v>34844.340594808236</v>
+      </c>
+      <c r="BL34" s="11">
         <f t="shared" si="87"/>
-        <v>27632.674869748869</v>
-      </c>
-      <c r="AG34" s="5">
+        <v>35192.784000756321</v>
+      </c>
+      <c r="BM34" s="11">
         <f t="shared" si="87"/>
-        <v>27909.001618446357</v>
-      </c>
-      <c r="AH34" s="5">
+        <v>35544.711840763885</v>
+      </c>
+      <c r="BN34" s="11">
         <f t="shared" si="87"/>
-        <v>28188.091634630819</v>
-      </c>
-      <c r="AI34" s="5">
+        <v>35900.158959171524</v>
+      </c>
+      <c r="BO34" s="11">
         <f t="shared" si="87"/>
-        <v>28469.972550977127</v>
-      </c>
-      <c r="AJ34" s="5">
+        <v>36259.160548763241</v>
+      </c>
+      <c r="BP34" s="11">
         <f t="shared" si="87"/>
-        <v>28754.672276486897</v>
-      </c>
-      <c r="AK34" s="5">
+        <v>36621.752154250877</v>
+      </c>
+      <c r="BQ34" s="11">
         <f t="shared" si="87"/>
-        <v>29042.218999251767</v>
-      </c>
-      <c r="AL34" s="5">
+        <v>36987.969675793385</v>
+      </c>
+      <c r="BR34" s="11">
         <f t="shared" si="87"/>
-        <v>29332.641189244285</v>
-      </c>
-      <c r="AM34" s="5">
+        <v>37357.849372551318</v>
+      </c>
+      <c r="BS34" s="11">
         <f t="shared" si="87"/>
-        <v>29625.967601136726</v>
-      </c>
-      <c r="AN34" s="5">
+        <v>37731.427866276834</v>
+      </c>
+      <c r="BT34" s="11">
         <f t="shared" si="87"/>
-        <v>29922.227277148093</v>
-      </c>
-      <c r="AO34" s="5">
+        <v>38108.742144939606</v>
+      </c>
+      <c r="BU34" s="11">
         <f t="shared" si="87"/>
-        <v>30221.449549919573</v>
-      </c>
-      <c r="AP34" s="5">
+        <v>38489.829566389002</v>
+      </c>
+      <c r="BV34" s="11">
         <f t="shared" si="87"/>
-        <v>30523.664045418769</v>
-      </c>
-      <c r="AQ34" s="5">
+        <v>38874.727862052896</v>
+      </c>
+      <c r="BW34" s="11">
         <f t="shared" si="87"/>
-        <v>30828.900685872955</v>
-      </c>
-      <c r="AR34" s="5">
+        <v>39263.475140673429</v>
+      </c>
+      <c r="BX34" s="11">
         <f t="shared" si="87"/>
-        <v>31137.189692731685</v>
-      </c>
-      <c r="AS34" s="5">
+        <v>39656.10989208016</v>
+      </c>
+      <c r="BY34" s="11">
         <f t="shared" si="87"/>
-        <v>31448.561589659002</v>
-      </c>
-      <c r="AT34" s="5">
+        <v>40052.670991000959</v>
+      </c>
+      <c r="BZ34" s="11">
         <f t="shared" si="87"/>
-        <v>31763.047205555591</v>
-      </c>
-      <c r="AU34" s="5">
+        <v>40453.197700910969</v>
+      </c>
+      <c r="CA34" s="11">
         <f t="shared" si="87"/>
-        <v>32080.677677611147</v>
-      </c>
-      <c r="AV34" s="5">
+        <v>40857.729677920077</v>
+      </c>
+      <c r="CB34" s="11">
         <f t="shared" si="87"/>
-        <v>32401.48445438726</v>
-      </c>
-      <c r="AW34" s="5">
+        <v>41266.306974699277</v>
+      </c>
+      <c r="CC34" s="11">
         <f t="shared" si="87"/>
-        <v>32725.499298931132</v>
-      </c>
-      <c r="AX34" s="5">
+        <v>41678.970044446272</v>
+      </c>
+      <c r="CD34" s="11">
         <f t="shared" si="87"/>
-        <v>33052.754291920442</v>
-      </c>
-      <c r="AY34" s="5">
+        <v>42095.759744890733</v>
+      </c>
+      <c r="CE34" s="11">
         <f t="shared" si="87"/>
-        <v>33383.281834839647</v>
-      </c>
-      <c r="AZ34" s="5">
+        <v>42516.717342339638</v>
+      </c>
+      <c r="CF34" s="11">
         <f t="shared" si="87"/>
-        <v>33717.114653188044</v>
-      </c>
-      <c r="BA34" s="5">
+        <v>42941.884515763035</v>
+      </c>
+      <c r="CG34" s="11">
         <f t="shared" si="87"/>
-        <v>34054.285799719924</v>
-      </c>
-      <c r="BB34" s="5">
+        <v>43371.303360920669</v>
+      </c>
+      <c r="CH34" s="11">
         <f t="shared" si="87"/>
-        <v>34394.828657717124</v>
-      </c>
-      <c r="BC34" s="5">
+        <v>43805.016394529877</v>
+      </c>
+      <c r="CI34" s="11">
         <f t="shared" si="87"/>
-        <v>34738.776944294295</v>
-      </c>
-      <c r="BD34" s="5">
+        <v>44243.066558475177</v>
+      </c>
+      <c r="CJ34" s="11">
         <f t="shared" si="87"/>
-        <v>35086.164713737242</v>
-      </c>
-      <c r="BE34" s="5">
+        <v>44685.497224059931</v>
+      </c>
+      <c r="CK34" s="11">
         <f t="shared" si="87"/>
-        <v>35437.026360874617</v>
-      </c>
-      <c r="BF34" s="5">
+        <v>45132.352196300533</v>
+      </c>
+      <c r="CL34" s="11">
         <f t="shared" si="87"/>
-        <v>35791.396624483365</v>
-      </c>
-      <c r="BG34" s="5">
-        <f t="shared" ref="BG34:CL34" si="88">BF34*(1+$AC$27)</f>
-        <v>36149.310590728201</v>
-      </c>
-      <c r="BH34" s="5">
+        <v>45583.675718263541</v>
+      </c>
+      <c r="CM34" s="11">
+        <f t="shared" ref="CM34:DU34" si="88">CL34*(1+$AC$27)</f>
+        <v>46039.512475446179</v>
+      </c>
+      <c r="CN34" s="11">
         <f t="shared" si="88"/>
-        <v>36510.803696635485</v>
-      </c>
-      <c r="BI34" s="5">
+        <v>46499.90760020064</v>
+      </c>
+      <c r="CO34" s="11">
         <f t="shared" si="88"/>
-        <v>36875.911733601839</v>
-      </c>
-      <c r="BJ34" s="5">
+        <v>46964.906676202649</v>
+      </c>
+      <c r="CP34" s="11">
         <f t="shared" si="88"/>
-        <v>37244.670850937859</v>
-      </c>
-      <c r="BK34" s="5">
+        <v>47434.555742964672</v>
+      </c>
+      <c r="CQ34" s="11">
         <f t="shared" si="88"/>
-        <v>37617.117559447237</v>
-      </c>
-      <c r="BL34" s="5">
+        <v>47908.901300394318</v>
+      </c>
+      <c r="CR34" s="11">
         <f t="shared" si="88"/>
-        <v>37993.288735041708</v>
-      </c>
-      <c r="BM34" s="5">
+        <v>48387.990313398259</v>
+      </c>
+      <c r="CS34" s="11">
         <f t="shared" si="88"/>
-        <v>38373.221622392128</v>
-      </c>
-      <c r="BN34" s="5">
+        <v>48871.870216532239</v>
+      </c>
+      <c r="CT34" s="11">
         <f t="shared" si="88"/>
-        <v>38756.953838616049</v>
-      </c>
-      <c r="BO34" s="5">
+        <v>49360.588918697562</v>
+      </c>
+      <c r="CU34" s="11">
         <f t="shared" si="88"/>
-        <v>39144.52337700221</v>
-      </c>
-      <c r="BP34" s="5">
+        <v>49854.194807884538</v>
+      </c>
+      <c r="CV34" s="11">
         <f t="shared" si="88"/>
-        <v>39535.96861077223</v>
-      </c>
-      <c r="BQ34" s="5">
+        <v>50352.736755963386</v>
+      </c>
+      <c r="CW34" s="11">
         <f t="shared" si="88"/>
-        <v>39931.328296879954</v>
-      </c>
-      <c r="BR34" s="5">
+        <v>50856.264123523018</v>
+      </c>
+      <c r="CX34" s="11">
         <f t="shared" si="88"/>
-        <v>40330.641579848751</v>
-      </c>
-      <c r="BS34" s="5">
+        <v>51364.826764758247</v>
+      </c>
+      <c r="CY34" s="11">
         <f t="shared" si="88"/>
-        <v>40733.947995647235</v>
-      </c>
-      <c r="BT34" s="5">
+        <v>51878.475032405833</v>
+      </c>
+      <c r="CZ34" s="11">
         <f t="shared" si="88"/>
-        <v>41141.287475603705</v>
-      </c>
-      <c r="BU34" s="5">
+        <v>52397.259782729889</v>
+      </c>
+      <c r="DA34" s="11">
         <f t="shared" si="88"/>
-        <v>41552.700350359744</v>
-      </c>
-      <c r="BV34" s="5">
+        <v>52921.232380557187</v>
+      </c>
+      <c r="DB34" s="11">
         <f t="shared" si="88"/>
-        <v>41968.227353863345</v>
-      </c>
-      <c r="BW34" s="5">
+        <v>53450.444704362759</v>
+      </c>
+      <c r="DC34" s="11">
         <f t="shared" si="88"/>
-        <v>42387.909627401976</v>
-      </c>
-      <c r="BX34" s="5">
+        <v>53984.949151406385</v>
+      </c>
+      <c r="DD34" s="11">
         <f t="shared" si="88"/>
-        <v>42811.788723675993</v>
-      </c>
-      <c r="BY34" s="5">
+        <v>54524.798642920447</v>
+      </c>
+      <c r="DE34" s="11">
         <f t="shared" si="88"/>
-        <v>43239.906610912753</v>
-      </c>
-      <c r="BZ34" s="5">
+        <v>55070.04662934965</v>
+      </c>
+      <c r="DF34" s="11">
         <f t="shared" si="88"/>
-        <v>43672.305677021883</v>
-      </c>
-      <c r="CA34" s="5">
+        <v>55620.74709564315</v>
+      </c>
+      <c r="DG34" s="11">
         <f t="shared" si="88"/>
-        <v>44109.028733792104</v>
-      </c>
-      <c r="CB34" s="5">
+        <v>56176.954566599583</v>
+      </c>
+      <c r="DH34" s="11">
         <f t="shared" si="88"/>
-        <v>44550.119021130027</v>
-      </c>
-      <c r="CC34" s="5">
+        <v>56738.724112265576</v>
+      </c>
+      <c r="DI34" s="11">
         <f t="shared" si="88"/>
-        <v>44995.620211341331</v>
-      </c>
-      <c r="CD34" s="5">
+        <v>57306.111353388231</v>
+      </c>
+      <c r="DJ34" s="11">
         <f t="shared" si="88"/>
-        <v>45445.576413454743</v>
-      </c>
-      <c r="CE34" s="5">
+        <v>57879.172466922115</v>
+      </c>
+      <c r="DK34" s="11">
         <f t="shared" si="88"/>
-        <v>45900.032177589288</v>
-      </c>
-      <c r="CF34" s="5">
+        <v>58457.964191591338</v>
+      </c>
+      <c r="DL34" s="11">
         <f t="shared" si="88"/>
-        <v>46359.032499365181</v>
-      </c>
-      <c r="CG34" s="5">
+        <v>59042.543833507254</v>
+      </c>
+      <c r="DM34" s="11">
         <f t="shared" si="88"/>
-        <v>46822.622824358834</v>
-      </c>
-      <c r="CH34" s="5">
+        <v>59632.969271842325</v>
+      </c>
+      <c r="DN34" s="11">
         <f t="shared" si="88"/>
-        <v>47290.849052602425</v>
-      </c>
-      <c r="CI34" s="5">
+        <v>60229.298964560752</v>
+      </c>
+      <c r="DO34" s="11">
         <f t="shared" si="88"/>
-        <v>47763.757543128449</v>
-      </c>
-      <c r="CJ34" s="5">
+        <v>60831.591954206364</v>
+      </c>
+      <c r="DP34" s="11">
         <f t="shared" si="88"/>
-        <v>48241.395118559733</v>
-      </c>
-      <c r="CK34" s="5">
+        <v>61439.907873748431</v>
+      </c>
+      <c r="DQ34" s="11">
         <f t="shared" si="88"/>
-        <v>48723.80906974533</v>
-      </c>
-      <c r="CL34" s="5">
+        <v>62054.306952485917</v>
+      </c>
+      <c r="DR34" s="11">
         <f t="shared" si="88"/>
-        <v>49211.04716044278</v>
-      </c>
-      <c r="CM34" s="5">
-        <f t="shared" ref="CM34:DU34" si="89">CL34*(1+$AC$27)</f>
-        <v>49703.157632047209</v>
-      </c>
-      <c r="CN34" s="5">
+        <v>62674.850022010774</v>
+      </c>
+      <c r="DS34" s="11">
+        <f t="shared" si="88"/>
+        <v>63301.598522230881</v>
+      </c>
+      <c r="DT34" s="11">
+        <f t="shared" si="88"/>
+        <v>63934.614507453189</v>
+      </c>
+      <c r="DU34" s="11">
+        <f t="shared" si="88"/>
+        <v>64573.96065252772</v>
+      </c>
+    </row>
+    <row r="35" spans="2:125" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" ref="C36:I36" si="89">C59-C78</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
         <f t="shared" si="89"/>
-        <v>50200.189208367679</v>
-      </c>
-      <c r="CO34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
         <f t="shared" si="89"/>
-        <v>50702.191100451353</v>
-      </c>
-      <c r="CP34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
         <f t="shared" si="89"/>
-        <v>51209.213011455868</v>
-      </c>
-      <c r="CQ34" s="5">
+        <v>2378</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="89"/>
-        <v>51721.305141570425</v>
-      </c>
-      <c r="CR34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
         <f t="shared" si="89"/>
-        <v>52238.518192986128</v>
-      </c>
-      <c r="CS34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
         <f t="shared" si="89"/>
-        <v>52760.903374915993</v>
-      </c>
-      <c r="CT34" s="5">
-        <f t="shared" si="89"/>
-        <v>53288.512408665156</v>
-      </c>
-      <c r="CU34" s="5">
-        <f t="shared" si="89"/>
-        <v>53821.397532751806</v>
-      </c>
-      <c r="CV34" s="5">
-        <f t="shared" si="89"/>
-        <v>54359.611508079324</v>
-      </c>
-      <c r="CW34" s="5">
-        <f t="shared" si="89"/>
-        <v>54903.207623160117</v>
-      </c>
-      <c r="CX34" s="5">
-        <f t="shared" si="89"/>
-        <v>55452.239699391721</v>
-      </c>
-      <c r="CY34" s="5">
-        <f t="shared" si="89"/>
-        <v>56006.762096385639</v>
-      </c>
-      <c r="CZ34" s="5">
-        <f t="shared" si="89"/>
-        <v>56566.829717349494</v>
-      </c>
-      <c r="DA34" s="5">
-        <f t="shared" si="89"/>
-        <v>57132.498014522993</v>
-      </c>
-      <c r="DB34" s="5">
-        <f t="shared" si="89"/>
-        <v>57703.822994668226</v>
-      </c>
-      <c r="DC34" s="5">
-        <f t="shared" si="89"/>
-        <v>58280.861224614906</v>
-      </c>
-      <c r="DD34" s="5">
-        <f t="shared" si="89"/>
-        <v>58863.669836861052</v>
-      </c>
-      <c r="DE34" s="5">
-        <f t="shared" si="89"/>
-        <v>59452.306535229662</v>
-      </c>
-      <c r="DF34" s="5">
-        <f t="shared" si="89"/>
-        <v>60046.829600581957</v>
-      </c>
-      <c r="DG34" s="5">
-        <f t="shared" si="89"/>
-        <v>60647.297896587777</v>
-      </c>
-      <c r="DH34" s="5">
-        <f t="shared" si="89"/>
-        <v>61253.770875553659</v>
-      </c>
-      <c r="DI34" s="5">
-        <f t="shared" si="89"/>
-        <v>61866.308584309198</v>
-      </c>
-      <c r="DJ34" s="5">
-        <f t="shared" si="89"/>
-        <v>62484.971670152292</v>
-      </c>
-      <c r="DK34" s="5">
-        <f t="shared" si="89"/>
-        <v>63109.821386853815</v>
-      </c>
-      <c r="DL34" s="5">
-        <f t="shared" si="89"/>
-        <v>63740.919600722351</v>
-      </c>
-      <c r="DM34" s="5">
-        <f t="shared" si="89"/>
-        <v>64378.328796729576</v>
-      </c>
-      <c r="DN34" s="5">
-        <f t="shared" si="89"/>
-        <v>65022.11208469687</v>
-      </c>
-      <c r="DO34" s="5">
-        <f t="shared" si="89"/>
-        <v>65672.333205543837</v>
-      </c>
-      <c r="DP34" s="5">
-        <f t="shared" si="89"/>
-        <v>66329.056537599274</v>
-      </c>
-      <c r="DQ34" s="5">
-        <f t="shared" si="89"/>
-        <v>66992.347102975269</v>
-      </c>
-      <c r="DR34" s="5">
-        <f t="shared" si="89"/>
-        <v>67662.27057400503</v>
-      </c>
-      <c r="DS34" s="5">
-        <f t="shared" si="89"/>
-        <v>68338.893279745083</v>
-      </c>
-      <c r="DT34" s="5">
-        <f t="shared" si="89"/>
-        <v>69022.28221254253</v>
-      </c>
-      <c r="DU34" s="5">
-        <f t="shared" si="89"/>
-        <v>69712.505034667949</v>
-      </c>
-    </row>
-    <row r="35" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="R35" s="4">
-        <f>R34/R22</f>
-        <v>1.280797809933516</v>
-      </c>
-      <c r="S35" s="4">
-        <f>S34/S22</f>
-        <v>0.41938775510204079</v>
-      </c>
-      <c r="T35" s="4">
-        <f>T34/T22</f>
-        <v>1.2015053479466526</v>
-      </c>
-      <c r="U35" s="4">
-        <f>U34/U22</f>
-        <v>1.2280370627676411</v>
-      </c>
-      <c r="V35" s="4">
-        <f t="shared" ref="V35:Z35" si="90">V34/V22</f>
-        <v>1.2994750937923558</v>
-      </c>
-      <c r="W35" s="4">
-        <f t="shared" si="90"/>
-        <v>1.3446538735853553</v>
-      </c>
-      <c r="X35" s="4">
-        <f t="shared" si="90"/>
-        <v>1.3925804569406215</v>
-      </c>
-      <c r="Y35" s="4">
-        <f t="shared" si="90"/>
-        <v>1.443254386694496</v>
-      </c>
-      <c r="Z35" s="4">
-        <f t="shared" si="90"/>
-        <v>1.4966923968321124</v>
-      </c>
-    </row>
-    <row r="36" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" ref="C36:I36" si="91">C60-C79</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="91"/>
-        <v>2378</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <f>J60-J83</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <f>J59-J82</f>
         <v>2680</v>
       </c>
-      <c r="K36" s="1">
-        <f>K60-K83</f>
+      <c r="K36" s="7">
+        <f>K59-K82</f>
         <v>-751</v>
       </c>
-      <c r="R36" s="1">
-        <f>R60-R79</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <f>S60-S83</f>
+      <c r="R36" s="7">
+        <f>R59-R78</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="7">
+        <f>S59-S82</f>
         <v>-3221</v>
       </c>
-      <c r="T36" s="1">
-        <f>T60-T83</f>
+      <c r="T36" s="7">
+        <f>T59-T82</f>
         <v>2680</v>
       </c>
-      <c r="U36" s="1">
-        <f t="shared" ref="U36:Z36" si="92">T36+U22</f>
+      <c r="U36" s="7">
+        <f>T36+U22</f>
         <v>11626.430853731028</v>
       </c>
-      <c r="V36" s="1">
-        <f t="shared" si="92"/>
+      <c r="V36" s="7">
+        <f>U36+V22</f>
         <v>21687.12861167088</v>
       </c>
-      <c r="W36" s="1">
-        <f t="shared" si="92"/>
+      <c r="W36" s="7">
+        <f>V36+W22</f>
         <v>33248.04824928983</v>
       </c>
-      <c r="X36" s="1">
-        <f t="shared" si="92"/>
+      <c r="X36" s="7">
+        <f>W36+X22</f>
         <v>46512.414231901756</v>
       </c>
-      <c r="Y36" s="1">
-        <f t="shared" si="92"/>
+      <c r="Y36" s="7">
+        <f>X36+Y22</f>
         <v>61710.455146026827</v>
       </c>
-      <c r="Z36" s="1">
-        <f t="shared" si="92"/>
+      <c r="Z36" s="7">
+        <f>Y36+Z22</f>
         <v>79102.959947596653</v>
       </c>
-      <c r="AA36" s="4"/>
+      <c r="AA36" s="10"/>
     </row>
     <row r="37" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-    </row>
-    <row r="38" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" ref="C38" si="93">C22</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" ref="D38:K38" si="94">D22</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="94"/>
+      <c r="B37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="7">
+        <f>C22</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <f>F22</f>
         <v>2047.7999999999997</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" si="94"/>
+      <c r="G37" s="7">
+        <f>G22</f>
         <v>1224.2</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="94"/>
+      <c r="H37" s="7">
+        <f>H22</f>
         <v>1578</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="94"/>
+      <c r="I37" s="7">
+        <f>I22</f>
         <v>2076</v>
       </c>
-      <c r="J38" s="1">
-        <f t="shared" si="94"/>
+      <c r="J37" s="7">
+        <f>J22</f>
         <v>2703.6000000000004</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="94"/>
+      <c r="K37" s="7">
+        <f>K22</f>
         <v>2370.0668077296773</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R37" s="7">
         <f>R22</f>
         <v>5625.4</v>
       </c>
-      <c r="S38" s="1">
-        <f t="shared" ref="S38:T38" si="95">S22</f>
+      <c r="S37" s="7">
+        <f>S22</f>
         <v>7840</v>
       </c>
-      <c r="T38" s="1">
-        <f t="shared" si="95"/>
+      <c r="T37" s="7">
+        <f>T22</f>
         <v>7573</v>
       </c>
     </row>
+    <row r="38" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2048</v>
+      </c>
+      <c r="J38" s="7">
+        <v>2693</v>
+      </c>
+      <c r="S38" s="7">
+        <v>7839</v>
+      </c>
+      <c r="T38" s="7">
+        <v>7572</v>
+      </c>
+    </row>
     <row r="39" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2048</v>
-      </c>
-      <c r="J39" s="1">
-        <v>2693</v>
-      </c>
-      <c r="S39" s="1">
-        <v>7839</v>
-      </c>
-      <c r="T39" s="1">
-        <v>7572</v>
+      <c r="B39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="7">
+        <v>212</v>
+      </c>
+      <c r="J39" s="7">
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="7">
+        <v>10</v>
+      </c>
+      <c r="J40" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="1">
-        <v>212</v>
-      </c>
-      <c r="J40" s="1">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
+      <c r="F41" s="7">
+        <v>42</v>
+      </c>
+      <c r="J41" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="7">
+        <v>211</v>
+      </c>
+      <c r="J42" s="7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="7">
+        <v>-49</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="7">
+        <v>175</v>
+      </c>
+      <c r="J44" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="7">
+        <v>548</v>
+      </c>
+      <c r="J45" s="7">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="46" spans="2:125" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="11">
+        <f>F38+SUM(F39:F45)</f>
+        <v>3197</v>
+      </c>
+      <c r="J46" s="11">
+        <f>J38+SUM(J39:J45)</f>
+        <v>9545</v>
+      </c>
+    </row>
+    <row r="47" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="2:125" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="1">
-        <v>10</v>
-      </c>
-      <c r="J41" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="1">
-        <v>42</v>
-      </c>
-      <c r="J42" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="1">
-        <v>211</v>
-      </c>
-      <c r="J43" s="1">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-49</v>
-      </c>
-      <c r="J44" s="1">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="45" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="1">
-        <v>175</v>
-      </c>
-      <c r="J45" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="2:125" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="1">
-        <v>548</v>
-      </c>
-      <c r="J46" s="1">
-        <v>6237</v>
-      </c>
-    </row>
-    <row r="47" spans="2:125" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="5">
-        <f>F39+SUM(F40:F46)</f>
-        <v>3197</v>
-      </c>
-      <c r="J47" s="5">
-        <f>J39+SUM(J40:J46)</f>
-        <v>9545</v>
-      </c>
-    </row>
-    <row r="48" spans="2:125" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="F48" s="10"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="F49" s="10"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+      <c r="F50" s="10"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="2:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="2:29" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+      <c r="F51" s="11">
+        <f>SUM(F47:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="2:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="5">
-        <f>SUM(F48:F51)</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="2:29" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="F52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="F53" s="10"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="F54" s="10"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="F55" s="10"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="F56" s="10"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="F57" s="10">
+        <f>SUM(F52:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="4">
-        <f>SUM(F53:F57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="4"/>
+      <c r="F58" s="10"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F59" s="7">
         <f>7005+5</f>
         <v>7010</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J59" s="7">
         <f>12736+5</f>
         <v>12741</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K59" s="7">
         <f>9098+5</f>
         <v>9103</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S59" s="7">
         <f>7004+5</f>
         <v>7009</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T59" s="7">
         <f>12736+5</f>
         <v>12741</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="1">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="7">
         <f>4334+1379</f>
         <v>5713</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J60" s="7">
         <f>4477+82</f>
         <v>4559</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K60" s="7">
         <f>4597+382</f>
         <v>4979</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S60" s="7">
         <v>4334</v>
       </c>
-      <c r="T61" s="1">
+      <c r="T60" s="7">
         <v>4477</v>
       </c>
     </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1001</v>
+      </c>
+      <c r="J61" s="7">
+        <v>284</v>
+      </c>
+      <c r="AC61" s="10"/>
+    </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="1">
-        <v>1001</v>
-      </c>
-      <c r="J62" s="1">
-        <v>284</v>
-      </c>
-      <c r="AC62" s="4"/>
+      <c r="F62" s="7">
+        <v>240</v>
+      </c>
+      <c r="J62" s="7">
+        <v>321</v>
+      </c>
+      <c r="AC62" s="10"/>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="7">
+        <v>8851</v>
+      </c>
+      <c r="J63" s="7">
+        <v>10892</v>
+      </c>
+      <c r="K63" s="7">
+        <v>11025</v>
+      </c>
+      <c r="S63" s="7">
+        <v>8851</v>
+      </c>
+      <c r="T63" s="7">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="1">
-        <v>240</v>
-      </c>
-      <c r="J63" s="1">
-        <v>321</v>
-      </c>
-      <c r="AC63" s="4"/>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="1">
-        <v>8851</v>
-      </c>
-      <c r="J64" s="1">
-        <v>10892</v>
-      </c>
-      <c r="K64" s="1">
-        <v>11025</v>
-      </c>
-      <c r="S64" s="1">
-        <v>8851</v>
-      </c>
-      <c r="T64" s="1">
-        <v>10891</v>
-      </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="F64" s="7">
+        <v>1579</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="7">
+        <v>61</v>
+      </c>
+      <c r="J66" s="7">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1872</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="7">
+        <v>929</v>
+      </c>
+      <c r="J68" s="7">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="7">
+        <v>652</v>
+      </c>
+      <c r="J69" s="7">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="7">
+        <v>919</v>
+      </c>
+      <c r="J70" s="7">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71" s="7">
+        <v>4588</v>
+      </c>
+      <c r="J71" s="7">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="7">
+        <v>742</v>
+      </c>
+      <c r="J72" s="7">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="7">
+        <v>5493</v>
+      </c>
+      <c r="J73" s="7">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="7">
+        <v>307</v>
+      </c>
+      <c r="J74" s="7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="1">
-        <v>1579</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" s="1">
-        <v>61</v>
-      </c>
-      <c r="J67" s="1">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1872</v>
-      </c>
-      <c r="J68" s="1">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" s="1">
-        <v>929</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="1">
-        <v>652</v>
-      </c>
-      <c r="J70" s="1">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="1">
-        <v>919</v>
-      </c>
-      <c r="J71" s="1">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="1">
-        <v>4588</v>
-      </c>
-      <c r="J72" s="1">
-        <v>4589</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" s="1">
-        <v>742</v>
-      </c>
-      <c r="J73" s="1">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F74" s="1">
-        <v>5493</v>
-      </c>
-      <c r="J74" s="1">
-        <v>6847</v>
-      </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="7">
+        <f>SUM(C59:C74)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" ref="D75:K75" si="90">SUM(D59:D74)</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <f>SUM(F59:F74)</f>
+        <v>39957</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="90"/>
+        <v>48590</v>
+      </c>
+      <c r="K75" s="7">
+        <f t="shared" si="90"/>
+        <v>25107</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S77" s="7">
+        <v>2347</v>
+      </c>
+      <c r="T77" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="7">
+        <v>4632</v>
+      </c>
+      <c r="J78" s="7">
+        <v>3677</v>
+      </c>
+      <c r="K78" s="7">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F75" s="1">
-        <v>307</v>
-      </c>
-      <c r="J75" s="1">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="1">
-        <f>SUM(C60:C75)</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" ref="D76:K76" si="96">SUM(D60:D75)</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="1">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
-        <f>SUM(F60:F75)</f>
-        <v>39957</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <f t="shared" si="96"/>
-        <v>48590</v>
-      </c>
-      <c r="K76" s="1">
-        <f t="shared" si="96"/>
-        <v>25107</v>
-      </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S78" s="1">
-        <v>2347</v>
-      </c>
-      <c r="T78" s="1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="1">
-        <v>4632</v>
-      </c>
-      <c r="J79" s="1">
-        <v>3677</v>
-      </c>
-      <c r="K79" s="1">
-        <v>3681</v>
+      <c r="F79" s="7">
+        <v>372</v>
+      </c>
+      <c r="J79" s="7">
+        <v>299</v>
+      </c>
+      <c r="K79" s="7">
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="1">
-        <v>372</v>
-      </c>
-      <c r="J80" s="1">
-        <v>299</v>
-      </c>
-      <c r="K80" s="1">
-        <v>336</v>
+      <c r="F80" s="7">
+        <v>4826</v>
+      </c>
+      <c r="J80" s="7">
+        <v>5625</v>
+      </c>
+      <c r="K80" s="7">
+        <v>5400</v>
       </c>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="1">
-        <v>4826</v>
-      </c>
-      <c r="J81" s="1">
-        <v>5625</v>
-      </c>
-      <c r="K81" s="1">
-        <v>5400</v>
+      <c r="F81" s="7">
+        <v>401</v>
+      </c>
+      <c r="J81" s="7">
+        <v>460</v>
+      </c>
+      <c r="K81" s="7">
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F82" s="1">
-        <v>401</v>
-      </c>
-      <c r="J82" s="1">
-        <v>460</v>
-      </c>
-      <c r="K82" s="1">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="1">
-        <f>SUM(C78:C82)</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" ref="D83:K83" si="97">SUM(D78:D82)</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="1">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="1">
-        <f>SUM(F78:F82)</f>
+      <c r="C82" s="7">
+        <f>SUM(C77:C81)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="7">
+        <f t="shared" ref="D82:K82" si="91">SUM(D77:D81)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <f>SUM(F77:F81)</f>
         <v>10231</v>
       </c>
-      <c r="G83" s="1">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="1">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="1">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="1">
-        <f t="shared" si="97"/>
+      <c r="G82" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <f t="shared" si="91"/>
         <v>10061</v>
       </c>
-      <c r="K83" s="1">
-        <f t="shared" si="97"/>
+      <c r="K82" s="7">
+        <f t="shared" si="91"/>
         <v>9854</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S82" s="7">
         <v>10230</v>
       </c>
-      <c r="T83" s="1">
+      <c r="T82" s="7">
         <v>10061</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="1" t="e">
-        <f t="shared" ref="C85:K85" si="98">C61/C9*360</f>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="7" t="e">
+        <f>C60/C9*360</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D85" s="1" t="e">
-        <f t="shared" si="98"/>
+      <c r="D84" s="7" t="e">
+        <f>D60/D9*360</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="1" t="e">
-        <f t="shared" si="98"/>
+      <c r="E84" s="7" t="e">
+        <f>E60/E9*360</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F85" s="1">
-        <f t="shared" si="98"/>
+      <c r="F84" s="7">
+        <f>F60/F9*360</f>
         <v>284.18958131822581</v>
       </c>
-      <c r="G85" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="1">
-        <f t="shared" si="98"/>
+      <c r="G84" s="7">
+        <f>G60/G9*360</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <f>H60/H9*360</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <f>I60/I9*360</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <f>J60/J9*360</f>
         <v>177.18233833531252</v>
       </c>
-      <c r="K85" s="1">
-        <f t="shared" si="98"/>
+      <c r="K84" s="7">
+        <f>K60/K9*360</f>
         <v>231.5215706535779</v>
       </c>
-      <c r="S85" s="1">
-        <f>S61/S9*360</f>
+      <c r="S84" s="7">
+        <f>S60/S9*360</f>
         <v>56.614536086215026</v>
       </c>
-      <c r="T85" s="1">
-        <f>T61/T9*360</f>
+      <c r="T84" s="7">
+        <f>T60/T9*360</f>
         <v>57.025793440186817</v>
       </c>
     </row>
